--- a/prestashop_products.xlsx
+++ b/prestashop_products.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janit_000\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\222252\OneDrive\Documents\Git\CouCou\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="English Master" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1877" uniqueCount="691">
   <si>
     <t>References</t>
   </si>
@@ -799,9 +799,6 @@
     <t>twist v cut neck on the back</t>
   </si>
   <si>
-    <t>open back twisted neck</t>
-  </si>
-  <si>
     <t>turtle neck rollup</t>
   </si>
   <si>
@@ -892,9 +889,6 @@
     <t>fluid draped</t>
   </si>
   <si>
-    <t>twist belt</t>
-  </si>
-  <si>
     <t>bamboo pleats, cutout on the hips, straight line</t>
   </si>
   <si>
@@ -922,9 +916,6 @@
     <t>angle drape on front</t>
   </si>
   <si>
-    <t>turtle high neck collar</t>
-  </si>
-  <si>
     <t>pleated semi/half belt</t>
   </si>
   <si>
@@ -955,18 +946,12 @@
     <t>below knee length</t>
   </si>
   <si>
-    <t>open liquid, 2 (black purple) color, raw edge</t>
-  </si>
-  <si>
     <t>oversized, rounded side to drape or bunch up on waist, tunic</t>
   </si>
   <si>
     <t>low neckline cowl</t>
   </si>
   <si>
-    <t>turtle neck collar</t>
-  </si>
-  <si>
     <t>pleated collar</t>
   </si>
   <si>
@@ -1009,12 +994,6 @@
     <t>round cutout detail, oversized large</t>
   </si>
   <si>
-    <t>bi 2 material front back, pleats on the shoulder, fantasy knit</t>
-  </si>
-  <si>
-    <t>cuff on bottom</t>
-  </si>
-  <si>
     <t>v neck</t>
   </si>
   <si>
@@ -1501,9 +1480,6 @@
     <t>draped pleated</t>
   </si>
   <si>
-    <t>draped fluid bib pleated</t>
-  </si>
-  <si>
     <t>cutout detailed simple yoga leggings</t>
   </si>
   <si>
@@ -1657,9 +1633,6 @@
     <t>knit top</t>
   </si>
   <si>
-    <t>oversized bamboo pleated</t>
-  </si>
-  <si>
     <t>pleated straight shaped</t>
   </si>
   <si>
@@ -1678,9 +1651,6 @@
     <t>large round collar</t>
   </si>
   <si>
-    <t>twist belt waist pleated waist</t>
-  </si>
-  <si>
     <t>ankle length</t>
   </si>
   <si>
@@ -1720,9 +1690,6 @@
     <t>turtle neck</t>
   </si>
   <si>
-    <t>ballooned draped</t>
-  </si>
-  <si>
     <t>straight shaped pleated</t>
   </si>
   <si>
@@ -1732,9 +1699,6 @@
     <t>asymmetric high neck</t>
   </si>
   <si>
-    <t>modzik, oversized 2 button, round kimono, black liner</t>
-  </si>
-  <si>
     <t>oversized, pleated,</t>
   </si>
   <si>
@@ -1969,39 +1933,9 @@
     <t>Top, en jersey, col bateau, manches chales, coutures tournantes, le modèle porte une taille médium.</t>
   </si>
   <si>
-    <t>Young French Designer  Amandine Leforestiers Arietis pants are made from cotton jacquard. The two practical pockets will keep your personal items secure or your hands warm. The elastic back will keep these pants in place when you are active. The belt is destructured. Pair these pants  with a refined top for a chic look. The model is wearing the Pleione top by Amandine Leforestier.</t>
-  </si>
-  <si>
-    <t>Young French Designer  Amandine Leforestiers Courbe wool jersey skirt stops above the knee. The simplicity is accented by a twist detail on the non elastic waist. Where for a cool night out with a long top. The model is wearing a Gambade top by Amandine Leforestier</t>
-  </si>
-  <si>
-    <t>Young French Designer  Amandine Leforestier' Danse dress is made from stretchy rib cotton. This is a simple dress the waist pleate emphasizes your silhouette/body. Wear it with heels for a feminine look or tennis for a sport chic look.</t>
-  </si>
-  <si>
-    <t>Young French Designer  Amandine Leforestiers' Diese Sweater is made from Fleece cotton the long sleeves will keep you warm on a cool spring day.  The straight cut makes this a very comfortable top, but the cutouts on the shoulder and the drop on the back makes this sweater couture. Wear it to work or lunch with your friends. The model is wearing Pivot pants by Amandine Leforestier.</t>
-  </si>
-  <si>
-    <t>Young French Designer  Amandine Leforestiers' little black dress Gallina is made from jersey cotton. The loose sleeveless flowing dress is made elegant by the draped destructured pleat. Wear it to your favorite parties/events all summer long</t>
-  </si>
-  <si>
-    <t>Young French Designer  Amandine Leforestiers' Giena long sleeve kimono jacket is made from jacquard cotton. Where it open. The fallen fluid nature lets you play with your favorite cute top. The model is wearing Arietis pants by Amandine Leforestier</t>
-  </si>
-  <si>
-    <t>Young French Designer  Amandine Leforestiers'  Gine legging/yoga pants is made from fleece cotton. The cutout detail/fake pockets lets you pair these pants with   a shirt or sweater so you can keep wearing after your workout. The model is wearining the Porte pullover by Amandine Leforestier.</t>
-  </si>
-  <si>
-    <t>Young French Designer  Amandine Leforestiers' Melodie sweater dress is made fleece cotton. It is a simple comfortable straight dress. The cowl neck the shoulder opening/cutout and stitch detail on the sleeve makes this dress both sophisticated and feminine.</t>
-  </si>
-  <si>
-    <t>Young French Designer  Amandine Leforestiers' Moove top is made from rib cotton. The pleated neckline adds elegance to this straight cut top. long sleeves make it practical and warm. Very extensible pair it with your favorite bottom. The model is wearing the Arietis pants by Amandine Leforestier.</t>
-  </si>
-  <si>
     <t>Long Description</t>
   </si>
   <si>
-    <t>Young French Designer Amandine Leforestiers Alto Carrot pants are made from cotton fleece. It has two pockets for your wallet and phone or just to keep your hands warm. The non elastic twisted belt/waist gives these comfortable pants a sporty chic look. The model is wearing the Concerto top  by Amandine Leforestier.</t>
-  </si>
-  <si>
     <t>Pairing</t>
   </si>
   <si>
@@ -2095,16 +2029,115 @@
     <t>Long sleeve kimono jacket. Where it open. The fallen fluid nature lets you play with your favorite cute top.</t>
   </si>
   <si>
-    <t>This Quilted coat/kimono is worn open. It has side pockets. Soft and comfortable, it is versatile wear it with a more formal dress, or wear it like a big jacket.</t>
-  </si>
-  <si>
     <t>Legging/yoga pants. The cutout detail/fake pockets lets you pair these pants with  a shirt or sweater.</t>
   </si>
   <si>
-    <t>It is a simple comfortable straight dress. The cowl neck the shoulder opening/cutout and stitch detail on the sleeve makes this minimalist dress both sophisticated and feminine.</t>
-  </si>
-  <si>
-    <t>The pleated neckline adds elegance to this straight cut top. long sleeves make it practical and warm. Very extensible, pair it with your favorite bottom..</t>
+    <t>Flowing dress, draped, viscose, cowl neck, short sleeves, mid-thigh length. The little summer dress to take to her femininity and comfort.</t>
+  </si>
+  <si>
+    <t>Top fluid viscose jersey, V-neck, pleated, sleeveless. Its folds on the side gives it a loose mind. Model is wearing shorts Suhel.</t>
+  </si>
+  <si>
+    <t>Asymmetrical sweater, fleece cotton, short sleeves, boat neck. The work of folds makes it a unique fashion sweater. Associated with Arietis pants.</t>
+  </si>
+  <si>
+    <t>Top draped jersey, round neck back Cowl neck, sleeveless. Agrèable and feminine, it will partner easily with your bas.Le Naos model wears the pants.</t>
+  </si>
+  <si>
+    <t>Top, spirit poncho, jersey, V-neck pleated details, oversize. Model is wearing a skirt Rhythm.</t>
+  </si>
+  <si>
+    <t>Top fluid jersey, black speckled gray cowl neck draped. Gentle and refined, is the door at any time of the day. Ode associated with the skirt.</t>
+  </si>
+  <si>
+    <t>Top, double jersey, very soft, sleeveless, pleated collar. His oversize mind associates particularly with pants / shorts. Model is wearing shorts Suhel.</t>
+  </si>
+  <si>
+    <t>Flowing dress, jersey, sleeveless, cowl neck, pleated at the side and at the low waist cut. Both feminine, comfortable, efficient, we adopt all summer!</t>
+  </si>
+  <si>
+    <t>Pull end, jersey, long sleeves, boat neck, draped on the front. Spirit loose. Associated with Arietis pants.</t>
+  </si>
+  <si>
+    <t>Dress, double jersey, very soft, straight cut, cowl neck, short sleeves, pleated on the front, above knee length.</t>
+  </si>
+  <si>
+    <t>Shorts, cotton jacquard, 2 pockets, elasticated back, pleated cuff, mid-thigh length. The model carries the top Isis.</t>
+  </si>
+  <si>
+    <t>Jersey Top, sleeveless, neck twisted.</t>
+  </si>
+  <si>
+    <t>Top, jersey, boat neck, sleeves shawls, twisted seams, the model wears a size medium.</t>
+  </si>
+  <si>
+    <t>This quilted kimono style coat is worn open. It has side pockets. Soft and comfortable, it is versatile wear it with a more formal dress, or wear it like a big jacket.</t>
+  </si>
+  <si>
+    <t>It is a simple comfortable straight dress. The cowl neck the shoulder cutout and stitch detail on the sleeve makes this minimalist dress both sophisticated and feminine.</t>
+  </si>
+  <si>
+    <t>The pleated neckline and fake zipper add elegance to this straight cut top. long sleeves make it practical and warm. Very extensible, pair it with your favorite bottom.</t>
+  </si>
+  <si>
+    <t>twisted belt pleated non elastic waist</t>
+  </si>
+  <si>
+    <t>twisted belt</t>
+  </si>
+  <si>
+    <t>twisted neck</t>
+  </si>
+  <si>
+    <t>open back liquid, bi (black purple) color, raw edge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi 2 material front back, pleats on the shoulder, fantasy knit, cuff on bottom </t>
+  </si>
+  <si>
+    <t>modzik oversized 2 button round kimono black liner</t>
+  </si>
+  <si>
+    <t>ballooned double pleat draped</t>
+  </si>
+  <si>
+    <t>pleated hip</t>
+  </si>
+  <si>
+    <t>oversized bamboo pleat</t>
+  </si>
+  <si>
+    <t>This couture long sleeve sweater with its high collar will combine well with a snood or scarf on a cold day. The roomy collar and straight cut will provide plenty of air and comfort on a warmer day too. Complete with pleat details about the hip.</t>
+  </si>
+  <si>
+    <t>This is a sleeveless boat neck straight cut top. It is made elegant by a drop detail on the back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This soft dress emphasizes the silhouette beautifully and is adapted for all looks and seasons. It is completed by a low cut waist and diagonal pleats on the front torso. </t>
+  </si>
+  <si>
+    <t>This is a straight cut 3/4 sleeve top with a round neck cleared for more femininity. It is completed by pleats at the shoulder. The wool mixed brushed cotton makes this perfect for half seasons.</t>
+  </si>
+  <si>
+    <t>These practical pants with 2 pockets are comfortable. The pleated front gives them an unstructured effect. The combined style and comfort, we adopt all year! The model has the top score.</t>
+  </si>
+  <si>
+    <t>Partition</t>
+  </si>
+  <si>
+    <t>draped fluid pouch pleat</t>
+  </si>
+  <si>
+    <t>A straight cut mid thigh length skirt. It is completed by the folded/tucked pleat details on the front.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This skirt is double pleated for a balloon effect. It has an elastic waist. Wear it with pantyhose when in winter fall and spring or bare in summer. </t>
+  </si>
+  <si>
+    <t>This is a couture sweater with bamboo pleats.  long sleeve sweater with its high collar will combine well with a snood or scarf on a cold day. The roomy collar and straight cut will provide plenty of air and comfort on a warmer day too.</t>
+  </si>
+  <si>
+    <t>This is a viscose/jersey bi-material long sleeve top. It is a refined top with fluid drape details that gives it an unstructured effect. It is as easy to wear as t-shirt. It will add a touch of elegance and complexity to your casual outfit. It has a round collar</t>
   </si>
 </sst>
 </file>
@@ -3833,10 +3866,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="G18" sqref="G18"/>
+      <selection pane="topRight" activeCell="G78" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3872,10 +3905,10 @@
   <sheetData>
     <row r="1" spans="1:32" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="47" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>0</v>
@@ -3887,46 +3920,46 @@
         <v>142</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>643</v>
+        <v>622</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>226</v>
       </c>
       <c r="K1" s="73" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L1" s="75" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
       <c r="M1" s="75" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="N1" s="75" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="O1" s="75" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="P1" s="75" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="Q1" s="75" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="R1" s="75" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="S1" s="74" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="T1" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="U1" s="16" t="s">
         <v>109</v>
@@ -3950,19 +3983,19 @@
         <v>83</v>
       </c>
       <c r="AB1" s="50" t="s">
-        <v>645</v>
+        <v>623</v>
       </c>
       <c r="AC1" s="50" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="AD1" s="50" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="AE1" s="50" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="AF1" s="50" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -3973,7 +4006,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>41</v>
@@ -3982,29 +4015,29 @@
         <v>84</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>666</v>
+        <v>644</v>
       </c>
       <c r="H2" s="43" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I2" s="43" t="s">
         <v>89</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K2" s="68" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L2" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M2" s="77"/>
       <c r="Q2" s="76" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="R2" s="76" t="s">
         <v>233</v>
@@ -4045,7 +4078,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
@@ -4054,29 +4087,29 @@
         <v>86</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="G3" t="s">
-        <v>664</v>
+        <v>642</v>
       </c>
       <c r="H3" s="43" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>89</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K3" s="68" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="L3" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M3" s="77"/>
       <c r="N3" s="77" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="O3" s="77"/>
       <c r="P3" s="77" t="s">
@@ -4115,13 +4148,13 @@
         <v>#N/A</v>
       </c>
       <c r="AB3" t="s">
-        <v>646</v>
+        <v>624</v>
       </c>
       <c r="AC3" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="AE3" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -4132,7 +4165,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>27</v>
@@ -4141,29 +4174,29 @@
         <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G4" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I4" s="7" t="s">
         <v>89</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K4" s="68" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="L4" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M4" s="77"/>
       <c r="N4" s="77" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="O4" s="77"/>
       <c r="P4" s="77" t="s">
@@ -4196,13 +4229,13 @@
         <v>#N/A</v>
       </c>
       <c r="AB4" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AC4" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="AE4" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -4213,7 +4246,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>92</v>
@@ -4222,29 +4255,29 @@
         <v>87</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G5" t="s">
-        <v>668</v>
+        <v>646</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I5" s="7" t="s">
         <v>90</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K5" s="68" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="L5" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M5" s="77"/>
       <c r="N5" s="77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P5" s="76" t="s">
         <v>241</v>
@@ -4270,13 +4303,13 @@
         <v>2</v>
       </c>
       <c r="AB5" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="AC5" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AE5" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -4287,7 +4320,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>46</v>
@@ -4296,30 +4329,30 @@
         <v>84</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G6" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="I6" s="7" t="s">
         <v>89</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K6" s="68" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="L6" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M6" s="77"/>
       <c r="N6" s="77"/>
       <c r="O6" s="77" t="s">
-        <v>537</v>
+        <v>671</v>
       </c>
       <c r="P6" s="77"/>
       <c r="Q6" s="77" t="s">
@@ -4357,13 +4390,13 @@
         <v>3</v>
       </c>
       <c r="AB6" t="s">
-        <v>651</v>
+        <v>629</v>
       </c>
       <c r="AC6" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AE6" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -4374,7 +4407,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>52</v>
@@ -4383,30 +4416,30 @@
         <v>87</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="G7" t="s">
-        <v>669</v>
+        <v>647</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>89</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K7" s="68" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="L7" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M7" s="77"/>
       <c r="N7" s="77"/>
       <c r="O7" s="77" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="P7" s="77"/>
       <c r="Q7" s="77" t="s">
@@ -4441,16 +4474,16 @@
         <v>7</v>
       </c>
       <c r="AB7" t="s">
-        <v>652</v>
+        <v>630</v>
       </c>
       <c r="AC7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="AD7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="AE7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -4461,7 +4494,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>25</v>
@@ -4470,28 +4503,28 @@
         <v>85</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G8" t="s">
-        <v>670</v>
+        <v>648</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>93</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="68" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L8" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M8" s="77"/>
       <c r="N8" s="77"/>
       <c r="O8" s="77" t="s">
-        <v>275</v>
+        <v>672</v>
       </c>
       <c r="P8" s="77"/>
       <c r="Q8" s="77"/>
@@ -4528,13 +4561,13 @@
         <v>1</v>
       </c>
       <c r="AB8" t="s">
-        <v>653</v>
+        <v>631</v>
       </c>
       <c r="AC8" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="AE8" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -4545,7 +4578,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>42</v>
@@ -4554,29 +4587,29 @@
         <v>86</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="G9" t="s">
-        <v>671</v>
+        <v>649</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>89</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K9" s="68" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="L9" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M9" s="77"/>
       <c r="N9" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O9" s="77"/>
       <c r="P9" s="77" t="s">
@@ -4586,7 +4619,7 @@
         <v>234</v>
       </c>
       <c r="R9" s="77" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="S9" s="84">
         <f>VLOOKUP(D9,Sheet1!$A$2:$C$97,2)</f>
@@ -4619,10 +4652,10 @@
         <v>4</v>
       </c>
       <c r="AC9" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="AE9" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -4633,7 +4666,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>33</v>
@@ -4642,29 +4675,29 @@
         <v>84</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G10" t="s">
-        <v>672</v>
+        <v>650</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>89</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K10" s="68" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="L10" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M10" s="77"/>
       <c r="N10" s="76" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P10" s="76" t="s">
         <v>241</v>
@@ -4699,13 +4732,13 @@
         <v>4</v>
       </c>
       <c r="AB10" t="s">
-        <v>646</v>
+        <v>624</v>
       </c>
       <c r="AC10" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="AE10" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -4716,7 +4749,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>21</v>
@@ -4725,25 +4758,25 @@
         <v>86</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>673</v>
+        <v>651</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I11" s="7" t="s">
         <v>93</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K11" s="68" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="L11" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M11" s="77"/>
       <c r="N11" s="77" t="s">
@@ -4783,13 +4816,13 @@
         <v>9</v>
       </c>
       <c r="AB11" t="s">
-        <v>647</v>
+        <v>625</v>
       </c>
       <c r="AC11" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="AE11" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -4800,7 +4833,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>54</v>
@@ -4809,29 +4842,29 @@
         <v>87</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G12" t="s">
-        <v>674</v>
+        <v>652</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I12" s="31" t="s">
         <v>214</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="K12" s="68" t="s">
-        <v>478</v>
+        <v>686</v>
       </c>
       <c r="L12" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M12" s="77"/>
       <c r="N12" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O12" s="77"/>
       <c r="P12" s="77" t="s">
@@ -4841,7 +4874,7 @@
         <v>234</v>
       </c>
       <c r="R12" s="77" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="S12" s="84">
         <f>VLOOKUP(D12,Sheet1!$A$2:$C$97,2)</f>
@@ -4868,10 +4901,10 @@
         <v>4</v>
       </c>
       <c r="AC12" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="AE12" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -4882,7 +4915,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>73</v>
@@ -4891,25 +4924,25 @@
         <v>87</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="G13" t="s">
-        <v>675</v>
+        <v>653</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I13" s="7" t="s">
         <v>89</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K13" s="68" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="L13" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M13" s="77"/>
       <c r="P13" s="77" t="s">
@@ -4919,7 +4952,7 @@
         <v>234</v>
       </c>
       <c r="R13" s="77" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="S13" s="84">
         <f>VLOOKUP(D13,Sheet1!$A$2:$C$97,2)</f>
@@ -4942,13 +4975,13 @@
         <v>1</v>
       </c>
       <c r="AB13" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AC13" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="AE13" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -4959,7 +4992,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>63</v>
@@ -4967,15 +5000,15 @@
       <c r="E14" s="2"/>
       <c r="F14" s="5"/>
       <c r="G14" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="L14" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M14" s="77"/>
       <c r="S14" s="84">
@@ -5008,7 +5041,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>50</v>
@@ -5017,23 +5050,23 @@
         <v>85</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="G15" t="s">
-        <v>677</v>
+        <v>654</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="I15" s="7" t="s">
         <v>201</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="68" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="L15" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M15" s="77"/>
       <c r="N15" s="77"/>
@@ -5071,13 +5104,13 @@
         <v>6</v>
       </c>
       <c r="AB15" t="s">
-        <v>655</v>
+        <v>633</v>
       </c>
       <c r="AC15" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AE15" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
@@ -5088,7 +5121,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>23</v>
@@ -5097,25 +5130,25 @@
         <v>91</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G16" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I16" s="7" t="s">
         <v>89</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K16" s="68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L16" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M16" s="77"/>
       <c r="N16" s="76" t="s">
@@ -5128,7 +5161,7 @@
         <v>234</v>
       </c>
       <c r="R16" s="77" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="S16" s="84">
         <f>VLOOKUP(D16,Sheet1!$A$2:$C$97,2)</f>
@@ -5160,13 +5193,13 @@
         <v>6</v>
       </c>
       <c r="AC16" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="AD16" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="AE16" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
@@ -5177,7 +5210,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>43</v>
@@ -5186,29 +5219,29 @@
         <v>86</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="G17" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>89</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K17" s="68" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="L17" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M17" s="77"/>
       <c r="N17" s="77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O17" s="77"/>
       <c r="P17" s="77" t="s">
@@ -5243,13 +5276,13 @@
         <v>1</v>
       </c>
       <c r="AB17" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AC17" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="AE17" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
@@ -5260,7 +5293,7 @@
         <v>7</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>14</v>
@@ -5269,29 +5302,32 @@
         <v>84</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>496</v>
+        <v>488</v>
+      </c>
+      <c r="G18" t="s">
+        <v>688</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>88</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K18" s="68" t="s">
-        <v>551</v>
+        <v>677</v>
       </c>
       <c r="L18" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="M18" s="77"/>
       <c r="O18" s="77" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="R18" s="77" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="S18" s="84">
         <f>VLOOKUP(D18,Sheet1!$A$2:$C$97,2)</f>
@@ -5318,13 +5354,13 @@
         <v>13</v>
       </c>
       <c r="AB18" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="AC18" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="AE18" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
@@ -5335,7 +5371,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>51</v>
@@ -5344,29 +5380,32 @@
         <v>85</v>
       </c>
       <c r="F19" s="94" t="s">
-        <v>492</v>
+        <v>484</v>
+      </c>
+      <c r="G19" t="s">
+        <v>680</v>
       </c>
       <c r="H19" s="23" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I19" s="26" t="s">
         <v>89</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K19" s="68" t="s">
-        <v>482</v>
+        <v>678</v>
       </c>
       <c r="L19" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M19" s="77"/>
       <c r="N19" s="76" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="P19" s="77" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="Q19" s="77"/>
       <c r="S19" s="84">
@@ -5396,13 +5435,13 @@
         <v>2</v>
       </c>
       <c r="AB19" t="s">
-        <v>646</v>
+        <v>624</v>
       </c>
       <c r="AC19" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AE19" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
@@ -5413,7 +5452,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>30</v>
@@ -5422,26 +5461,29 @@
         <v>84</v>
       </c>
       <c r="F20" s="95" t="s">
-        <v>492</v>
+        <v>484</v>
+      </c>
+      <c r="G20" t="s">
+        <v>689</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I20" s="26" t="s">
         <v>89</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K20" s="68" t="s">
-        <v>530</v>
+        <v>679</v>
       </c>
       <c r="L20" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M20" s="77"/>
       <c r="N20" s="76" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="S20" s="84">
         <f>VLOOKUP(D20,Sheet1!$A$2:$C$97,2)</f>
@@ -5468,13 +5510,13 @@
         <v>11</v>
       </c>
       <c r="AB20" t="s">
-        <v>646</v>
+        <v>624</v>
       </c>
       <c r="AC20" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="AE20" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="21" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
@@ -5485,7 +5527,7 @@
         <v>7</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>53</v>
@@ -5494,26 +5536,29 @@
         <v>87</v>
       </c>
       <c r="F21" s="95" t="s">
-        <v>502</v>
+        <v>494</v>
+      </c>
+      <c r="G21" t="s">
+        <v>681</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I21" s="33" t="s">
         <v>89</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K21" s="68" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="L21" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M21" s="77"/>
       <c r="N21" s="77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O21" s="77"/>
       <c r="P21" s="77" t="s">
@@ -5549,13 +5594,13 @@
         <v>21</v>
       </c>
       <c r="AB21" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AC21" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="AE21" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
@@ -5566,7 +5611,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>20</v>
@@ -5575,22 +5620,25 @@
         <v>86</v>
       </c>
       <c r="F22" s="95" t="s">
-        <v>503</v>
+        <v>495</v>
+      </c>
+      <c r="G22" t="s">
+        <v>687</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I22" s="26" t="s">
         <v>89</v>
       </c>
       <c r="J22" s="31" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K22" s="68" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="L22" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M22" s="77"/>
       <c r="N22" s="77"/>
@@ -5598,7 +5646,7 @@
       <c r="P22" s="77"/>
       <c r="Q22" s="77"/>
       <c r="R22" s="77" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="S22" s="84">
         <f>VLOOKUP(D22,Sheet1!$A$2:$C$97,2)</f>
@@ -5631,13 +5679,13 @@
         <v>21</v>
       </c>
       <c r="AB22" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
       <c r="AC22" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AE22" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
@@ -5648,7 +5696,7 @@
         <v>7</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>1</v>
@@ -5657,26 +5705,29 @@
         <v>86</v>
       </c>
       <c r="F23" s="95" t="s">
-        <v>504</v>
+        <v>496</v>
+      </c>
+      <c r="G23" t="s">
+        <v>682</v>
       </c>
       <c r="H23" s="23" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I23" s="26" t="s">
         <v>89</v>
       </c>
       <c r="J23" s="31" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K23" s="68" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="L23" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M23" s="77"/>
       <c r="N23" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P23" s="76" t="s">
         <v>241</v>
@@ -5685,7 +5736,7 @@
         <v>234</v>
       </c>
       <c r="R23" s="77" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="S23" s="84">
         <f>VLOOKUP(D23,Sheet1!$A$2:$C$97,2)</f>
@@ -5721,7 +5772,7 @@
         <v>193</v>
       </c>
       <c r="AE23" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
@@ -5732,7 +5783,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>12</v>
@@ -5741,27 +5792,29 @@
         <v>86</v>
       </c>
       <c r="F24" s="95" t="s">
-        <v>517</v>
-      </c>
-      <c r="G24" s="33"/>
+        <v>509</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>683</v>
+      </c>
       <c r="H24" s="23" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="I24" s="26" t="s">
         <v>95</v>
       </c>
       <c r="J24" s="31" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K24" s="68" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="L24" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M24" s="77"/>
       <c r="N24" s="77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P24" s="76" t="s">
         <v>231</v>
@@ -5797,13 +5850,13 @@
         <v>6</v>
       </c>
       <c r="AB24" t="s">
-        <v>646</v>
+        <v>624</v>
       </c>
       <c r="AC24" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="AE24" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
@@ -5814,7 +5867,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>34</v>
@@ -5826,7 +5879,7 @@
       <c r="I25" s="81"/>
       <c r="J25" s="72"/>
       <c r="L25" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M25" s="77"/>
       <c r="S25" s="84">
@@ -5860,7 +5913,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>2</v>
@@ -5869,27 +5922,29 @@
         <v>84</v>
       </c>
       <c r="F26" s="95" t="s">
-        <v>493</v>
-      </c>
-      <c r="G26" s="33"/>
+        <v>485</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>690</v>
+      </c>
       <c r="H26" s="23" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I26" s="33" t="s">
         <v>88</v>
       </c>
       <c r="J26" s="33" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="K26" s="68" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="L26" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M26" s="77"/>
       <c r="N26" s="77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O26" s="77"/>
       <c r="P26" s="77" t="s">
@@ -5922,13 +5977,13 @@
         <v>2</v>
       </c>
       <c r="AB26" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AC26" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="AE26" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
@@ -5939,7 +5994,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>47</v>
@@ -5948,23 +6003,25 @@
         <v>85</v>
       </c>
       <c r="F27" s="95" t="s">
-        <v>494</v>
-      </c>
-      <c r="G27" s="33"/>
+        <v>486</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>684</v>
+      </c>
       <c r="H27" s="23" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="I27" s="26" t="s">
         <v>201</v>
       </c>
       <c r="J27" s="33" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="K27" s="68" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="L27" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M27" s="77"/>
       <c r="Q27" s="77" t="s">
@@ -5998,6 +6055,9 @@
         <f>VLOOKUP(D27,Stats!$A$1:$G$50,2)</f>
         <v>1</v>
       </c>
+      <c r="AB27" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="28" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28">
@@ -6007,7 +6067,7 @@
         <v>7</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>31</v>
@@ -6016,23 +6076,23 @@
         <v>85</v>
       </c>
       <c r="F28" s="95" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G28" s="33"/>
       <c r="H28" s="23" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I28" s="33" t="s">
         <v>104</v>
       </c>
       <c r="J28" s="33" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="K28" s="68" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M28" s="77"/>
       <c r="N28" s="77" t="s">
@@ -6077,7 +6137,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>17</v>
@@ -6086,27 +6146,27 @@
         <v>85</v>
       </c>
       <c r="F29" s="95" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G29" s="33"/>
       <c r="H29" s="23" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I29" s="33" t="s">
         <v>89</v>
       </c>
       <c r="J29" s="33" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K29" s="68" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="L29" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M29" s="77"/>
       <c r="N29" s="77" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="O29" s="77"/>
       <c r="P29" s="77" t="s">
@@ -6116,7 +6176,7 @@
         <v>234</v>
       </c>
       <c r="R29" s="77" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="S29" s="84">
         <f>VLOOKUP(D29,Sheet1!$A$2:$C$97,2)</f>
@@ -6152,7 +6212,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>23</v>
@@ -6164,7 +6224,7 @@
       <c r="I30" s="33"/>
       <c r="J30" s="33"/>
       <c r="L30" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M30" s="77"/>
       <c r="S30" s="84">
@@ -6197,7 +6257,7 @@
         <v>7</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>20</v>
@@ -6206,23 +6266,25 @@
         <v>84</v>
       </c>
       <c r="F31" s="95" t="s">
-        <v>490</v>
-      </c>
-      <c r="G31" s="33"/>
+        <v>482</v>
+      </c>
+      <c r="G31" t="s">
+        <v>687</v>
+      </c>
       <c r="H31" s="23" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I31" s="33" t="s">
         <v>89</v>
       </c>
       <c r="J31" s="33" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K31" s="68" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="L31" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M31" s="77"/>
       <c r="N31" s="77"/>
@@ -6230,7 +6292,7 @@
       <c r="P31" s="77"/>
       <c r="Q31" s="77"/>
       <c r="R31" s="77" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="S31" s="84">
         <f>VLOOKUP(D31,Sheet1!$A$2:$C$97,2)</f>
@@ -6262,13 +6324,16 @@
         <f>VLOOKUP(D31,Stats!$A$1:$G$50,2)</f>
         <v>21</v>
       </c>
+      <c r="AB31" t="s">
+        <v>685</v>
+      </c>
     </row>
     <row r="32" spans="1:31" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B32" s="20" t="s">
         <v>64</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>102</v>
@@ -6277,26 +6342,26 @@
         <v>91</v>
       </c>
       <c r="F32" s="95" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="23" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="I32" s="33" t="s">
         <v>223</v>
       </c>
       <c r="J32" s="33"/>
       <c r="K32" s="68" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="L32" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M32" s="77"/>
       <c r="N32" s="77"/>
       <c r="O32" s="77" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="P32" s="77"/>
       <c r="Q32" s="77" t="s">
@@ -6333,7 +6398,7 @@
         <v>64</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>228</v>
@@ -6342,23 +6407,23 @@
         <v>91</v>
       </c>
       <c r="F33" s="61" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="G33" s="33"/>
       <c r="H33" s="23" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="I33" s="43" t="s">
         <v>111</v>
       </c>
       <c r="J33" s="86" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="K33" s="68" t="s">
-        <v>555</v>
+        <v>676</v>
       </c>
       <c r="L33" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M33" s="77"/>
       <c r="N33" s="77"/>
@@ -6370,7 +6435,7 @@
         <v>237</v>
       </c>
       <c r="R33" s="77" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="S33" s="84">
         <f>VLOOKUP(D33,Sheet1!$A$2:$C$97,2)</f>
@@ -6393,7 +6458,7 @@
         <v>184</v>
       </c>
       <c r="AE33" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="2:41" ht="12.75" x14ac:dyDescent="0.2">
@@ -6401,7 +6466,7 @@
         <v>64</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>26</v>
@@ -6410,25 +6475,25 @@
         <v>86</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="G34" s="43"/>
       <c r="H34" s="43" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I34" s="7" t="s">
         <v>98</v>
       </c>
       <c r="J34" s="7"/>
       <c r="K34" s="68" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L34" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M34" s="77"/>
       <c r="N34" s="77" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="O34" s="77"/>
       <c r="P34" s="77" t="s">
@@ -6436,7 +6501,7 @@
       </c>
       <c r="Q34" s="77"/>
       <c r="R34" s="77" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S34" s="84">
         <f>VLOOKUP(D34,Sheet1!$A$2:$C$97,2)</f>
@@ -6469,13 +6534,13 @@
         <v>3</v>
       </c>
       <c r="AB34" t="s">
-        <v>647</v>
+        <v>625</v>
       </c>
       <c r="AC34" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="AD34" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="35" spans="2:41" ht="12.75" x14ac:dyDescent="0.2">
@@ -6483,7 +6548,7 @@
         <v>64</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>40</v>
@@ -6492,21 +6557,21 @@
         <v>86</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="G35" s="43"/>
       <c r="H35" s="43" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="I35" s="7" t="s">
         <v>97</v>
       </c>
       <c r="J35" s="7"/>
       <c r="K35" s="68" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L35" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M35" s="77"/>
       <c r="P35" s="77" t="s">
@@ -6516,7 +6581,7 @@
         <v>234</v>
       </c>
       <c r="R35" s="77" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S35" s="84">
         <f>VLOOKUP(D35,Sheet1!$A$2:$C$97,2)</f>
@@ -6549,16 +6614,16 @@
         <v>3</v>
       </c>
       <c r="AB35" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="AC35" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="AD35" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="AE35" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="2:41" ht="12.75" x14ac:dyDescent="0.2">
@@ -6566,7 +6631,7 @@
         <v>64</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>35</v>
@@ -6575,25 +6640,25 @@
         <v>86</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G36" s="43"/>
       <c r="H36" s="43" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="I36" s="7" t="s">
         <v>94</v>
       </c>
       <c r="J36" s="7"/>
       <c r="K36" s="68" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L36" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M36" s="77"/>
       <c r="N36" s="77" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="O36" s="77"/>
       <c r="P36" s="77" t="s">
@@ -6636,10 +6701,10 @@
         <v>1</v>
       </c>
       <c r="AC36" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="AD36" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="37" spans="2:41" ht="12.75" x14ac:dyDescent="0.2">
@@ -6647,7 +6712,7 @@
         <v>64</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>103</v>
@@ -6656,33 +6721,33 @@
         <v>91</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G37" s="43"/>
       <c r="H37" s="43" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I37" s="7" t="s">
         <v>104</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K37" s="68" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L37" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M37" s="77"/>
       <c r="N37" s="77"/>
       <c r="O37" s="77" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="P37" s="77"/>
       <c r="Q37" s="77"/>
       <c r="R37" s="77" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="S37" s="84">
         <f>VLOOKUP(D37,Sheet1!$A$2:$C$97,2)</f>
@@ -6712,7 +6777,7 @@
         <v>64</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>199</v>
@@ -6721,37 +6786,37 @@
         <v>91</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="G38" s="43"/>
       <c r="H38" s="43" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I38" s="7" t="s">
         <v>111</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K38" s="68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L38" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M38" s="77"/>
       <c r="N38" s="77" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="O38" s="77"/>
       <c r="P38" s="77" t="s">
         <v>240</v>
       </c>
       <c r="Q38" s="77" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="R38" s="77" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="S38" s="84">
         <f>VLOOKUP(D38,Sheet1!$A$2:$C$97,2)</f>
@@ -6777,7 +6842,7 @@
         <v>185</v>
       </c>
       <c r="AE38" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39" spans="2:41" ht="12.75" x14ac:dyDescent="0.2">
@@ -6785,7 +6850,7 @@
         <v>64</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>202</v>
@@ -6794,27 +6859,27 @@
         <v>91</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G39" s="43"/>
       <c r="H39" s="43" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="I39" s="7" t="s">
         <v>203</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="K39" s="68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L39" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M39" s="77"/>
       <c r="N39" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O39" s="77"/>
       <c r="P39" s="77" t="s">
@@ -6824,7 +6889,7 @@
         <v>237</v>
       </c>
       <c r="R39" s="77" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="S39" s="84">
         <f>VLOOKUP(D39,Sheet1!$A$2:$C$97,2)</f>
@@ -6852,7 +6917,7 @@
         <v>64</v>
       </c>
       <c r="C40" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>38</v>
@@ -6861,35 +6926,33 @@
         <v>86</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G40" s="43"/>
       <c r="H40" s="43" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I40" s="7" t="s">
         <v>211</v>
       </c>
       <c r="J40" s="7"/>
       <c r="K40" s="68" t="s">
-        <v>314</v>
+        <v>675</v>
       </c>
       <c r="L40" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="M40" s="77"/>
       <c r="N40" s="77" t="s">
         <v>235</v>
       </c>
-      <c r="O40" s="77" t="s">
-        <v>315</v>
-      </c>
+      <c r="O40" s="77"/>
       <c r="P40" s="77" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="Q40" s="77"/>
       <c r="R40" s="77" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S40" s="84">
         <f>VLOOKUP(D40,Sheet1!$A$2:$C$97,2)</f>
@@ -6928,7 +6991,7 @@
         <v>64</v>
       </c>
       <c r="C41" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>204</v>
@@ -6937,30 +7000,30 @@
         <v>91</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G41" s="43"/>
       <c r="H41" s="43" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I41" s="7" t="s">
         <v>104</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="K41" s="68" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="L41" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M41" s="77"/>
       <c r="O41" s="76" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="R41" s="77" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="S41" s="84">
         <f>VLOOKUP(D41,Sheet1!$A$2:$C$97,2)</f>
@@ -6988,7 +7051,7 @@
         <v>64</v>
       </c>
       <c r="C42" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>49</v>
@@ -7001,26 +7064,26 @@
       </c>
       <c r="G42" s="43"/>
       <c r="H42" s="43" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="K42" s="68" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L42" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M42" s="77"/>
       <c r="N42" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O42" s="77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P42" s="77" t="s">
         <v>241</v>
@@ -7065,7 +7128,7 @@
         <v>186</v>
       </c>
       <c r="AD42" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="2:41" ht="12.75" x14ac:dyDescent="0.2">
@@ -7073,7 +7136,7 @@
         <v>64</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>105</v>
@@ -7082,7 +7145,7 @@
         <v>91</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="G43" s="43"/>
       <c r="H43" s="43"/>
@@ -7092,14 +7155,14 @@
       <c r="J43" s="7"/>
       <c r="K43" s="68"/>
       <c r="L43" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M43" s="77"/>
       <c r="N43" s="77" t="s">
-        <v>299</v>
+        <v>540</v>
       </c>
       <c r="O43" s="77" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P43" s="77" t="s">
         <v>241</v>
@@ -7136,7 +7199,7 @@
         <v>64</v>
       </c>
       <c r="C44" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>213</v>
@@ -7145,29 +7208,29 @@
         <v>91</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G44" s="43"/>
       <c r="H44" s="43" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I44" s="7" t="s">
         <v>214</v>
       </c>
       <c r="J44" s="7"/>
       <c r="K44" s="68" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L44" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M44" s="77"/>
       <c r="N44" s="77" t="s">
-        <v>285</v>
+        <v>540</v>
       </c>
       <c r="O44" s="77"/>
       <c r="P44" s="77" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="Q44" s="77"/>
       <c r="R44" s="77"/>
@@ -7192,13 +7255,13 @@
         <v>1</v>
       </c>
       <c r="AB44" t="s">
-        <v>658</v>
+        <v>636</v>
       </c>
       <c r="AC44" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="AD44" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="AO44">
         <f>VLOOKUP(AC44,Stats!$A$1:$G$50,2)</f>
@@ -7210,7 +7273,7 @@
         <v>64</v>
       </c>
       <c r="C45" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>106</v>
@@ -7219,26 +7282,26 @@
         <v>91</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G45" s="43"/>
       <c r="H45" s="43" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I45" s="7" t="s">
         <v>107</v>
       </c>
       <c r="J45" s="7"/>
       <c r="K45" s="68" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="L45" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M45" s="77"/>
       <c r="N45" s="77"/>
       <c r="O45" s="77" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="P45" s="77"/>
       <c r="Q45" s="77" t="s">
@@ -7271,7 +7334,7 @@
         <v>64</v>
       </c>
       <c r="C46" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>37</v>
@@ -7280,27 +7343,27 @@
         <v>86</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="G46" s="43"/>
       <c r="H46" s="43" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I46" s="7" t="s">
         <v>224</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K46" s="68" t="s">
-        <v>296</v>
+        <v>674</v>
       </c>
       <c r="L46" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M46" s="77"/>
       <c r="N46" s="77" t="s">
-        <v>244</v>
+        <v>673</v>
       </c>
       <c r="O46" s="77"/>
       <c r="P46" s="77" t="s">
@@ -7310,7 +7373,7 @@
         <v>234</v>
       </c>
       <c r="R46" s="77" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S46" s="84">
         <f>VLOOKUP(D46,Sheet1!$A$2:$C$97,2)</f>
@@ -7343,13 +7406,13 @@
         <v>6</v>
       </c>
       <c r="AC46" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="AD46" s="47" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="AE46" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" spans="2:41" ht="12.75" x14ac:dyDescent="0.2">
@@ -7357,7 +7420,7 @@
         <v>64</v>
       </c>
       <c r="C47" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>28</v>
@@ -7366,7 +7429,7 @@
         <v>86</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G47" s="43"/>
       <c r="H47" s="43"/>
@@ -7374,13 +7437,13 @@
         <v>201</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K47" s="68" t="s">
         <v>232</v>
       </c>
       <c r="L47" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M47" s="77"/>
       <c r="N47" s="77"/>
@@ -7421,13 +7484,13 @@
         <v>1</v>
       </c>
       <c r="AB47" t="s">
-        <v>659</v>
+        <v>637</v>
       </c>
       <c r="AC47" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="AE47" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48" spans="2:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7435,7 +7498,7 @@
         <v>64</v>
       </c>
       <c r="C48" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>48</v>
@@ -7448,23 +7511,23 @@
       </c>
       <c r="G48" s="43"/>
       <c r="H48" s="43" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="K48" s="68" t="s">
         <v>242</v>
       </c>
       <c r="L48" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M48" s="77"/>
       <c r="N48" s="77" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O48" s="77"/>
       <c r="P48" s="77" t="s">
@@ -7503,13 +7566,13 @@
         <v>4</v>
       </c>
       <c r="AB48" t="s">
-        <v>660</v>
+        <v>638</v>
       </c>
       <c r="AC48" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="AE48" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="49" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7517,7 +7580,7 @@
         <v>64</v>
       </c>
       <c r="C49" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>198</v>
@@ -7526,27 +7589,27 @@
         <v>91</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G49" s="43"/>
       <c r="H49" s="43" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I49" s="7" t="s">
         <v>107</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K49" s="68" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="L49" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M49" s="77"/>
       <c r="N49" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O49" s="77"/>
       <c r="P49" s="77" t="s">
@@ -7582,7 +7645,7 @@
         <v>188</v>
       </c>
       <c r="AE49" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="50" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7590,7 +7653,7 @@
         <v>64</v>
       </c>
       <c r="C50" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>45</v>
@@ -7599,7 +7662,7 @@
         <v>86</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G50" s="43"/>
       <c r="H50" s="43"/>
@@ -7611,7 +7674,7 @@
         <v>232</v>
       </c>
       <c r="L50" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M50" s="77"/>
       <c r="N50" s="77"/>
@@ -7619,7 +7682,7 @@
       <c r="P50" s="77"/>
       <c r="Q50" s="77"/>
       <c r="R50" s="77" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="S50" s="84">
         <f>VLOOKUP(D50,Sheet1!$A$2:$C$97,2)</f>
@@ -7652,13 +7715,13 @@
         <v>1</v>
       </c>
       <c r="AB50" t="s">
-        <v>655</v>
+        <v>633</v>
       </c>
       <c r="AC50" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AD50" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="51" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7666,7 +7729,7 @@
         <v>64</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>66</v>
@@ -7675,23 +7738,23 @@
         <v>86</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G51" s="43"/>
       <c r="H51" s="43" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="I51" s="7" t="s">
         <v>89</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K51" s="68" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L51" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M51" s="77"/>
       <c r="N51" s="77"/>
@@ -7703,7 +7766,7 @@
         <v>234</v>
       </c>
       <c r="R51" s="77" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S51" s="84">
         <f>VLOOKUP(D51,Sheet1!$A$2:$C$97,2)</f>
@@ -7729,16 +7792,16 @@
         <v>2</v>
       </c>
       <c r="AB51" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
       <c r="AC51" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="AD51" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AE51" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
     </row>
     <row r="52" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7746,7 +7809,7 @@
         <v>64</v>
       </c>
       <c r="C52" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D52" s="58" t="s">
         <v>99</v>
@@ -7755,25 +7818,25 @@
         <v>91</v>
       </c>
       <c r="F52" s="26" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G52" s="92"/>
       <c r="H52" s="43" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I52" s="7" t="s">
         <v>89</v>
       </c>
       <c r="J52" s="26"/>
       <c r="K52" s="68" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L52" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M52" s="77"/>
       <c r="N52" s="77" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O52" s="77"/>
       <c r="P52" s="77" t="s">
@@ -7783,7 +7846,7 @@
         <v>234</v>
       </c>
       <c r="R52" s="77" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="S52" s="84">
         <f>VLOOKUP(D52,Sheet1!$A$2:$C$97,2)</f>
@@ -7808,7 +7871,7 @@
         <v>64</v>
       </c>
       <c r="C53" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D53" s="42" t="s">
         <v>19</v>
@@ -7817,25 +7880,25 @@
         <v>86</v>
       </c>
       <c r="F53" s="40" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="G53" s="92"/>
       <c r="H53" s="43" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>224</v>
       </c>
       <c r="J53" s="26"/>
       <c r="K53" s="68" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L53" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M53" s="77"/>
       <c r="N53" s="77" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O53" s="77"/>
       <c r="P53" s="77" t="s">
@@ -7845,7 +7908,7 @@
         <v>234</v>
       </c>
       <c r="R53" s="77" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="S53" s="84">
         <f>VLOOKUP(D53,Sheet1!$A$2:$C$97,2)</f>
@@ -7875,10 +7938,10 @@
         <v>1</v>
       </c>
       <c r="AC53" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="AE53" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="54" spans="2:31" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -7886,7 +7949,7 @@
         <v>64</v>
       </c>
       <c r="C54" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D54" s="25" t="s">
         <v>219</v>
@@ -7895,27 +7958,27 @@
         <v>91</v>
       </c>
       <c r="F54" s="23" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G54" s="23"/>
       <c r="H54" s="43" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="I54" s="23" t="s">
         <v>203</v>
       </c>
       <c r="J54" s="23" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="K54" s="68" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L54" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M54" s="77"/>
       <c r="N54" s="76" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="P54" s="77" t="s">
         <v>241</v>
@@ -7947,7 +8010,7 @@
         <v>64</v>
       </c>
       <c r="C55" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D55" s="25" t="s">
         <v>197</v>
@@ -7956,31 +8019,31 @@
         <v>91</v>
       </c>
       <c r="F55" s="23" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G55" s="23"/>
       <c r="H55" s="43" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I55" s="23" t="s">
         <v>222</v>
       </c>
       <c r="J55" s="23" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K55" s="68" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="L55" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M55" s="77"/>
       <c r="N55" s="77" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O55" s="77"/>
       <c r="P55" s="77" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="Q55" s="77"/>
       <c r="R55" s="77"/>
@@ -8005,16 +8068,16 @@
         <v>1</v>
       </c>
       <c r="AB55" t="s">
-        <v>658</v>
+        <v>636</v>
       </c>
       <c r="AC55" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="AD55" s="57" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="AE55" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8022,7 +8085,7 @@
         <v>64</v>
       </c>
       <c r="C56" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D56" s="25" t="s">
         <v>24</v>
@@ -8031,7 +8094,7 @@
         <v>86</v>
       </c>
       <c r="F56" s="23" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G56" s="23"/>
       <c r="H56" s="43"/>
@@ -8039,13 +8102,13 @@
         <v>89</v>
       </c>
       <c r="J56" s="23" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K56" s="68" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L56" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M56" s="77"/>
       <c r="N56" s="77" t="s">
@@ -8059,7 +8122,7 @@
         <v>234</v>
       </c>
       <c r="R56" s="77" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="S56" s="84">
         <f>VLOOKUP(D56,Sheet1!$A$2:$C$97,2)</f>
@@ -8089,10 +8152,10 @@
         <v>13</v>
       </c>
       <c r="AC56" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AD56" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="57" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8100,7 +8163,7 @@
         <v>64</v>
       </c>
       <c r="C57" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D57" s="25" t="s">
         <v>210</v>
@@ -8109,27 +8172,27 @@
         <v>91</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G57" s="23"/>
       <c r="H57" s="43" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="I57" s="24" t="s">
         <v>209</v>
       </c>
       <c r="J57" s="24" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="K57" s="68" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L57" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M57" s="77"/>
       <c r="N57" s="77" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="O57" s="77"/>
       <c r="P57" s="77" t="s">
@@ -8163,7 +8226,7 @@
         <v>64</v>
       </c>
       <c r="C58" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D58" s="25" t="s">
         <v>11</v>
@@ -8172,21 +8235,21 @@
         <v>86</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="G58" s="23"/>
       <c r="H58" s="43" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I58" s="24" t="s">
         <v>224</v>
       </c>
       <c r="J58" s="24"/>
       <c r="K58" s="68" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="L58" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M58" s="77"/>
       <c r="N58" s="77"/>
@@ -8227,13 +8290,13 @@
         <v>14</v>
       </c>
       <c r="AB58" t="s">
-        <v>661</v>
+        <v>639</v>
       </c>
       <c r="AC58" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="AE58" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8241,7 +8304,7 @@
         <v>64</v>
       </c>
       <c r="C59" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D59" s="25" t="s">
         <v>215</v>
@@ -8250,19 +8313,19 @@
         <v>91</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="G59" s="23"/>
       <c r="H59" s="43"/>
       <c r="I59" s="24" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J59" s="24"/>
       <c r="K59" s="68" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L59" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M59" s="77"/>
       <c r="N59" s="77"/>
@@ -8293,13 +8356,13 @@
         <v>1</v>
       </c>
       <c r="AB59" t="s">
-        <v>658</v>
+        <v>636</v>
       </c>
       <c r="AC59" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="AE59" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="60" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8307,7 +8370,7 @@
         <v>64</v>
       </c>
       <c r="C60" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D60" s="25" t="s">
         <v>10</v>
@@ -8316,25 +8379,25 @@
         <v>86</v>
       </c>
       <c r="F60" s="23" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="G60" s="23"/>
       <c r="H60" s="43" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="I60" s="23" t="s">
         <v>200</v>
       </c>
       <c r="J60" s="23"/>
       <c r="K60" s="68" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="L60" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M60" s="77"/>
       <c r="N60" s="77" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O60" s="77"/>
       <c r="P60" s="76" t="s">
@@ -8370,13 +8433,13 @@
         <v>1</v>
       </c>
       <c r="AB60" t="s">
-        <v>647</v>
+        <v>625</v>
       </c>
       <c r="AC60" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="AE60" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="61" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8384,7 +8447,7 @@
         <v>64</v>
       </c>
       <c r="C61" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D61" s="25" t="s">
         <v>39</v>
@@ -8393,33 +8456,33 @@
         <v>86</v>
       </c>
       <c r="F61" s="23" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="G61" s="23"/>
       <c r="H61" s="43" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="I61" s="23" t="s">
         <v>97</v>
       </c>
       <c r="J61" s="23"/>
       <c r="K61" s="68" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L61" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M61" s="77"/>
       <c r="N61" s="77" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O61" s="77"/>
       <c r="P61" s="77" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="Q61" s="77"/>
       <c r="R61" s="77" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S61" s="84">
         <f>VLOOKUP(D61,Sheet1!$A$2:$C$97,2)</f>
@@ -8452,13 +8515,13 @@
         <v>1</v>
       </c>
       <c r="AB61" t="s">
-        <v>654</v>
+        <v>632</v>
       </c>
       <c r="AC61" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="AE61" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8466,7 +8529,7 @@
         <v>64</v>
       </c>
       <c r="C62" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D62" s="25" t="s">
         <v>36</v>
@@ -8475,21 +8538,21 @@
         <v>85</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="G62" s="23"/>
       <c r="H62" s="43" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I62" s="23" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J62" s="23"/>
       <c r="K62" s="68" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L62" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M62" s="77"/>
       <c r="N62" s="77"/>
@@ -8530,13 +8593,13 @@
         <v>2</v>
       </c>
       <c r="AC62" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AD62" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="AE62" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" spans="2:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8544,7 +8607,7 @@
         <v>64</v>
       </c>
       <c r="C63" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D63" s="25" t="s">
         <v>67</v>
@@ -8553,11 +8616,11 @@
         <v>91</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G63" s="23"/>
       <c r="H63" s="43" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="I63" s="23" t="s">
         <v>89</v>
@@ -8567,7 +8630,7 @@
         <v>230</v>
       </c>
       <c r="L63" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M63" s="77"/>
       <c r="N63" s="77"/>
@@ -8601,7 +8664,7 @@
         <v>64</v>
       </c>
       <c r="C64" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D64" s="25" t="s">
         <v>196</v>
@@ -8610,11 +8673,11 @@
         <v>91</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G64" s="23"/>
       <c r="H64" s="43" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="I64" s="24" t="s">
         <v>89</v>
@@ -8624,7 +8687,7 @@
         <v>230</v>
       </c>
       <c r="L64" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M64" s="77"/>
       <c r="N64" s="77"/>
@@ -8657,7 +8720,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D65" s="25" t="s">
         <v>208</v>
@@ -8666,7 +8729,7 @@
         <v>91</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="G65" s="23"/>
       <c r="H65" s="43"/>
@@ -8675,14 +8738,14 @@
       </c>
       <c r="J65" s="24"/>
       <c r="K65" s="68" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L65" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M65" s="77"/>
       <c r="N65" s="77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O65" s="77"/>
       <c r="P65" s="77" t="s">
@@ -8711,13 +8774,13 @@
         <v>2</v>
       </c>
       <c r="AB65" t="s">
-        <v>662</v>
+        <v>640</v>
       </c>
       <c r="AC65" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="AE65" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="66" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8725,7 +8788,7 @@
         <v>64</v>
       </c>
       <c r="C66" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D66" s="25" t="s">
         <v>1</v>
@@ -8734,25 +8797,25 @@
         <v>91</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G66" s="23"/>
       <c r="H66" s="43" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I66" s="24" t="s">
         <v>89</v>
       </c>
       <c r="J66" s="24"/>
       <c r="K66" s="68" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L66" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M66" s="77"/>
       <c r="N66" s="76" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P66" s="76" t="s">
         <v>241</v>
@@ -8761,7 +8824,7 @@
         <v>234</v>
       </c>
       <c r="R66" s="77" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="S66" s="84">
         <f>VLOOKUP(D66,Sheet1!$A$2:$C$97,2)</f>
@@ -8795,7 +8858,7 @@
         <v>64</v>
       </c>
       <c r="C67" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D67" s="25" t="s">
         <v>100</v>
@@ -8804,21 +8867,21 @@
         <v>91</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G67" s="23"/>
       <c r="H67" s="43" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="I67" s="24" t="s">
         <v>101</v>
       </c>
       <c r="J67" s="24"/>
       <c r="K67" s="68" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L67" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M67" s="77"/>
       <c r="N67" s="77"/>
@@ -8827,10 +8890,10 @@
         <v>241</v>
       </c>
       <c r="Q67" s="77" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="R67" s="77" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S67" s="84">
         <f>VLOOKUP(D67,Sheet1!$A$2:$C$97,2)</f>
@@ -8858,7 +8921,7 @@
         <v>64</v>
       </c>
       <c r="C68" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D68" s="25" t="s">
         <v>108</v>
@@ -8867,11 +8930,11 @@
         <v>91</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G68" s="23"/>
       <c r="H68" s="43" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="I68" s="24" t="s">
         <v>89</v>
@@ -8881,7 +8944,7 @@
         <v>230</v>
       </c>
       <c r="L68" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M68" s="77"/>
       <c r="N68" s="77"/>
@@ -8914,7 +8977,7 @@
         <v>64</v>
       </c>
       <c r="C69" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D69" s="25" t="s">
         <v>29</v>
@@ -8923,7 +8986,7 @@
         <v>86</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G69" s="23"/>
       <c r="H69" s="43"/>
@@ -8931,17 +8994,17 @@
         <v>201</v>
       </c>
       <c r="J69" s="24" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K69" s="68" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L69" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M69" s="77"/>
       <c r="N69" s="77" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="O69" s="77"/>
       <c r="P69" s="77" t="s">
@@ -8951,7 +9014,7 @@
         <v>234</v>
       </c>
       <c r="R69" s="77" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="S69" s="84">
         <f>VLOOKUP(D69,Sheet1!$A$2:$C$97,2)</f>
@@ -8984,13 +9047,13 @@
         <v>1</v>
       </c>
       <c r="AC69" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="AD69" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="AE69" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="70" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8998,7 +9061,7 @@
         <v>64</v>
       </c>
       <c r="C70" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D70" s="25" t="s">
         <v>110</v>
@@ -9007,23 +9070,23 @@
         <v>91</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="G70" s="23"/>
       <c r="H70" s="43" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="I70" s="24" t="s">
         <v>111</v>
       </c>
       <c r="J70" s="24" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="K70" s="68" t="s">
         <v>227</v>
       </c>
       <c r="L70" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M70" s="77"/>
       <c r="N70" s="77"/>
@@ -9057,7 +9120,7 @@
         <v>64</v>
       </c>
       <c r="C71" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D71" s="25" t="s">
         <v>207</v>
@@ -9066,23 +9129,23 @@
         <v>91</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G71" s="23"/>
       <c r="H71" s="43" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I71" s="24" t="s">
         <v>222</v>
       </c>
       <c r="J71" s="24" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K71" s="68" t="s">
         <v>229</v>
       </c>
       <c r="L71" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M71" s="77"/>
       <c r="N71" s="77"/>
@@ -9115,7 +9178,7 @@
         <v>64</v>
       </c>
       <c r="C72" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D72" s="25" t="s">
         <v>22</v>
@@ -9124,25 +9187,25 @@
         <v>86</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="G72" s="23"/>
       <c r="H72" s="43" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="I72" s="24" t="s">
         <v>94</v>
       </c>
       <c r="J72" s="24"/>
       <c r="K72" s="68" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L72" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M72" s="77"/>
       <c r="N72" s="77" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="O72" s="77"/>
       <c r="P72" s="77" t="s">
@@ -9150,7 +9213,7 @@
       </c>
       <c r="Q72" s="77"/>
       <c r="R72" s="77" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S72" s="84">
         <f>VLOOKUP(D72,Sheet1!$A$2:$C$97,2)</f>
@@ -9180,13 +9243,13 @@
         <v>1</v>
       </c>
       <c r="AB72" t="s">
-        <v>646</v>
+        <v>624</v>
       </c>
       <c r="AC72" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="AE72" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
     </row>
     <row r="73" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9194,7 +9257,7 @@
         <v>64</v>
       </c>
       <c r="C73" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D73" s="25" t="s">
         <v>220</v>
@@ -9203,7 +9266,7 @@
         <v>91</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="G73" s="23"/>
       <c r="H73" s="43"/>
@@ -9212,10 +9275,10 @@
       </c>
       <c r="J73" s="24"/>
       <c r="K73" s="68" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="L73" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M73" s="77"/>
       <c r="P73" s="76" t="s">
@@ -9225,7 +9288,7 @@
         <v>237</v>
       </c>
       <c r="R73" s="77" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="S73" s="84">
         <f>VLOOKUP(D73,Sheet1!$A$2:$C$97,2)</f>
@@ -9254,7 +9317,7 @@
         <v>194</v>
       </c>
       <c r="AE73" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="74" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9262,7 +9325,7 @@
         <v>64</v>
       </c>
       <c r="C74" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D74" s="25" t="s">
         <v>205</v>
@@ -9271,28 +9334,28 @@
         <v>91</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="G74" s="23"/>
       <c r="H74" s="43" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I74" s="24" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J74" s="24" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K74" s="68" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L74" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M74" s="77"/>
       <c r="N74" s="77"/>
       <c r="O74" s="77" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="P74" s="77"/>
       <c r="Q74" s="77" t="s">
@@ -9325,7 +9388,7 @@
         <v>64</v>
       </c>
       <c r="C75" s="50" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="D75" s="25" t="s">
         <v>206</v>
@@ -9334,25 +9397,25 @@
         <v>91</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="G75" s="23"/>
       <c r="H75" s="43" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I75" s="24" t="s">
         <v>89</v>
       </c>
       <c r="J75" s="24"/>
       <c r="K75" s="68" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="L75" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M75" s="77"/>
       <c r="N75" s="76" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P75" s="76" t="s">
         <v>240</v>
@@ -9386,7 +9449,7 @@
         <v>9</v>
       </c>
       <c r="C76" s="50" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D76" s="25" t="s">
         <v>60</v>
@@ -9398,7 +9461,7 @@
       <c r="I76" s="24"/>
       <c r="J76" s="24"/>
       <c r="L76" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M76" s="77"/>
       <c r="S76" s="84">
@@ -9423,13 +9486,13 @@
         <v>6</v>
       </c>
       <c r="AB76" t="s">
-        <v>663</v>
+        <v>641</v>
       </c>
       <c r="AC76" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="AE76" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="77" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9440,7 +9503,7 @@
         <v>9</v>
       </c>
       <c r="C77" s="50" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D77" s="25" t="s">
         <v>16</v>
@@ -9449,27 +9512,29 @@
         <v>84</v>
       </c>
       <c r="F77" s="24" t="s">
-        <v>498</v>
-      </c>
-      <c r="G77" s="23"/>
+        <v>490</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>655</v>
+      </c>
       <c r="H77" s="43" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I77" s="24" t="s">
         <v>88</v>
       </c>
       <c r="J77" s="24" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="K77" s="68" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L77" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M77" s="77"/>
       <c r="N77" s="77" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="P77" s="76" t="s">
         <v>240</v>
@@ -9478,7 +9543,7 @@
         <v>234</v>
       </c>
       <c r="R77" s="77" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="S77" s="84">
         <f>VLOOKUP(D77,Sheet1!$A$2:$C$97,2)</f>
@@ -9514,7 +9579,7 @@
         <v>187</v>
       </c>
       <c r="AE77" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9525,7 +9590,7 @@
         <v>9</v>
       </c>
       <c r="C78" s="50" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D78" s="25" t="s">
         <v>65</v>
@@ -9534,27 +9599,29 @@
         <v>84</v>
       </c>
       <c r="F78" s="24" t="s">
-        <v>493</v>
-      </c>
-      <c r="G78" s="23"/>
+        <v>485</v>
+      </c>
+      <c r="G78" s="23" t="s">
+        <v>656</v>
+      </c>
       <c r="H78" s="43" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I78" s="24" t="s">
         <v>88</v>
       </c>
       <c r="J78" s="24" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="K78" s="68" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="L78" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M78" s="77"/>
       <c r="N78" s="77" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="O78" s="77"/>
       <c r="P78" s="77" t="s">
@@ -9586,13 +9653,13 @@
         <v>8</v>
       </c>
       <c r="AB78" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="AC78" s="47" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="AE78" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="79" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9603,7 +9670,7 @@
         <v>9</v>
       </c>
       <c r="C79" s="50" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D79" s="25" t="s">
         <v>61</v>
@@ -9615,7 +9682,7 @@
       <c r="I79" s="24"/>
       <c r="J79" s="24"/>
       <c r="L79" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M79" s="77"/>
       <c r="S79" s="84">
@@ -9648,7 +9715,7 @@
         <v>9</v>
       </c>
       <c r="C80" s="50" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D80" s="25" t="s">
         <v>44</v>
@@ -9657,27 +9724,29 @@
         <v>84</v>
       </c>
       <c r="F80" s="24" t="s">
-        <v>517</v>
-      </c>
-      <c r="G80" s="23"/>
+        <v>509</v>
+      </c>
+      <c r="G80" s="23" t="s">
+        <v>657</v>
+      </c>
       <c r="H80" s="43" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="I80" s="24" t="s">
         <v>89</v>
       </c>
       <c r="J80" s="24" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K80" s="68" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="L80" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M80" s="77"/>
       <c r="N80" s="77" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O80" s="77"/>
       <c r="P80" s="77" t="s">
@@ -9713,16 +9782,16 @@
         <v>1</v>
       </c>
       <c r="AB80" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AC80" s="47" t="s">
+        <v>338</v>
+      </c>
+      <c r="AD80" t="s">
         <v>345</v>
       </c>
-      <c r="AD80" t="s">
-        <v>352</v>
-      </c>
       <c r="AE80" s="57" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="AO80">
         <f>VLOOKUP(AC80,Stats!$A$1:$G$50,2)</f>
@@ -9737,7 +9806,7 @@
         <v>9</v>
       </c>
       <c r="C81" s="50" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D81" s="25" t="s">
         <v>13</v>
@@ -9746,27 +9815,29 @@
         <v>84</v>
       </c>
       <c r="F81" s="24" t="s">
-        <v>493</v>
-      </c>
-      <c r="G81" s="23"/>
+        <v>485</v>
+      </c>
+      <c r="G81" s="23" t="s">
+        <v>658</v>
+      </c>
       <c r="H81" s="43" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="I81" s="24" t="s">
         <v>225</v>
       </c>
       <c r="J81" s="24" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K81" s="68" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="L81" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M81" s="77"/>
       <c r="N81" s="77" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="O81" s="77"/>
       <c r="P81" s="77" t="s">
@@ -9805,16 +9876,16 @@
         <v>1</v>
       </c>
       <c r="AB81" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="AC81" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="AD81" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="AE81" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="AO81">
         <f>VLOOKUP(AC81,Stats!$A$1:$G$50,2)</f>
@@ -9829,7 +9900,7 @@
         <v>9</v>
       </c>
       <c r="C82" s="50" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D82" s="25" t="s">
         <v>18</v>
@@ -9838,27 +9909,29 @@
         <v>84</v>
       </c>
       <c r="F82" s="24" t="s">
-        <v>493</v>
-      </c>
-      <c r="G82" s="23"/>
+        <v>485</v>
+      </c>
+      <c r="G82" s="23" t="s">
+        <v>659</v>
+      </c>
       <c r="H82" s="43" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="I82" s="24" t="s">
         <v>225</v>
       </c>
       <c r="J82" s="24" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K82" s="67" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="L82" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M82" s="77"/>
       <c r="N82" s="77" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="S82" s="84">
         <f>VLOOKUP(D82,Sheet1!$A$2:$C$97,2)</f>
@@ -9891,13 +9964,13 @@
         <v>1</v>
       </c>
       <c r="AB82" t="s">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="AC82" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="AE82" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="AO82">
         <f>VLOOKUP(AC82,Stats!$A$1:$G$50,2)</f>
@@ -9912,7 +9985,7 @@
         <v>9</v>
       </c>
       <c r="C83" s="50" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D83" s="59" t="s">
         <v>77</v>
@@ -9921,27 +9994,29 @@
         <v>87</v>
       </c>
       <c r="F83" s="60" t="s">
-        <v>493</v>
-      </c>
-      <c r="G83" s="93"/>
+        <v>485</v>
+      </c>
+      <c r="G83" s="93" t="s">
+        <v>660</v>
+      </c>
       <c r="H83" s="43" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I83" s="60" t="s">
         <v>216</v>
       </c>
       <c r="J83" s="24" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="K83" s="68" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L83" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M83" s="77"/>
       <c r="N83" s="77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P83" s="76" t="s">
         <v>238</v>
@@ -9970,13 +10045,13 @@
         <v>2</v>
       </c>
       <c r="AB83" t="s">
-        <v>648</v>
+        <v>626</v>
       </c>
       <c r="AC83" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="AE83" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9987,7 +10062,7 @@
         <v>9</v>
       </c>
       <c r="C84" s="50" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D84" s="59" t="s">
         <v>56</v>
@@ -9996,30 +10071,32 @@
         <v>87</v>
       </c>
       <c r="F84" s="60" t="s">
-        <v>491</v>
-      </c>
-      <c r="G84" s="93"/>
+        <v>483</v>
+      </c>
+      <c r="G84" s="93" t="s">
+        <v>661</v>
+      </c>
       <c r="H84" s="43" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I84" s="60" t="s">
         <v>89</v>
       </c>
       <c r="J84" s="60" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K84" s="68" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="L84" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M84" s="77"/>
       <c r="N84" s="77" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P84" s="77" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="S84" s="84">
         <f>VLOOKUP(D84,Sheet1!$A$2:$C$97,2)</f>
@@ -10049,13 +10126,13 @@
         <v>6</v>
       </c>
       <c r="AB84" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="AC84" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AE84" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="85" spans="1:41" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -10066,7 +10143,7 @@
         <v>9</v>
       </c>
       <c r="C85" s="50" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D85" s="36" t="s">
         <v>19</v>
@@ -10075,27 +10152,29 @@
         <v>84</v>
       </c>
       <c r="F85" s="38" t="s">
-        <v>498</v>
-      </c>
-      <c r="G85" s="93"/>
+        <v>490</v>
+      </c>
+      <c r="G85" s="93" t="s">
+        <v>662</v>
+      </c>
       <c r="H85" s="43" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I85" s="38" t="s">
         <v>217</v>
       </c>
       <c r="J85" s="24" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="K85" s="68" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L85" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M85" s="77"/>
       <c r="N85" s="77" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="O85" s="77"/>
       <c r="P85" s="77" t="s">
@@ -10105,7 +10184,7 @@
         <v>234</v>
       </c>
       <c r="R85" s="77" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="S85" s="84">
         <f>VLOOKUP(D85,Sheet1!$A$2:$C$97,2)</f>
@@ -10135,7 +10214,7 @@
         <v>189</v>
       </c>
       <c r="AE85" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
     </row>
     <row r="86" spans="1:41" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -10146,7 +10225,7 @@
         <v>9</v>
       </c>
       <c r="C86" s="50" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D86" s="54" t="s">
         <v>81</v>
@@ -10155,12 +10234,14 @@
         <v>87</v>
       </c>
       <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
+      <c r="G86" s="31" t="s">
+        <v>663</v>
+      </c>
       <c r="H86" s="43"/>
       <c r="I86" s="31"/>
       <c r="J86" s="31"/>
       <c r="L86" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M86" s="77"/>
       <c r="S86" s="84">
@@ -10181,13 +10262,13 @@
         <v>0</v>
       </c>
       <c r="AB86" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AC86" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AE86" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="87" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10198,7 +10279,7 @@
         <v>9</v>
       </c>
       <c r="C87" s="50" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D87" s="54" t="s">
         <v>57</v>
@@ -10207,27 +10288,29 @@
         <v>87</v>
       </c>
       <c r="F87" s="31" t="s">
-        <v>504</v>
-      </c>
-      <c r="G87" s="31"/>
+        <v>496</v>
+      </c>
+      <c r="G87" s="31" t="s">
+        <v>664</v>
+      </c>
       <c r="H87" s="43" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="I87" s="31" t="s">
         <v>89</v>
       </c>
       <c r="J87" s="60" t="s">
+        <v>554</v>
+      </c>
+      <c r="K87" s="68" t="s">
         <v>566</v>
       </c>
-      <c r="K87" s="68" t="s">
-        <v>578</v>
-      </c>
       <c r="L87" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M87" s="77"/>
       <c r="N87" s="76" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="P87" s="76" t="s">
         <v>240</v>
@@ -10236,7 +10319,7 @@
         <v>234</v>
       </c>
       <c r="R87" s="76" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="S87" s="84">
         <f>VLOOKUP(D87,Sheet1!$A$2:$C$97,2)</f>
@@ -10268,7 +10351,7 @@
         <v>190</v>
       </c>
       <c r="AE87" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="88" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10279,7 +10362,7 @@
         <v>9</v>
       </c>
       <c r="C88" s="50" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D88" s="54" t="s">
         <v>55</v>
@@ -10288,33 +10371,35 @@
         <v>87</v>
       </c>
       <c r="F88" s="31" t="s">
-        <v>524</v>
-      </c>
-      <c r="G88" s="31"/>
+        <v>516</v>
+      </c>
+      <c r="G88" s="31" t="s">
+        <v>665</v>
+      </c>
       <c r="H88" s="43" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I88" s="31" t="s">
         <v>89</v>
       </c>
       <c r="J88" s="60" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K88" s="67" t="s">
+        <v>567</v>
+      </c>
+      <c r="L88" t="s">
         <v>579</v>
-      </c>
-      <c r="L88" t="s">
-        <v>591</v>
       </c>
       <c r="M88" s="77"/>
       <c r="O88" s="76" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="Q88" s="76" t="s">
         <v>237</v>
       </c>
       <c r="R88" s="77" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="S88" s="84">
         <f>VLOOKUP(D88,Sheet1!$A$2:$C$97,2)</f>
@@ -10344,13 +10429,13 @@
         <v>6</v>
       </c>
       <c r="AB88" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="AC88" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="AE88" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10361,7 +10446,7 @@
         <v>9</v>
       </c>
       <c r="C89" s="50" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D89" s="25" t="s">
         <v>62</v>
@@ -10373,7 +10458,7 @@
       <c r="I89" s="24"/>
       <c r="J89" s="24"/>
       <c r="L89" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M89" s="77"/>
       <c r="S89" s="84">
@@ -10406,7 +10491,7 @@
         <v>9</v>
       </c>
       <c r="C90" s="50" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D90" s="25" t="s">
         <v>75</v>
@@ -10415,25 +10500,27 @@
         <v>87</v>
       </c>
       <c r="F90" s="24" t="s">
-        <v>493</v>
-      </c>
-      <c r="G90" s="23"/>
+        <v>485</v>
+      </c>
+      <c r="G90" s="23" t="s">
+        <v>666</v>
+      </c>
       <c r="H90" s="43" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="I90" s="24" t="s">
         <v>90</v>
       </c>
       <c r="J90" s="24" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="K90" s="68"/>
       <c r="L90" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="M90" s="77"/>
       <c r="N90" s="76" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P90" s="76" t="s">
         <v>238</v>
@@ -10467,7 +10554,7 @@
         <v>9</v>
       </c>
       <c r="C91" s="50" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D91" s="25" t="s">
         <v>58</v>
@@ -10476,27 +10563,27 @@
         <v>87</v>
       </c>
       <c r="F91" s="24" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G91" s="23"/>
       <c r="H91" s="43" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="I91" s="24" t="s">
         <v>89</v>
       </c>
       <c r="J91" s="24" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K91" s="68" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="L91" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M91" s="77"/>
       <c r="N91" s="77" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="O91" s="77"/>
       <c r="P91" s="77" t="s">
@@ -10547,7 +10634,7 @@
         <v>9</v>
       </c>
       <c r="C92" s="50" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D92" s="25" t="s">
         <v>32</v>
@@ -10556,23 +10643,23 @@
         <v>84</v>
       </c>
       <c r="F92" s="24" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="G92" s="23"/>
       <c r="H92" s="43" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="I92" s="24" t="s">
         <v>89</v>
       </c>
       <c r="J92" s="24" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K92" s="68" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="L92" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M92" s="77"/>
       <c r="N92" s="76" t="s">
@@ -10611,7 +10698,7 @@
         <v>9</v>
       </c>
       <c r="C93" s="50" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D93" s="25" t="s">
         <v>218</v>
@@ -10620,27 +10707,27 @@
         <v>91</v>
       </c>
       <c r="F93" s="24" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G93" s="23"/>
       <c r="H93" s="43" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="I93" s="24" t="s">
         <v>203</v>
       </c>
       <c r="J93" s="24" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="K93" s="68" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="L93" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M93" s="77"/>
       <c r="N93" s="76" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P93" s="77" t="s">
         <v>231</v>
@@ -10675,7 +10762,7 @@
         <v>9</v>
       </c>
       <c r="C94" s="50" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D94" s="25" t="s">
         <v>59</v>
@@ -10687,7 +10774,7 @@
       <c r="I94" s="24"/>
       <c r="J94" s="24"/>
       <c r="L94" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M94" s="77"/>
       <c r="S94" s="84">
@@ -10720,7 +10807,7 @@
         <v>9</v>
       </c>
       <c r="C95" s="50" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D95" s="25" t="s">
         <v>112</v>
@@ -10729,31 +10816,33 @@
         <v>84</v>
       </c>
       <c r="F95" s="24" t="s">
-        <v>493</v>
-      </c>
-      <c r="G95" s="23"/>
+        <v>485</v>
+      </c>
+      <c r="G95" s="23" t="s">
+        <v>667</v>
+      </c>
       <c r="H95" s="43" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="I95" s="24" t="s">
         <v>225</v>
       </c>
       <c r="J95" s="24" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="K95" s="68" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="L95" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="M95" s="77"/>
       <c r="N95" s="77" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="O95" s="77"/>
       <c r="P95" s="77" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="Q95" s="77"/>
       <c r="R95" s="77"/>
@@ -10803,8 +10892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10819,7 +10908,7 @@
         <v>ACCORD;All;season;grey;destructured;pleated;cotton;fleece;skirt;;;;2;pocket;knee;length;destructured;pleated;machine;wash;30;drip;dry</v>
       </c>
       <c r="B1" s="97" t="s">
-        <v>617</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -10828,7 +10917,7 @@
         <v>ADAGIO;All;season;grey;draped;loose;double;jersey;top;v;neck;;long;sleeve;;;draped;loose;machine;wash;30;drip;dry</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>616</v>
+        <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
@@ -10837,7 +10926,7 @@
         <v>AELL;All;season;grey;pleated;brushed;mottled;cotton;fleece;sweater;large;round;collar;;long;sleeve;;;pleated;brushed;mottled;machine;wash;30;drip;dry</v>
       </c>
       <c r="B3" s="99" t="s">
-        <v>615</v>
+        <v>603</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
@@ -10846,16 +10935,16 @@
         <v>ALE;All;season;black;oversized;tapered;draped;jersey;top;boat;neck;;long;sleeve;;;oversized;tapered;draped;machine;wash;30;drip;dry</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="96" t="str">
         <f>prestashop_products!AF6</f>
-        <v>ALTO;All;season;light;grey;relaxed;yoga/jogging;trousers;cotton;fleece;pants;;twist;belt;waist;pleated;waist;;2;pockets;;relaxed;yoga/jogging;trousers;machine;wash;30;drip;dry</v>
+        <v>ALTO;All;season;light;grey;relaxed;yoga/jogging;trousers;cotton;fleece;pants;;twisted;belt;pleated;non;elastic;waist;;2;pockets;;relaxed;yoga/jogging;trousers;machine;wash;30;drip;dry</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -10864,16 +10953,16 @@
         <v>ARIETIS;All;season;black;relaxed;fit;jacquard;pants;;elastic;waist;;2;pockets;;relaxed;fit;machine;wash;30;drip;dry</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="96" t="str">
         <f>prestashop_products!AF8</f>
-        <v>COURBE;All;season;black;fluid;jersey;skirt;;twist;belt;;;knee;length;fluid;</v>
+        <v>COURBE;All;season;black;fluid;jersey;skirt;;twisted;belt;;;knee;length;fluid;</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -10882,7 +10971,7 @@
         <v>DANSE;All;season;grey;pleated;relaxed;stretchy;straight;cut;rib;dress;round;collar;;long;sleeve;no;pockets;mid;thigh;length;pleated;relaxed;stretchy;straight;cut;machine;wash;30;drip;dry</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
@@ -10891,7 +10980,7 @@
         <v>DIESE;All;season;light;grey;drop;detailed;square;shaped;cotton;fleece;sweater;round;neck;;long;sleeve;;;drop;detailed;square;shaped;machine;wash;30;drip;dry</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -10900,16 +10989,16 @@
         <v>ETOILE;All;season;black;draped;pleated;jersey;top;boat;collar;;long;sleeve;;;draped;pleated;machine;wash;30;drip;dry</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="96" t="str">
         <f>prestashop_products!AF12</f>
-        <v>GALLINA;All;season;black;draped;fluid;bib;pleated;jersey;dress;round;collar;;sleeveless;no;pockets;mid;thigh;length;draped;fluid;bib;pleated;Hand;wash;drip;dry</v>
+        <v>GALLINA;All;season;black;draped;fluid;pouch;pleat;jersey;dress;round;collar;;sleeveless;no;pockets;mid;thigh;length;draped;fluid;pouch;pleat;Hand;wash;drip;dry</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
@@ -10918,7 +11007,7 @@
         <v>GIENA;All;season;black;oversized;kimono;jacquard;jacket;;;long;sleeve;no;pockets;waist;length;oversized;kimono;machine;wash;30;drip;dry</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -10927,7 +11016,7 @@
         <v>ASTERION;All;season;dark;grey;;;;;;;;;</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
@@ -10936,7 +11025,7 @@
         <v>GINE;All;season;dark;grey;cutout;detailed;simple;yoga;leggings;cotton;fleece;pants;;;;no;pockets;;cutout;detailed;simple;yoga;leggings;</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
@@ -10945,7 +11034,7 @@
         <v>MELODIE;All;season;grey;open;shoulder;sweater;cotton;fleece;dress;draped;neckline;;long;sleeve;no;pockets;mid;thigh;length;open;shoulder;sweater;machine;wash;30;drip;dry</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -10954,34 +11043,34 @@
         <v>MOOVE;All;season;grey;angle;drape;rib;top;round;neck;;long;sleeve;;;angle;drape;machine;wash;30;drip;dry</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A17" s="96" t="str">
         <f>prestashop_products!AF18</f>
-        <v>ODE;All;season;black;ballooned;draped;jersey;skirt;;elastic;waste;band;;;mid;thigh;ballooned;draped;machine;wash;30;drip;dry</v>
+        <v>ODE;All;season;black;ballooned;double;pleat;draped;jersey;skirt;;elastic;waste;band;;;mid;thigh;ballooned;double;pleat;draped;machine;wash;30;drip;dry</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="96" t="str">
         <f>prestashop_products!AF19</f>
-        <v>OSE;All;season;grey;pleated;cotton;fleece;sweater;loose;turtle;neck;;American;long;sleeve;;;pleated;machine;wash;30;drip;dry</v>
+        <v>OSE;All;season;grey;pleated;hip;cotton;fleece;sweater;loose;turtle;neck;;American;long;sleeve;;;pleated;hip;machine;wash;30;drip;dry</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A19" s="96" t="str">
         <f>prestashop_products!AF20</f>
-        <v>PRELUDE;All;season;grey;oversized;bamboo;pleated;cotton;fleece;sweater;turtle;neck;;;;;oversized;bamboo;pleated;machine;wash;30;drip;dry</v>
+        <v>PRELUDE;All;season;grey;oversized;bamboo;pleat;cotton;fleece;sweater;turtle;neck;;;;;oversized;bamboo;pleat;machine;wash;30;drip;dry</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
@@ -10990,7 +11079,7 @@
         <v>RUCHA;All;season;black;square;shaped;drop;detailed;jacquard;top;boat;neck;;sleeveless;;;square;shaped;drop;detailed;machine;wash;30;drip;dry</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -10999,7 +11088,7 @@
         <v>RYTHME;All;season;grey;straight;shaped;pleated;rib;skirt;;;;;mid;thigh;straight;shaped;pleated;machine;wash;30;drip;dry</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
@@ -11008,7 +11097,7 @@
         <v>SPIRALE;All;season;grey;pleated;straight;shaped;double;jersey;dress;round;collar;;long;sleeve;no;pockets;mid;thigh;length;pleated;straight;shaped;machine;wash;30;drip;dry</v>
       </c>
       <c r="B22" s="47" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
@@ -11017,7 +11106,7 @@
         <v>SWING;All;season;white;pleated;square;shaped;cotton;fleece;top;round;neck;;3/4;sleeve;;;pleated;square;shaped;machine;wash;30;drip;dry</v>
       </c>
       <c r="B23" s="47" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -11032,7 +11121,7 @@
         <v>TEMPO;All;season;grey;two;layered/bi;material;draped;jersey;top;round;neck;;sleeveless;;;two;layered/bi;material;draped;hand;wash;drip;dry</v>
       </c>
       <c r="B25" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -11041,7 +11130,7 @@
         <v>GANE;All;season;dark;grey;pleated;relaxed;cotton;fleece;pants;;;;2;pockets;;pleated;relaxed;hand;wash;drip;dry</v>
       </c>
       <c r="B26" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
@@ -11068,7 +11157,7 @@
         <v>RYTHME;All;season;grey;pleated;cotton;fleece;skirt;;;;;mid;thigh;pleated;machine;wash;30;drip;dry</v>
       </c>
       <c r="B30" s="47" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
@@ -11081,7 +11170,7 @@
     <row r="32" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="96" t="str">
         <f>prestashop_products!AF33</f>
-        <v>ADANA;Autumn;Winter;mottled;grey;modzik,;oversized;2;button,;round;kimono,;black;liner;knit;coat;;;long;sleeve;2;pockets;below;knee;length;modzik,;oversized;2;button,;round;kimono,;black;liner;Hand;wash;drip;dry</v>
+        <v>ADANA;Autumn;Winter;mottled;grey;modzik;oversized;2;button;round;kimono;black;liner;knit;coat;;;long;sleeve;2;pockets;below;knee;length;modzik;oversized;2;button;round;kimono;black;liner;Hand;wash;drip;dry</v>
       </c>
       <c r="B32" s="47"/>
     </row>
@@ -11130,7 +11219,7 @@
     <row r="39" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A39" s="96" t="str">
         <f>prestashop_products!AF40</f>
-        <v>ATTITUDE;Autumn;Winter;grey;bi;2;material;front;back,;pleats;on;the;shoulder,;fantasy;knit;pullover;boat;collar;cuff;on;bottom;sleeve;with;cuff;long;sleeve;;hip;length;bi;2;material;front;back,;pleats;on;the;shoulder,;fantasy;knit;</v>
+        <v>ATTITUDE;Autumn;Winter;grey;bi;2;material;front;back,;pleats;on;the;shoulder,;fantasy;knit,;cuff;on;bottom;;pullover;boat;collar;;sleeve;with;cuff;long;sleeve;;hip;length;bi;2;material;front;back,;pleats;on;the;shoulder,;fantasy;knit,;cuff;on;bottom;;</v>
       </c>
       <c r="B39" s="47"/>
     </row>
@@ -11151,14 +11240,14 @@
     <row r="42" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="96" t="str">
         <f>prestashop_products!AF43</f>
-        <v>CAPELLA;Autumn;Winter;;;interlock;dress;turtle;neck;collar;pleated;semi/half;belt;long;sleeve;2;pockets;knee;length;;</v>
+        <v>CAPELLA;Autumn;Winter;;;interlock;dress;turtle;neck;pleated;semi/half;belt;long;sleeve;2;pockets;knee;length;;</v>
       </c>
       <c r="B42" s="47"/>
     </row>
     <row r="43" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A43" s="96" t="str">
         <f>prestashop_products!AF44</f>
-        <v>COROUS;Autumn;Winter;grey;round;cutout;detail,;oversized;large;cotton;fleece;sweater;turtle;high;neck;collar;;long;American;sleeve;;;round;cutout;detail,;oversized;large;</v>
+        <v>COROUS;Autumn;Winter;grey;round;cutout;detail,;oversized;large;cotton;fleece;sweater;turtle;neck;;long;American;sleeve;;;round;cutout;detail,;oversized;large;</v>
       </c>
       <c r="B43" s="47"/>
     </row>
@@ -11172,7 +11261,7 @@
     <row r="45" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A45" s="96" t="str">
         <f>prestashop_products!AF46</f>
-        <v>EQUILIBRE;Autumn;Winter;black;open;liquid,;2;(black;purple);color,;raw;edge;interlock;coat;open;back;twisted;neck;;long;sleeve;no;pockets;hip;length;open;liquid,;2;(black;purple);color,;raw;edge;machine;wash;30;drip;dry</v>
+        <v>EQUILIBRE;Autumn;Winter;black;open;back;liquid,;bi;(black;purple);color,;raw;edge;interlock;coat;twisted;neck;;long;sleeve;no;pockets;hip;length;open;back;liquid,;bi;(black;purple);color,;raw;edge;machine;wash;30;drip;dry</v>
       </c>
       <c r="B45" s="47"/>
     </row>
@@ -11365,7 +11454,7 @@
         <v>CHORAL;Spring;Summer;grey;fluid;draped;jersey;dress;cowl;neck;;short;sleeve;no;pockets;mid;thigh;fluid;draped;hand;wash;drip;dry</v>
       </c>
       <c r="B76" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -11374,7 +11463,7 @@
         <v>CHORUS;Spring;Summer;grey;loose;pleated;jersey;top;high;v;neck;;sleeveless;;;loose;pleated;hand;wash;drip;dry</v>
       </c>
       <c r="B77" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -11389,7 +11478,7 @@
         <v>CODA;Spring;Summer;light;grey;pleated;asymmetric;shoulder;cotton;fleece;top;round;;short;sleeve;;;pleated;asymmetric;shoulder;machine;wash;30;drip;dry</v>
       </c>
       <c r="B79" t="s">
-        <v>623</v>
+        <v>611</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
@@ -11398,7 +11487,7 @@
         <v>CONCERTO;Spring;Summer;white;draped;twist;detailed;tank;top;jersey;top;cowl;neck;on;back;;sleeveless;;;draped;twist;detailed;tank;top;machine;wash;30;drip;dry</v>
       </c>
       <c r="B80" t="s">
-        <v>624</v>
+        <v>612</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -11407,7 +11496,7 @@
         <v>CROCHE;Spring;Summer;white;round;shaped;poncho;jersey;top;v;neck;;;;;round;shaped;poncho;machine;wash;30;drip;dry</v>
       </c>
       <c r="B81" t="s">
-        <v>625</v>
+        <v>613</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -11416,7 +11505,7 @@
         <v>ETAMIN;Spring;Summer;grey;draped;layered;jersey;top;round;neck;;sleeveless;;;draped;layered;hand;wash;drip;dry</v>
       </c>
       <c r="B82" t="s">
-        <v>626</v>
+        <v>614</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
@@ -11425,7 +11514,7 @@
         <v>ISIS;Spring;Summer;grey;oversized;draped;pleated;double;jersey;top;v;neck;;sleeve;less;;;oversized;draped;pleated;machine;wash;30;drip;dry</v>
       </c>
       <c r="B83" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
@@ -11434,7 +11523,7 @@
         <v>MUSIC;Spring;Summer;black;oversized;pleated;jersey;dress;low;neckline;cowl;;sleeveless;no;pockets;mid;thigh;length;oversized;pleated;hand;wash;drip;dry</v>
       </c>
       <c r="B84" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -11443,7 +11532,7 @@
         <v>PLEIONE;Spring;Summer;;;;;;;;;;</v>
       </c>
       <c r="B85" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
@@ -11452,7 +11541,7 @@
         <v>RANA;Spring;Summer;grey;pleated;luxurious;double;jersey;dress;loose;collar;;short;sleeve;no;pockets;above;the;knee;pleated;luxurious;machine;wash;30;drip;dry</v>
       </c>
       <c r="B86" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
@@ -11461,7 +11550,7 @@
         <v>SUHEL;Spring;Summer;black;pleated;knitted;jacquard;short;;elastic;waste;;2;pockets;above;the;knee;pleated;knitted;machine;wash;30;drip;dry</v>
       </c>
       <c r="B87" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -11476,7 +11565,7 @@
         <v>ANKAA;Spring;Summer;black;;jersey;top;twist;detail;collar;;sleeveless;;;;hand;wash;drip;dry</v>
       </c>
       <c r="B89" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
@@ -11509,7 +11598,7 @@
         <v>PARTITION;Spring;Summer;white;t-shirt;pleated;cutout;jersey;top;round;;short;sleeve;recessed;sleeve;;;t-shirt;pleated;cutout;machine;wash;30;drip;dry</v>
       </c>
       <c r="B94" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
     </row>
   </sheetData>
@@ -12855,50 +12944,50 @@
     </row>
     <row r="71" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G71" t="s">
+        <v>246</v>
+      </c>
+      <c r="H71" t="s">
         <v>247</v>
-      </c>
-      <c r="H71" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="72" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G72" t="s">
+        <v>248</v>
+      </c>
+      <c r="H72" t="s">
         <v>249</v>
-      </c>
-      <c r="H72" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="75" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G75" t="s">
+        <v>250</v>
+      </c>
+      <c r="H75" t="s">
         <v>251</v>
-      </c>
-      <c r="H75" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="79" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G79" t="s">
+        <v>252</v>
+      </c>
+      <c r="H79" t="s">
         <v>253</v>
-      </c>
-      <c r="H79" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="80" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G80" t="s">
+        <v>254</v>
+      </c>
+      <c r="H80" t="s">
         <v>255</v>
-      </c>
-      <c r="H80" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="88" spans="7:8" x14ac:dyDescent="0.2">
       <c r="G88" t="s">
+        <v>256</v>
+      </c>
+      <c r="H88" t="s">
         <v>257</v>
-      </c>
-      <c r="H88" t="s">
-        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -12913,9 +13002,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BC95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE3" sqref="AE3"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD15" sqref="AD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12949,8 +13038,8 @@
     <col min="27" max="27" width="20.28515625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="80.7109375" style="67" customWidth="1"/>
-    <col min="31" max="31" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="157" style="67" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="80.7109375" customWidth="1"/>
     <col min="32" max="32" width="46.85546875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="66" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="83.7109375" bestFit="1" customWidth="1"/>
@@ -13178,8 +13267,12 @@
         <v>168</v>
       </c>
       <c r="AD2" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N2&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O2&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P2&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q2&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R2&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K2&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J2&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I2&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets 2 pocket&lt;/p&gt;&lt;p&gt; Length knee length&lt;/p&gt;&lt;p&gt; Features: destructured pleated&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N2="","",'English Master'!N2&amp;" ")&amp;IF('English Master'!O2="","",'English Master'!O2&amp;" ")&amp;IF('English Master'!P2="","",'English Master'!P2&amp;" ")&amp;IF('English Master'!Q2="","",'English Master'!Q2&amp;" ")&amp;IF('English Master'!R2="","",'English Master'!R2&amp;" ")&amp;IF('English Master'!K2="","",'English Master'!K2&amp;" ")&amp;IF('English Master'!J2="","",'English Master'!J2&amp;" ")&amp;IF('English Master'!I2="","",'English Master'!I2&amp;" ")</f>
+        <v xml:space="preserve">2 pocket knee length destructured pleated machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE2" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D2)&amp;" "&amp;'English Master'!F2&amp;" is made from fabric made in "&amp;'English Master'!L2&amp;". "&amp;IF('English Master'!AB2="",""," The model is also wearing "&amp;'English Master'!AB2&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Accord cotton fleece skirt is made from fabric made in Italy. </v>
       </c>
       <c r="AF2" s="83" t="str">
         <f t="shared" ref="AF2:AF22" si="2">SUBSTITUTE(AG2&amp;" "&amp;AI2," ",";")</f>
@@ -13255,12 +13348,12 @@
         <v>168</v>
       </c>
       <c r="AD3" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N3&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O3&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P3&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q3&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R3&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K3&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J3&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I3&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck v neck&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: draped loose&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N3="","",'English Master'!N3&amp;" ")&amp;IF('English Master'!O3="","",'English Master'!O3&amp;" ")&amp;IF('English Master'!P3="","",'English Master'!P3&amp;" ")&amp;IF('English Master'!Q3="","",'English Master'!Q3&amp;" ")&amp;IF('English Master'!R3="","",'English Master'!R3&amp;" ")&amp;IF('English Master'!K3="","",'English Master'!K3&amp;" ")&amp;IF('English Master'!J3="","",'English Master'!J3&amp;" ")&amp;IF('English Master'!I3="","",'English Master'!I3&amp;" ")</f>
+        <v xml:space="preserve">v neck long sleeve draped loose machine wash 30 drip dry 100% cotton </v>
       </c>
       <c r="AE3" t="str">
-        <f>"Young French Designer Amandine Leforestiers "&amp;'English Master'!D3&amp;" "&amp;'English Master'!F3&amp;"is made from fabric made in "&amp;'English Master'!L3&amp;". "&amp;IF('English Master'!AB3="","","The model is also wearing "&amp;'English Master'!AB3&amp;" by Amandine Leforestier")</f>
-        <v>Young French Designer Amandine Leforestiers ADAGIO double jersey topis made from fabric made in France. The model is also wearing Pivot by Amandine Leforestier</v>
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D3)&amp;" "&amp;'English Master'!F3&amp;" is made from fabric made in "&amp;'English Master'!L3&amp;". "&amp;IF('English Master'!AB3="",""," The model is also wearing "&amp;'English Master'!AB3&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Adagio double jersey top is made from fabric made in France.  The model is also wearing Pivot by Amandine Leforestier</v>
       </c>
       <c r="AF3" s="83" t="str">
         <f t="shared" si="2"/>
@@ -13336,8 +13429,12 @@
         <v>168</v>
       </c>
       <c r="AD4" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N4&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O4&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P4&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q4&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R4&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K4&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J4&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I4&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck large round collar&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: pleated brushed mottled&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N4="","",'English Master'!N4&amp;" ")&amp;IF('English Master'!O4="","",'English Master'!O4&amp;" ")&amp;IF('English Master'!P4="","",'English Master'!P4&amp;" ")&amp;IF('English Master'!Q4="","",'English Master'!Q4&amp;" ")&amp;IF('English Master'!R4="","",'English Master'!R4&amp;" ")&amp;IF('English Master'!K4="","",'English Master'!K4&amp;" ")&amp;IF('English Master'!J4="","",'English Master'!J4&amp;" ")&amp;IF('English Master'!I4="","",'English Master'!I4&amp;" ")</f>
+        <v xml:space="preserve">large round collar long sleeve pleated brushed mottled machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE4" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D4)&amp;" "&amp;'English Master'!F4&amp;" is made from fabric made in "&amp;'English Master'!L4&amp;". "&amp;IF('English Master'!AB4="",""," The model is also wearing "&amp;'English Master'!AB4&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Aell cotton fleece sweater is made from fabric made in Italy.  The model is also wearing Arietis by Amandine Leforestier</v>
       </c>
       <c r="AF4" s="83" t="str">
         <f t="shared" si="2"/>
@@ -13413,8 +13510,12 @@
         <v>168</v>
       </c>
       <c r="AD5" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N5&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O5&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P5&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q5&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R5&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K5&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J5&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I5&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck boat neck&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: oversized tapered draped&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 50% cotton 50% modal&lt;/p&gt;</v>
+        <f>IF('English Master'!N5="","",'English Master'!N5&amp;" ")&amp;IF('English Master'!O5="","",'English Master'!O5&amp;" ")&amp;IF('English Master'!P5="","",'English Master'!P5&amp;" ")&amp;IF('English Master'!Q5="","",'English Master'!Q5&amp;" ")&amp;IF('English Master'!R5="","",'English Master'!R5&amp;" ")&amp;IF('English Master'!K5="","",'English Master'!K5&amp;" ")&amp;IF('English Master'!J5="","",'English Master'!J5&amp;" ")&amp;IF('English Master'!I5="","",'English Master'!I5&amp;" ")</f>
+        <v xml:space="preserve">boat neck long sleeve oversized tapered draped machine wash 30 drip dry 50% cotton 50% modal </v>
+      </c>
+      <c r="AE5" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D5)&amp;" "&amp;'English Master'!F5&amp;" is made from fabric made in "&amp;'English Master'!L5&amp;". "&amp;IF('English Master'!AB5="",""," The model is also wearing "&amp;'English Master'!AB5&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Ale jersey top is made from fabric made in Italy.  The model is also wearing Appolo by Amandine Leforestier</v>
       </c>
       <c r="AF5" s="83" t="str">
         <f t="shared" si="2"/>
@@ -13490,15 +13591,16 @@
         <v>168</v>
       </c>
       <c r="AD6" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N6&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O6&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P6&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q6&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R6&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K6&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J6&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I6&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist twist belt waist pleated waist&lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets 2 pockets&lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: relaxed yoga/jogging trousers&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>644</v>
+        <f>IF('English Master'!N6="","",'English Master'!N6&amp;" ")&amp;IF('English Master'!O6="","",'English Master'!O6&amp;" ")&amp;IF('English Master'!P6="","",'English Master'!P6&amp;" ")&amp;IF('English Master'!Q6="","",'English Master'!Q6&amp;" ")&amp;IF('English Master'!R6="","",'English Master'!R6&amp;" ")&amp;IF('English Master'!K6="","",'English Master'!K6&amp;" ")&amp;IF('English Master'!J6="","",'English Master'!J6&amp;" ")&amp;IF('English Master'!I6="","",'English Master'!I6&amp;" ")</f>
+        <v xml:space="preserve">twisted belt pleated non elastic waist 2 pockets relaxed yoga/jogging trousers machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE6" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D6)&amp;" "&amp;'English Master'!F6&amp;" is made from fabric made in "&amp;'English Master'!L6&amp;". "&amp;IF('English Master'!AB6="",""," The model is also wearing "&amp;'English Master'!AB6&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Alto cotton fleece pants is made from fabric made in France.  The model is also wearing Concerto by Amandine Leforestier</v>
       </c>
       <c r="AF6" s="83" t="str">
         <f t="shared" si="2"/>
-        <v>ALTO;All;season;light;grey;relaxed;yoga/jogging;trousers;cotton;fleece;pants;;twist;belt;waist;pleated;waist;;2;pockets;;relaxed;yoga/jogging;trousers;machine;wash;30;drip;dry</v>
+        <v>ALTO;All;season;light;grey;relaxed;yoga/jogging;trousers;cotton;fleece;pants;;twisted;belt;pleated;non;elastic;waist;;2;pockets;;relaxed;yoga/jogging;trousers;machine;wash;30;drip;dry</v>
       </c>
       <c r="AG6" t="str">
         <f t="shared" si="3"/>
@@ -13510,7 +13612,7 @@
       </c>
       <c r="AI6" t="str">
         <f>'English Master'!N6&amp;" "&amp;'English Master'!O6&amp;" "&amp;'English Master'!P6&amp;" "&amp;'English Master'!Q6&amp;" "&amp;'English Master'!R6&amp;" "&amp;'English Master'!K6&amp;" "&amp;'English Master'!J6</f>
-        <v xml:space="preserve"> twist belt waist pleated waist  2 pockets  relaxed yoga/jogging trousers machine wash 30 drip dry</v>
+        <v xml:space="preserve"> twisted belt pleated non elastic waist  2 pockets  relaxed yoga/jogging trousers machine wash 30 drip dry</v>
       </c>
       <c r="AK6" t="s">
         <v>166</v>
@@ -13527,7 +13629,7 @@
       </c>
       <c r="AS6" t="str">
         <f>'English Master'!$I$1&amp;":"&amp;'English Master'!I6&amp;":0;"&amp;'English Master'!$J$1&amp;":"&amp;'English Master'!J6&amp;":1;"&amp;'English Master'!$N$1&amp;":"&amp;'English Master'!N6&amp;":2;"&amp;'English Master'!$O$1&amp;":"&amp;'English Master'!O6&amp;":3;"&amp;'English Master'!$P$1&amp;":"&amp;'English Master'!P6&amp;":4;"&amp;'English Master'!$Q$1&amp;":"&amp;'English Master'!Q6&amp;":5;"&amp;'English Master'!$R$1&amp;":"&amp;'English Master'!R6&amp;":6;"&amp;'English Master'!$L$1&amp;":"&amp;'English Master'!L6&amp;":7"</f>
-        <v>Composition:100% cotton:0;Care:machine wash 30 drip dry:1;Neck::2;Waist:twist belt waist pleated waist:3;Sleeves::4;Pockets:2 pockets:5;Length::6;Fabric origin:France:7</v>
+        <v>Composition:100% cotton:0;Care:machine wash 30 drip dry:1;Neck::2;Waist:twisted belt pleated non elastic waist:3;Sleeves::4;Pockets:2 pockets:5;Length::6;Fabric origin:France:7</v>
       </c>
       <c r="AT6">
         <v>1</v>
@@ -13570,11 +13672,12 @@
         <v>168</v>
       </c>
       <c r="AD7" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N7&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O7&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P7&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q7&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R7&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K7&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J7&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I7&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist elastic waist&lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets 2 pockets&lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: relaxed fit&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>634</v>
+        <f>IF('English Master'!N7="","",'English Master'!N7&amp;" ")&amp;IF('English Master'!O7="","",'English Master'!O7&amp;" ")&amp;IF('English Master'!P7="","",'English Master'!P7&amp;" ")&amp;IF('English Master'!Q7="","",'English Master'!Q7&amp;" ")&amp;IF('English Master'!R7="","",'English Master'!R7&amp;" ")&amp;IF('English Master'!K7="","",'English Master'!K7&amp;" ")&amp;IF('English Master'!J7="","",'English Master'!J7&amp;" ")&amp;IF('English Master'!I7="","",'English Master'!I7&amp;" ")</f>
+        <v xml:space="preserve">elastic waist 2 pockets relaxed fit machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE7" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D7)&amp;" "&amp;'English Master'!F7&amp;" is made from fabric made in "&amp;'English Master'!L7&amp;". "&amp;IF('English Master'!AB7="",""," The model is also wearing "&amp;'English Master'!AB7&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Arietis jacquard pants is made from fabric made in France.  The model is also wearing Coda by Amandine Leforestier</v>
       </c>
       <c r="AF7" s="83" t="str">
         <f t="shared" si="2"/>
@@ -13650,15 +13753,16 @@
         <v>168</v>
       </c>
       <c r="AD8" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N8&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O8&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P8&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q8&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R8&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K8&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J8&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I8&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist twist belt&lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length knee length&lt;/p&gt;&lt;p&gt; Features: fluid&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 70% polyester 30% wool&lt;/p&gt;</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>635</v>
+        <f>IF('English Master'!N8="","",'English Master'!N8&amp;" ")&amp;IF('English Master'!O8="","",'English Master'!O8&amp;" ")&amp;IF('English Master'!P8="","",'English Master'!P8&amp;" ")&amp;IF('English Master'!Q8="","",'English Master'!Q8&amp;" ")&amp;IF('English Master'!R8="","",'English Master'!R8&amp;" ")&amp;IF('English Master'!K8="","",'English Master'!K8&amp;" ")&amp;IF('English Master'!J8="","",'English Master'!J8&amp;" ")&amp;IF('English Master'!I8="","",'English Master'!I8&amp;" ")</f>
+        <v xml:space="preserve">twisted belt knee length fluid 70% polyester 30% wool </v>
+      </c>
+      <c r="AE8" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D8)&amp;" "&amp;'English Master'!F8&amp;" is made from fabric made in "&amp;'English Master'!L8&amp;". "&amp;IF('English Master'!AB8="",""," The model is also wearing "&amp;'English Master'!AB8&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Courbe jersey skirt is made from fabric made in Italy.  The model is also wearing Gambade by Amandine Leforestier</v>
       </c>
       <c r="AF8" s="83" t="str">
         <f t="shared" si="2"/>
-        <v>COURBE;All;season;black;fluid;jersey;skirt;;twist;belt;;;knee;length;fluid;</v>
+        <v>COURBE;All;season;black;fluid;jersey;skirt;;twisted;belt;;;knee;length;fluid;</v>
       </c>
       <c r="AG8" t="str">
         <f t="shared" si="3"/>
@@ -13670,7 +13774,7 @@
       </c>
       <c r="AI8" t="str">
         <f>'English Master'!N8&amp;" "&amp;'English Master'!O8&amp;" "&amp;'English Master'!P8&amp;" "&amp;'English Master'!Q8&amp;" "&amp;'English Master'!R8&amp;" "&amp;'English Master'!K8&amp;" "&amp;'English Master'!J8</f>
-        <v xml:space="preserve"> twist belt   knee length fluid </v>
+        <v xml:space="preserve"> twisted belt   knee length fluid </v>
       </c>
       <c r="AK8" t="s">
         <v>166</v>
@@ -13687,7 +13791,7 @@
       </c>
       <c r="AS8" t="str">
         <f>'English Master'!$I$1&amp;":"&amp;'English Master'!I8&amp;":0;"&amp;'English Master'!$J$1&amp;":"&amp;'English Master'!J8&amp;":1;"&amp;'English Master'!$N$1&amp;":"&amp;'English Master'!N8&amp;":2;"&amp;'English Master'!$O$1&amp;":"&amp;'English Master'!O8&amp;":3;"&amp;'English Master'!$P$1&amp;":"&amp;'English Master'!P8&amp;":4;"&amp;'English Master'!$Q$1&amp;":"&amp;'English Master'!Q8&amp;":5;"&amp;'English Master'!$R$1&amp;":"&amp;'English Master'!R8&amp;":6;"&amp;'English Master'!$L$1&amp;":"&amp;'English Master'!L8&amp;":7"</f>
-        <v>Composition:70% polyester 30% wool:0;Care::1;Neck::2;Waist:twist belt:3;Sleeves::4;Pockets::5;Length:knee length:6;Fabric origin:Italy:7</v>
+        <v>Composition:70% polyester 30% wool:0;Care::1;Neck::2;Waist:twisted belt:3;Sleeves::4;Pockets::5;Length:knee length:6;Fabric origin:Italy:7</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -13730,11 +13834,12 @@
         <v>168</v>
       </c>
       <c r="AD9" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N9&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O9&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P9&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q9&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R9&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K9&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J9&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I9&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck round collar&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length mid thigh length&lt;/p&gt;&lt;p&gt; Features: pleated relaxed stretchy straight cut&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>636</v>
+        <f>IF('English Master'!N9="","",'English Master'!N9&amp;" ")&amp;IF('English Master'!O9="","",'English Master'!O9&amp;" ")&amp;IF('English Master'!P9="","",'English Master'!P9&amp;" ")&amp;IF('English Master'!Q9="","",'English Master'!Q9&amp;" ")&amp;IF('English Master'!R9="","",'English Master'!R9&amp;" ")&amp;IF('English Master'!K9="","",'English Master'!K9&amp;" ")&amp;IF('English Master'!J9="","",'English Master'!J9&amp;" ")&amp;IF('English Master'!I9="","",'English Master'!I9&amp;" ")</f>
+        <v xml:space="preserve">round collar long sleeve no pockets mid thigh length pleated relaxed stretchy straight cut machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE9" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D9)&amp;" "&amp;'English Master'!F9&amp;" is made from fabric made in "&amp;'English Master'!L9&amp;". "&amp;IF('English Master'!AB9="",""," The model is also wearing "&amp;'English Master'!AB9&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Danse rib dress is made from fabric made in France. </v>
       </c>
       <c r="AF9" s="83" t="str">
         <f t="shared" si="2"/>
@@ -13810,11 +13915,12 @@
         <v>168</v>
       </c>
       <c r="AD10" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N10&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O10&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P10&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q10&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R10&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K10&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J10&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I10&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck round neck&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: drop detailed square shaped&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>637</v>
+        <f>IF('English Master'!N10="","",'English Master'!N10&amp;" ")&amp;IF('English Master'!O10="","",'English Master'!O10&amp;" ")&amp;IF('English Master'!P10="","",'English Master'!P10&amp;" ")&amp;IF('English Master'!Q10="","",'English Master'!Q10&amp;" ")&amp;IF('English Master'!R10="","",'English Master'!R10&amp;" ")&amp;IF('English Master'!K10="","",'English Master'!K10&amp;" ")&amp;IF('English Master'!J10="","",'English Master'!J10&amp;" ")&amp;IF('English Master'!I10="","",'English Master'!I10&amp;" ")</f>
+        <v xml:space="preserve">round neck long sleeve drop detailed square shaped machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE10" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D10)&amp;" "&amp;'English Master'!F10&amp;" is made from fabric made in "&amp;'English Master'!L10&amp;". "&amp;IF('English Master'!AB10="",""," The model is also wearing "&amp;'English Master'!AB10&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Diese cotton fleece sweater is made from fabric made in France.  The model is also wearing Pivot by Amandine Leforestier</v>
       </c>
       <c r="AF10" s="83" t="str">
         <f t="shared" si="2"/>
@@ -13890,8 +13996,12 @@
         <v>168</v>
       </c>
       <c r="AD11" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N11&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O11&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P11&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q11&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R11&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K11&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J11&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I11&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck boat collar&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: draped pleated&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 70% polyester 30% wool&lt;/p&gt;</v>
+        <f>IF('English Master'!N11="","",'English Master'!N11&amp;" ")&amp;IF('English Master'!O11="","",'English Master'!O11&amp;" ")&amp;IF('English Master'!P11="","",'English Master'!P11&amp;" ")&amp;IF('English Master'!Q11="","",'English Master'!Q11&amp;" ")&amp;IF('English Master'!R11="","",'English Master'!R11&amp;" ")&amp;IF('English Master'!K11="","",'English Master'!K11&amp;" ")&amp;IF('English Master'!J11="","",'English Master'!J11&amp;" ")&amp;IF('English Master'!I11="","",'English Master'!I11&amp;" ")</f>
+        <v xml:space="preserve">boat collar long sleeve draped pleated machine wash 30 drip dry 70% polyester 30% wool </v>
+      </c>
+      <c r="AE11" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D11)&amp;" "&amp;'English Master'!F11&amp;" is made from fabric made in "&amp;'English Master'!L11&amp;". "&amp;IF('English Master'!AB11="",""," The model is also wearing "&amp;'English Master'!AB11&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Etoile jersey top is made from fabric made in Italy.  The model is also wearing Etty by Amandine Leforestier</v>
       </c>
       <c r="AF11" s="83" t="str">
         <f t="shared" si="2"/>
@@ -13943,7 +14053,7 @@
       </c>
       <c r="C12" t="str">
         <f>'English Master'!D12&amp;" "&amp;'English Master'!C12&amp;" "&amp;'English Master'!H12&amp;" "&amp;'English Master'!K12&amp;" "&amp;'English Master'!F12</f>
-        <v>GALLINA All season black draped fluid bib pleated jersey dress</v>
+        <v>GALLINA All season black draped fluid pouch pleat jersey dress</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -13967,27 +14077,28 @@
         <v>168</v>
       </c>
       <c r="AD12" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N12&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O12&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P12&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q12&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R12&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K12&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J12&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I12&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck round collar&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves sleeveless&lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length mid thigh length&lt;/p&gt;&lt;p&gt; Features: draped fluid bib pleated&lt;/p&gt;&lt;p&gt;Care: Hand wash drip dry&lt;/p&gt;&lt;p&gt;Composition: 95% cotton 5% elastane&lt;/p&gt;</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>638</v>
+        <f>IF('English Master'!N12="","",'English Master'!N12&amp;" ")&amp;IF('English Master'!O12="","",'English Master'!O12&amp;" ")&amp;IF('English Master'!P12="","",'English Master'!P12&amp;" ")&amp;IF('English Master'!Q12="","",'English Master'!Q12&amp;" ")&amp;IF('English Master'!R12="","",'English Master'!R12&amp;" ")&amp;IF('English Master'!K12="","",'English Master'!K12&amp;" ")&amp;IF('English Master'!J12="","",'English Master'!J12&amp;" ")&amp;IF('English Master'!I12="","",'English Master'!I12&amp;" ")</f>
+        <v xml:space="preserve">round collar sleeveless no pockets mid thigh length draped fluid pouch pleat Hand wash drip dry 95% cotton 5% elastane </v>
+      </c>
+      <c r="AE12" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D12)&amp;" "&amp;'English Master'!F12&amp;" is made from fabric made in "&amp;'English Master'!L12&amp;". "&amp;IF('English Master'!AB12="",""," The model is also wearing "&amp;'English Master'!AB12&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Gallina jersey dress is made from fabric made in Italy. </v>
       </c>
       <c r="AF12" s="83" t="str">
         <f t="shared" si="2"/>
-        <v>GALLINA;All;season;black;draped;fluid;bib;pleated;jersey;dress;round;collar;;sleeveless;no;pockets;mid;thigh;length;draped;fluid;bib;pleated;Hand;wash;drip;dry</v>
+        <v>GALLINA;All;season;black;draped;fluid;pouch;pleat;jersey;dress;round;collar;;sleeveless;no;pockets;mid;thigh;length;draped;fluid;pouch;pleat;Hand;wash;drip;dry</v>
       </c>
       <c r="AG12" t="str">
         <f t="shared" si="3"/>
-        <v>GALLINA All season black draped fluid bib pleated jersey dress</v>
+        <v>GALLINA All season black draped fluid pouch pleat jersey dress</v>
       </c>
       <c r="AH12" t="str">
         <f>AG12&amp;"  "&amp;'English Master'!I79</f>
-        <v xml:space="preserve">GALLINA All season black draped fluid bib pleated jersey dress  </v>
+        <v xml:space="preserve">GALLINA All season black draped fluid pouch pleat jersey dress  </v>
       </c>
       <c r="AI12" t="str">
         <f>'English Master'!N12&amp;" "&amp;'English Master'!O12&amp;" "&amp;'English Master'!P12&amp;" "&amp;'English Master'!Q12&amp;" "&amp;'English Master'!R12&amp;" "&amp;'English Master'!K12&amp;" "&amp;'English Master'!J12</f>
-        <v>round collar  sleeveless no pockets mid thigh length draped fluid bib pleated Hand wash drip dry</v>
+        <v>round collar  sleeveless no pockets mid thigh length draped fluid pouch pleat Hand wash drip dry</v>
       </c>
       <c r="AK12" t="s">
         <v>166</v>
@@ -14047,11 +14158,12 @@
         <v>168</v>
       </c>
       <c r="AD13" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N13&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O13&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P13&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q13&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R13&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K13&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J13&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I13&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length waist length&lt;/p&gt;&lt;p&gt; Features: oversized kimono&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>639</v>
+        <f>IF('English Master'!N13="","",'English Master'!N13&amp;" ")&amp;IF('English Master'!O13="","",'English Master'!O13&amp;" ")&amp;IF('English Master'!P13="","",'English Master'!P13&amp;" ")&amp;IF('English Master'!Q13="","",'English Master'!Q13&amp;" ")&amp;IF('English Master'!R13="","",'English Master'!R13&amp;" ")&amp;IF('English Master'!K13="","",'English Master'!K13&amp;" ")&amp;IF('English Master'!J13="","",'English Master'!J13&amp;" ")&amp;IF('English Master'!I13="","",'English Master'!I13&amp;" ")</f>
+        <v xml:space="preserve">long sleeve no pockets waist length oversized kimono machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE13" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D13)&amp;" "&amp;'English Master'!F13&amp;" is made from fabric made in "&amp;'English Master'!L13&amp;". "&amp;IF('English Master'!AB13="",""," The model is also wearing "&amp;'English Master'!AB13&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Giena jacquard jacket is made from fabric made in France.  The model is also wearing Arietis by Amandine Leforestier</v>
       </c>
       <c r="AF13" s="83" t="str">
         <f t="shared" si="2"/>
@@ -14127,8 +14239,12 @@
         <v>168</v>
       </c>
       <c r="AD14" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N14&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O14&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P14&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q14&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R14&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K14&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J14&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I14&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: &lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: &lt;/p&gt;</v>
+        <f>IF('English Master'!N14="","",'English Master'!N14&amp;" ")&amp;IF('English Master'!O14="","",'English Master'!O14&amp;" ")&amp;IF('English Master'!P14="","",'English Master'!P14&amp;" ")&amp;IF('English Master'!Q14="","",'English Master'!Q14&amp;" ")&amp;IF('English Master'!R14="","",'English Master'!R14&amp;" ")&amp;IF('English Master'!K14="","",'English Master'!K14&amp;" ")&amp;IF('English Master'!J14="","",'English Master'!J14&amp;" ")&amp;IF('English Master'!I14="","",'English Master'!I14&amp;" ")</f>
+        <v/>
+      </c>
+      <c r="AE14" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D14)&amp;" "&amp;'English Master'!F14&amp;" is made from fabric made in "&amp;'English Master'!L14&amp;". "&amp;IF('English Master'!AB14="",""," The model is also wearing "&amp;'English Master'!AB14&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Asterion  is made from fabric made in Italy. </v>
       </c>
       <c r="AF14" s="83" t="str">
         <f t="shared" si="2"/>
@@ -14204,11 +14320,12 @@
         <v>168</v>
       </c>
       <c r="AD15" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N15&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O15&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P15&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q15&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R15&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K15&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J15&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I15&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: cutout detailed simple yoga leggings&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 96% cotton 4% elastane&lt;/p&gt;</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>640</v>
+        <f>IF('English Master'!N15="","",'English Master'!N15&amp;" ")&amp;IF('English Master'!O15="","",'English Master'!O15&amp;" ")&amp;IF('English Master'!P15="","",'English Master'!P15&amp;" ")&amp;IF('English Master'!Q15="","",'English Master'!Q15&amp;" ")&amp;IF('English Master'!R15="","",'English Master'!R15&amp;" ")&amp;IF('English Master'!K15="","",'English Master'!K15&amp;" ")&amp;IF('English Master'!J15="","",'English Master'!J15&amp;" ")&amp;IF('English Master'!I15="","",'English Master'!I15&amp;" ")</f>
+        <v xml:space="preserve">no pockets cutout detailed simple yoga leggings 96% cotton 4% elastane </v>
+      </c>
+      <c r="AE15" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D15)&amp;" "&amp;'English Master'!F15&amp;" is made from fabric made in "&amp;'English Master'!L15&amp;". "&amp;IF('English Master'!AB15="",""," The model is also wearing "&amp;'English Master'!AB15&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Gine cotton fleece pants is made from fabric made in France.  The model is also wearing Porte by Amandine Leforestier</v>
       </c>
       <c r="AF15" s="83" t="str">
         <f t="shared" si="2"/>
@@ -14284,11 +14401,12 @@
         <v>168</v>
       </c>
       <c r="AD16" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N16&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O16&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P16&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q16&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R16&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K16&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J16&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I16&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck draped neckline&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length mid thigh length&lt;/p&gt;&lt;p&gt; Features: open shoulder sweater&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>641</v>
+        <f>IF('English Master'!N16="","",'English Master'!N16&amp;" ")&amp;IF('English Master'!O16="","",'English Master'!O16&amp;" ")&amp;IF('English Master'!P16="","",'English Master'!P16&amp;" ")&amp;IF('English Master'!Q16="","",'English Master'!Q16&amp;" ")&amp;IF('English Master'!R16="","",'English Master'!R16&amp;" ")&amp;IF('English Master'!K16="","",'English Master'!K16&amp;" ")&amp;IF('English Master'!J16="","",'English Master'!J16&amp;" ")&amp;IF('English Master'!I16="","",'English Master'!I16&amp;" ")</f>
+        <v xml:space="preserve">draped neckline long sleeve no pockets mid thigh length open shoulder sweater machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE16" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D16)&amp;" "&amp;'English Master'!F16&amp;" is made from fabric made in "&amp;'English Master'!L16&amp;". "&amp;IF('English Master'!AB16="",""," The model is also wearing "&amp;'English Master'!AB16&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Melodie cotton fleece dress is made from fabric made in Italy. </v>
       </c>
       <c r="AF16" s="83" t="str">
         <f t="shared" si="2"/>
@@ -14364,11 +14482,12 @@
         <v>168</v>
       </c>
       <c r="AD17" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N17&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O17&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P17&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q17&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R17&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K17&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J17&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I17&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck round neck&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: angle drape&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>642</v>
+        <f>IF('English Master'!N17="","",'English Master'!N17&amp;" ")&amp;IF('English Master'!O17="","",'English Master'!O17&amp;" ")&amp;IF('English Master'!P17="","",'English Master'!P17&amp;" ")&amp;IF('English Master'!Q17="","",'English Master'!Q17&amp;" ")&amp;IF('English Master'!R17="","",'English Master'!R17&amp;" ")&amp;IF('English Master'!K17="","",'English Master'!K17&amp;" ")&amp;IF('English Master'!J17="","",'English Master'!J17&amp;" ")&amp;IF('English Master'!I17="","",'English Master'!I17&amp;" ")</f>
+        <v xml:space="preserve">round neck long sleeve angle drape machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE17" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D17)&amp;" "&amp;'English Master'!F17&amp;" is made from fabric made in "&amp;'English Master'!L17&amp;". "&amp;IF('English Master'!AB17="",""," The model is also wearing "&amp;'English Master'!AB17&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Moove rib top is made from fabric made in France.  The model is also wearing Arietis by Amandine Leforestier</v>
       </c>
       <c r="AF17" s="83" t="str">
         <f t="shared" si="2"/>
@@ -14420,7 +14539,7 @@
       </c>
       <c r="C18" t="str">
         <f>'English Master'!D18&amp;" "&amp;'English Master'!C18&amp;" "&amp;'English Master'!H18&amp;" "&amp;'English Master'!K18&amp;" "&amp;'English Master'!F18</f>
-        <v>ODE All season black ballooned draped jersey skirt</v>
+        <v>ODE All season black ballooned double pleat draped jersey skirt</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
@@ -14444,24 +14563,28 @@
         <v>168</v>
       </c>
       <c r="AD18" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N18&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O18&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P18&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q18&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R18&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K18&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J18&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I18&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist elastic waste band&lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length mid thigh&lt;/p&gt;&lt;p&gt; Features: ballooned draped&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% viscose&lt;/p&gt;</v>
+        <f>IF('English Master'!N18="","",'English Master'!N18&amp;" ")&amp;IF('English Master'!O18="","",'English Master'!O18&amp;" ")&amp;IF('English Master'!P18="","",'English Master'!P18&amp;" ")&amp;IF('English Master'!Q18="","",'English Master'!Q18&amp;" ")&amp;IF('English Master'!R18="","",'English Master'!R18&amp;" ")&amp;IF('English Master'!K18="","",'English Master'!K18&amp;" ")&amp;IF('English Master'!J18="","",'English Master'!J18&amp;" ")&amp;IF('English Master'!I18="","",'English Master'!I18&amp;" ")</f>
+        <v xml:space="preserve">elastic waste band mid thigh ballooned double pleat draped machine wash 30 drip dry 100% viscose </v>
+      </c>
+      <c r="AE18" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D18)&amp;" "&amp;'English Master'!F18&amp;" is made from fabric made in "&amp;'English Master'!L18&amp;". "&amp;IF('English Master'!AB18="",""," The model is also wearing "&amp;'English Master'!AB18&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Ode jersey skirt is made from fabric made in .  The model is also wearing Etamin by Amandine Leforestier</v>
       </c>
       <c r="AF18" s="83" t="str">
         <f t="shared" si="2"/>
-        <v>ODE;All;season;black;ballooned;draped;jersey;skirt;;elastic;waste;band;;;mid;thigh;ballooned;draped;machine;wash;30;drip;dry</v>
+        <v>ODE;All;season;black;ballooned;double;pleat;draped;jersey;skirt;;elastic;waste;band;;;mid;thigh;ballooned;double;pleat;draped;machine;wash;30;drip;dry</v>
       </c>
       <c r="AG18" t="str">
         <f t="shared" si="3"/>
-        <v>ODE All season black ballooned draped jersey skirt</v>
+        <v>ODE All season black ballooned double pleat draped jersey skirt</v>
       </c>
       <c r="AH18" t="str">
         <f>AG18&amp;"  "&amp;'English Master'!I85</f>
-        <v>ODE All season black ballooned draped jersey skirt  90% viscose 10% lycra</v>
+        <v>ODE All season black ballooned double pleat draped jersey skirt  90% viscose 10% lycra</v>
       </c>
       <c r="AI18" t="str">
         <f>'English Master'!N18&amp;" "&amp;'English Master'!O18&amp;" "&amp;'English Master'!P18&amp;" "&amp;'English Master'!Q18&amp;" "&amp;'English Master'!R18&amp;" "&amp;'English Master'!K18&amp;" "&amp;'English Master'!J18</f>
-        <v xml:space="preserve"> elastic waste band   mid thigh ballooned draped machine wash 30 drip dry</v>
+        <v xml:space="preserve"> elastic waste band   mid thigh ballooned double pleat draped machine wash 30 drip dry</v>
       </c>
       <c r="AK18" t="s">
         <v>166</v>
@@ -14497,7 +14620,7 @@
       </c>
       <c r="C19" t="str">
         <f>'English Master'!D19&amp;" "&amp;'English Master'!C19&amp;" "&amp;'English Master'!H19&amp;" "&amp;'English Master'!K19&amp;" "&amp;'English Master'!F19</f>
-        <v>OSE All season grey pleated cotton fleece sweater</v>
+        <v>OSE All season grey pleated hip cotton fleece sweater</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
@@ -14521,24 +14644,28 @@
         <v>168</v>
       </c>
       <c r="AD19" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N19&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O19&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P19&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q19&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R19&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K19&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J19&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I19&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck loose turtle neck&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves American long sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: pleated&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N19="","",'English Master'!N19&amp;" ")&amp;IF('English Master'!O19="","",'English Master'!O19&amp;" ")&amp;IF('English Master'!P19="","",'English Master'!P19&amp;" ")&amp;IF('English Master'!Q19="","",'English Master'!Q19&amp;" ")&amp;IF('English Master'!R19="","",'English Master'!R19&amp;" ")&amp;IF('English Master'!K19="","",'English Master'!K19&amp;" ")&amp;IF('English Master'!J19="","",'English Master'!J19&amp;" ")&amp;IF('English Master'!I19="","",'English Master'!I19&amp;" ")</f>
+        <v xml:space="preserve">loose turtle neck American long sleeve pleated hip machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE19" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D19)&amp;" "&amp;'English Master'!F19&amp;" is made from fabric made in "&amp;'English Master'!L19&amp;". "&amp;IF('English Master'!AB19="",""," The model is also wearing "&amp;'English Master'!AB19&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Ose cotton fleece sweater is made from fabric made in Italy.  The model is also wearing Pivot by Amandine Leforestier</v>
       </c>
       <c r="AF19" s="83" t="str">
         <f t="shared" si="2"/>
-        <v>OSE;All;season;grey;pleated;cotton;fleece;sweater;loose;turtle;neck;;American;long;sleeve;;;pleated;machine;wash;30;drip;dry</v>
+        <v>OSE;All;season;grey;pleated;hip;cotton;fleece;sweater;loose;turtle;neck;;American;long;sleeve;;;pleated;hip;machine;wash;30;drip;dry</v>
       </c>
       <c r="AG19" t="str">
         <f t="shared" si="3"/>
-        <v>OSE All season grey pleated cotton fleece sweater</v>
+        <v>OSE All season grey pleated hip cotton fleece sweater</v>
       </c>
       <c r="AH19" t="str">
         <f>AG19&amp;"  "&amp;'English Master'!I86</f>
-        <v xml:space="preserve">OSE All season grey pleated cotton fleece sweater  </v>
+        <v xml:space="preserve">OSE All season grey pleated hip cotton fleece sweater  </v>
       </c>
       <c r="AI19" t="str">
         <f>'English Master'!N19&amp;" "&amp;'English Master'!O19&amp;" "&amp;'English Master'!P19&amp;" "&amp;'English Master'!Q19&amp;" "&amp;'English Master'!R19&amp;" "&amp;'English Master'!K19&amp;" "&amp;'English Master'!J19</f>
-        <v>loose turtle neck  American long sleeve   pleated machine wash 30 drip dry</v>
+        <v>loose turtle neck  American long sleeve   pleated hip machine wash 30 drip dry</v>
       </c>
       <c r="AK19" t="s">
         <v>166</v>
@@ -14574,7 +14701,7 @@
       </c>
       <c r="C20" t="str">
         <f>'English Master'!D20&amp;" "&amp;'English Master'!C20&amp;" "&amp;'English Master'!H20&amp;" "&amp;'English Master'!K20&amp;" "&amp;'English Master'!F20</f>
-        <v>PRELUDE All season grey oversized bamboo pleated cotton fleece sweater</v>
+        <v>PRELUDE All season grey oversized bamboo pleat cotton fleece sweater</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
@@ -14598,24 +14725,28 @@
         <v>168</v>
       </c>
       <c r="AD20" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N20&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O20&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P20&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q20&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R20&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K20&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J20&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I20&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck turtle neck&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: oversized bamboo pleated&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N20="","",'English Master'!N20&amp;" ")&amp;IF('English Master'!O20="","",'English Master'!O20&amp;" ")&amp;IF('English Master'!P20="","",'English Master'!P20&amp;" ")&amp;IF('English Master'!Q20="","",'English Master'!Q20&amp;" ")&amp;IF('English Master'!R20="","",'English Master'!R20&amp;" ")&amp;IF('English Master'!K20="","",'English Master'!K20&amp;" ")&amp;IF('English Master'!J20="","",'English Master'!J20&amp;" ")&amp;IF('English Master'!I20="","",'English Master'!I20&amp;" ")</f>
+        <v xml:space="preserve">turtle neck oversized bamboo pleat machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE20" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D20)&amp;" "&amp;'English Master'!F20&amp;" is made from fabric made in "&amp;'English Master'!L20&amp;". "&amp;IF('English Master'!AB20="",""," The model is also wearing "&amp;'English Master'!AB20&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Prelude cotton fleece sweater is made from fabric made in Italy.  The model is also wearing Pivot by Amandine Leforestier</v>
       </c>
       <c r="AF20" s="83" t="str">
         <f t="shared" si="2"/>
-        <v>PRELUDE;All;season;grey;oversized;bamboo;pleated;cotton;fleece;sweater;turtle;neck;;;;;oversized;bamboo;pleated;machine;wash;30;drip;dry</v>
+        <v>PRELUDE;All;season;grey;oversized;bamboo;pleat;cotton;fleece;sweater;turtle;neck;;;;;oversized;bamboo;pleat;machine;wash;30;drip;dry</v>
       </c>
       <c r="AG20" t="str">
         <f t="shared" si="3"/>
-        <v>PRELUDE All season grey oversized bamboo pleated cotton fleece sweater</v>
+        <v>PRELUDE All season grey oversized bamboo pleat cotton fleece sweater</v>
       </c>
       <c r="AH20" t="str">
         <f>AG20&amp;"  "&amp;'English Master'!I87</f>
-        <v>PRELUDE All season grey oversized bamboo pleated cotton fleece sweater  100% cotton</v>
+        <v>PRELUDE All season grey oversized bamboo pleat cotton fleece sweater  100% cotton</v>
       </c>
       <c r="AI20" t="str">
         <f>'English Master'!N20&amp;" "&amp;'English Master'!O20&amp;" "&amp;'English Master'!P20&amp;" "&amp;'English Master'!Q20&amp;" "&amp;'English Master'!R20&amp;" "&amp;'English Master'!K20&amp;" "&amp;'English Master'!J20</f>
-        <v>turtle neck     oversized bamboo pleated machine wash 30 drip dry</v>
+        <v>turtle neck     oversized bamboo pleat machine wash 30 drip dry</v>
       </c>
       <c r="AK20" t="s">
         <v>166</v>
@@ -14675,8 +14806,12 @@
         <v>168</v>
       </c>
       <c r="AD21" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N21&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O21&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P21&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q21&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R21&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K21&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J21&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I21&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck boat neck&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves sleeveless&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: square shaped drop detailed&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N21="","",'English Master'!N21&amp;" ")&amp;IF('English Master'!O21="","",'English Master'!O21&amp;" ")&amp;IF('English Master'!P21="","",'English Master'!P21&amp;" ")&amp;IF('English Master'!Q21="","",'English Master'!Q21&amp;" ")&amp;IF('English Master'!R21="","",'English Master'!R21&amp;" ")&amp;IF('English Master'!K21="","",'English Master'!K21&amp;" ")&amp;IF('English Master'!J21="","",'English Master'!J21&amp;" ")&amp;IF('English Master'!I21="","",'English Master'!I21&amp;" ")</f>
+        <v xml:space="preserve">boat neck sleeveless square shaped drop detailed machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE21" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D21)&amp;" "&amp;'English Master'!F21&amp;" is made from fabric made in "&amp;'English Master'!L21&amp;". "&amp;IF('English Master'!AB21="",""," The model is also wearing "&amp;'English Master'!AB21&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Rucha jacquard top is made from fabric made in France.  The model is also wearing Arietis by Amandine Leforestier</v>
       </c>
       <c r="AF21" s="83" t="str">
         <f t="shared" si="2"/>
@@ -14752,8 +14887,12 @@
         <v>168</v>
       </c>
       <c r="AD22" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N22&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O22&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P22&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q22&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R22&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K22&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J22&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I22&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length mid thigh&lt;/p&gt;&lt;p&gt; Features: straight shaped pleated&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N22="","",'English Master'!N22&amp;" ")&amp;IF('English Master'!O22="","",'English Master'!O22&amp;" ")&amp;IF('English Master'!P22="","",'English Master'!P22&amp;" ")&amp;IF('English Master'!Q22="","",'English Master'!Q22&amp;" ")&amp;IF('English Master'!R22="","",'English Master'!R22&amp;" ")&amp;IF('English Master'!K22="","",'English Master'!K22&amp;" ")&amp;IF('English Master'!J22="","",'English Master'!J22&amp;" ")&amp;IF('English Master'!I22="","",'English Master'!I22&amp;" ")</f>
+        <v xml:space="preserve">mid thigh straight shaped pleated machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE22" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D22)&amp;" "&amp;'English Master'!F22&amp;" is made from fabric made in "&amp;'English Master'!L22&amp;". "&amp;IF('English Master'!AB22="",""," The model is also wearing "&amp;'English Master'!AB22&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Rythme rib skirt is made from fabric made in France.  The model is also wearing Croche by Amandine Leforestier</v>
       </c>
       <c r="AF22" s="83" t="str">
         <f t="shared" si="2"/>
@@ -14829,8 +14968,12 @@
         <v>168</v>
       </c>
       <c r="AD23" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N23&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O23&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P23&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q23&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R23&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K23&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J23&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I23&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck round collar&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length mid thigh length&lt;/p&gt;&lt;p&gt; Features: pleated straight shaped&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N23="","",'English Master'!N23&amp;" ")&amp;IF('English Master'!O23="","",'English Master'!O23&amp;" ")&amp;IF('English Master'!P23="","",'English Master'!P23&amp;" ")&amp;IF('English Master'!Q23="","",'English Master'!Q23&amp;" ")&amp;IF('English Master'!R23="","",'English Master'!R23&amp;" ")&amp;IF('English Master'!K23="","",'English Master'!K23&amp;" ")&amp;IF('English Master'!J23="","",'English Master'!J23&amp;" ")&amp;IF('English Master'!I23="","",'English Master'!I23&amp;" ")</f>
+        <v xml:space="preserve">round collar long sleeve no pockets mid thigh length pleated straight shaped machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE23" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D23)&amp;" "&amp;'English Master'!F23&amp;" is made from fabric made in "&amp;'English Master'!L23&amp;". "&amp;IF('English Master'!AB23="",""," The model is also wearing "&amp;'English Master'!AB23&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Spirale double jersey dress is made from fabric made in France. </v>
       </c>
       <c r="AF23" s="83" t="str">
         <f t="shared" ref="AF23:AF31" si="5">SUBSTITUTE(AG23&amp;" "&amp;AI23," ",";")</f>
@@ -14906,8 +15049,12 @@
         <v>168</v>
       </c>
       <c r="AD24" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N24&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O24&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P24&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q24&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R24&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K24&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J24&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I24&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck round neck&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves 3/4 sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: pleated square shaped&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 95% cotton 5%wool&lt;/p&gt;</v>
+        <f>IF('English Master'!N24="","",'English Master'!N24&amp;" ")&amp;IF('English Master'!O24="","",'English Master'!O24&amp;" ")&amp;IF('English Master'!P24="","",'English Master'!P24&amp;" ")&amp;IF('English Master'!Q24="","",'English Master'!Q24&amp;" ")&amp;IF('English Master'!R24="","",'English Master'!R24&amp;" ")&amp;IF('English Master'!K24="","",'English Master'!K24&amp;" ")&amp;IF('English Master'!J24="","",'English Master'!J24&amp;" ")&amp;IF('English Master'!I24="","",'English Master'!I24&amp;" ")</f>
+        <v xml:space="preserve">round neck 3/4 sleeve pleated square shaped machine wash 30 drip dry 95% cotton 5%wool </v>
+      </c>
+      <c r="AE24" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D24)&amp;" "&amp;'English Master'!F24&amp;" is made from fabric made in "&amp;'English Master'!L24&amp;". "&amp;IF('English Master'!AB24="",""," The model is also wearing "&amp;'English Master'!AB24&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Swing cotton fleece top is made from fabric made in Japan.  The model is also wearing Pivot by Amandine Leforestier</v>
       </c>
       <c r="AF24" s="83" t="str">
         <f t="shared" si="5"/>
@@ -14983,8 +15130,12 @@
         <v>168</v>
       </c>
       <c r="AD25" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N25&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O25&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P25&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q25&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R25&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K25&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J25&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I25&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: &lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: &lt;/p&gt;</v>
+        <f>IF('English Master'!N25="","",'English Master'!N25&amp;" ")&amp;IF('English Master'!O25="","",'English Master'!O25&amp;" ")&amp;IF('English Master'!P25="","",'English Master'!P25&amp;" ")&amp;IF('English Master'!Q25="","",'English Master'!Q25&amp;" ")&amp;IF('English Master'!R25="","",'English Master'!R25&amp;" ")&amp;IF('English Master'!K25="","",'English Master'!K25&amp;" ")&amp;IF('English Master'!J25="","",'English Master'!J25&amp;" ")&amp;IF('English Master'!I25="","",'English Master'!I25&amp;" ")</f>
+        <v/>
+      </c>
+      <c r="AE25" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D25)&amp;" "&amp;'English Master'!F25&amp;" is made from fabric made in "&amp;'English Master'!L25&amp;". "&amp;IF('English Master'!AB25="",""," The model is also wearing "&amp;'English Master'!AB25&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Drop  is made from fabric made in Italy. </v>
       </c>
       <c r="AF25" s="83" t="str">
         <f t="shared" si="5"/>
@@ -15060,8 +15211,12 @@
         <v>168</v>
       </c>
       <c r="AD26" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N26&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O26&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P26&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q26&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R26&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K26&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J26&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I26&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck round neck&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves sleeveless&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: two layered/bi material draped&lt;/p&gt;&lt;p&gt;Care: hand wash drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% viscose&lt;/p&gt;</v>
+        <f>IF('English Master'!N26="","",'English Master'!N26&amp;" ")&amp;IF('English Master'!O26="","",'English Master'!O26&amp;" ")&amp;IF('English Master'!P26="","",'English Master'!P26&amp;" ")&amp;IF('English Master'!Q26="","",'English Master'!Q26&amp;" ")&amp;IF('English Master'!R26="","",'English Master'!R26&amp;" ")&amp;IF('English Master'!K26="","",'English Master'!K26&amp;" ")&amp;IF('English Master'!J26="","",'English Master'!J26&amp;" ")&amp;IF('English Master'!I26="","",'English Master'!I26&amp;" ")</f>
+        <v xml:space="preserve">round neck sleeveless two layered/bi material draped hand wash drip dry 100% viscose </v>
+      </c>
+      <c r="AE26" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D26)&amp;" "&amp;'English Master'!F26&amp;" is made from fabric made in "&amp;'English Master'!L26&amp;". "&amp;IF('English Master'!AB26="",""," The model is also wearing "&amp;'English Master'!AB26&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Tempo jersey top is made from fabric made in Italy.  The model is also wearing Arietis by Amandine Leforestier</v>
       </c>
       <c r="AF26" s="83" t="str">
         <f t="shared" si="5"/>
@@ -15137,8 +15292,12 @@
         <v>168</v>
       </c>
       <c r="AD27" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N27&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O27&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P27&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q27&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R27&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K27&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J27&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I27&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets 2 pockets&lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: pleated relaxed&lt;/p&gt;&lt;p&gt;Care: hand wash drip dry&lt;/p&gt;&lt;p&gt;Composition: 96% cotton 4% elastane&lt;/p&gt;</v>
+        <f>IF('English Master'!N27="","",'English Master'!N27&amp;" ")&amp;IF('English Master'!O27="","",'English Master'!O27&amp;" ")&amp;IF('English Master'!P27="","",'English Master'!P27&amp;" ")&amp;IF('English Master'!Q27="","",'English Master'!Q27&amp;" ")&amp;IF('English Master'!R27="","",'English Master'!R27&amp;" ")&amp;IF('English Master'!K27="","",'English Master'!K27&amp;" ")&amp;IF('English Master'!J27="","",'English Master'!J27&amp;" ")&amp;IF('English Master'!I27="","",'English Master'!I27&amp;" ")</f>
+        <v xml:space="preserve">2 pockets pleated relaxed hand wash drip dry 96% cotton 4% elastane </v>
+      </c>
+      <c r="AE27" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D27)&amp;" "&amp;'English Master'!F27&amp;" is made from fabric made in "&amp;'English Master'!L27&amp;". "&amp;IF('English Master'!AB27="",""," The model is also wearing "&amp;'English Master'!AB27&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Gane cotton fleece pants is made from fabric made in France.  The model is also wearing Partition by Amandine Leforestier</v>
       </c>
       <c r="AF27" s="83" t="str">
         <f t="shared" si="5"/>
@@ -15214,8 +15373,12 @@
         <v>168</v>
       </c>
       <c r="AD28" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N28&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O28&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P28&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q28&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R28&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K28&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J28&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I28&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck boat collar&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length knee length&lt;/p&gt;&lt;p&gt; Features: oversized pleated&lt;/p&gt;&lt;p&gt;Care: hand wash drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% micromodal&lt;/p&gt;</v>
+        <f>IF('English Master'!N28="","",'English Master'!N28&amp;" ")&amp;IF('English Master'!O28="","",'English Master'!O28&amp;" ")&amp;IF('English Master'!P28="","",'English Master'!P28&amp;" ")&amp;IF('English Master'!Q28="","",'English Master'!Q28&amp;" ")&amp;IF('English Master'!R28="","",'English Master'!R28&amp;" ")&amp;IF('English Master'!K28="","",'English Master'!K28&amp;" ")&amp;IF('English Master'!J28="","",'English Master'!J28&amp;" ")&amp;IF('English Master'!I28="","",'English Master'!I28&amp;" ")</f>
+        <v xml:space="preserve">boat collar long sleeve no pockets knee length oversized pleated hand wash drip dry 100% micromodal </v>
+      </c>
+      <c r="AE28" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D28)&amp;" "&amp;'English Master'!F28&amp;" is made from fabric made in "&amp;'English Master'!L28&amp;". "&amp;IF('English Master'!AB28="",""," The model is also wearing "&amp;'English Master'!AB28&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Jani jersey dress is made from fabric made in Italy. </v>
       </c>
       <c r="AF28" s="83" t="str">
         <f t="shared" si="5"/>
@@ -15291,8 +15454,12 @@
         <v>168</v>
       </c>
       <c r="AD29" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N29&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O29&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P29&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q29&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R29&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K29&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J29&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I29&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck cowl collar&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length mid thigh length&lt;/p&gt;&lt;p&gt; Features: pleated&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N29="","",'English Master'!N29&amp;" ")&amp;IF('English Master'!O29="","",'English Master'!O29&amp;" ")&amp;IF('English Master'!P29="","",'English Master'!P29&amp;" ")&amp;IF('English Master'!Q29="","",'English Master'!Q29&amp;" ")&amp;IF('English Master'!R29="","",'English Master'!R29&amp;" ")&amp;IF('English Master'!K29="","",'English Master'!K29&amp;" ")&amp;IF('English Master'!J29="","",'English Master'!J29&amp;" ")&amp;IF('English Master'!I29="","",'English Master'!I29&amp;" ")</f>
+        <v xml:space="preserve">cowl collar long sleeve no pockets mid thigh length pleated machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE29" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D29)&amp;" "&amp;'English Master'!F29&amp;" is made from fabric made in "&amp;'English Master'!L29&amp;". "&amp;IF('English Master'!AB29="",""," The model is also wearing "&amp;'English Master'!AB29&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Lie cotton fleece dress is made from fabric made in Italy. </v>
       </c>
       <c r="AF29" s="83" t="str">
         <f t="shared" si="5"/>
@@ -15368,8 +15535,12 @@
         <v>168</v>
       </c>
       <c r="AD30" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N30&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O30&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P30&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q30&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R30&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K30&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J30&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I30&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: &lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: &lt;/p&gt;</v>
+        <f>IF('English Master'!N30="","",'English Master'!N30&amp;" ")&amp;IF('English Master'!O30="","",'English Master'!O30&amp;" ")&amp;IF('English Master'!P30="","",'English Master'!P30&amp;" ")&amp;IF('English Master'!Q30="","",'English Master'!Q30&amp;" ")&amp;IF('English Master'!R30="","",'English Master'!R30&amp;" ")&amp;IF('English Master'!K30="","",'English Master'!K30&amp;" ")&amp;IF('English Master'!J30="","",'English Master'!J30&amp;" ")&amp;IF('English Master'!I30="","",'English Master'!I30&amp;" ")</f>
+        <v/>
+      </c>
+      <c r="AE30" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D30)&amp;" "&amp;'English Master'!F30&amp;" is made from fabric made in "&amp;'English Master'!L30&amp;". "&amp;IF('English Master'!AB30="",""," The model is also wearing "&amp;'English Master'!AB30&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Melodie  is made from fabric made in France. </v>
       </c>
       <c r="AF30" s="83" t="str">
         <f t="shared" si="5"/>
@@ -15445,8 +15616,12 @@
         <v>168</v>
       </c>
       <c r="AD31" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N31&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O31&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P31&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q31&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R31&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K31&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J31&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I31&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length mid thigh&lt;/p&gt;&lt;p&gt; Features: pleated&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N31="","",'English Master'!N31&amp;" ")&amp;IF('English Master'!O31="","",'English Master'!O31&amp;" ")&amp;IF('English Master'!P31="","",'English Master'!P31&amp;" ")&amp;IF('English Master'!Q31="","",'English Master'!Q31&amp;" ")&amp;IF('English Master'!R31="","",'English Master'!R31&amp;" ")&amp;IF('English Master'!K31="","",'English Master'!K31&amp;" ")&amp;IF('English Master'!J31="","",'English Master'!J31&amp;" ")&amp;IF('English Master'!I31="","",'English Master'!I31&amp;" ")</f>
+        <v xml:space="preserve">mid thigh pleated machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE31" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D31)&amp;" "&amp;'English Master'!F31&amp;" is made from fabric made in "&amp;'English Master'!L31&amp;". "&amp;IF('English Master'!AB31="",""," The model is also wearing "&amp;'English Master'!AB31&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Rythme cotton fleece skirt is made from fabric made in Italy.  The model is also wearing Partition by Amandine Leforestier</v>
       </c>
       <c r="AF31" s="83" t="str">
         <f t="shared" si="5"/>
@@ -15522,8 +15697,12 @@
         <v>168</v>
       </c>
       <c r="AD32" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N32&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O32&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P32&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q32&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R32&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K32&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J32&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I32&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist high waist elastic waist&lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length knee length&lt;/p&gt;&lt;p&gt; Features: angled pleats&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 42% wool 38% cotton 20% nylon &lt;/p&gt;</v>
+        <f>IF('English Master'!N32="","",'English Master'!N32&amp;" ")&amp;IF('English Master'!O32="","",'English Master'!O32&amp;" ")&amp;IF('English Master'!P32="","",'English Master'!P32&amp;" ")&amp;IF('English Master'!Q32="","",'English Master'!Q32&amp;" ")&amp;IF('English Master'!R32="","",'English Master'!R32&amp;" ")&amp;IF('English Master'!K32="","",'English Master'!K32&amp;" ")&amp;IF('English Master'!J32="","",'English Master'!J32&amp;" ")&amp;IF('English Master'!I32="","",'English Master'!I32&amp;" ")</f>
+        <v xml:space="preserve">high waist elastic waist no pockets knee length angled pleats 42% wool 38% cotton 20% nylon  </v>
+      </c>
+      <c r="AE32" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D32)&amp;" "&amp;'English Master'!F32&amp;" is made from fabric made in "&amp;'English Master'!L32&amp;". "&amp;IF('English Master'!AB32="",""," The model is also wearing "&amp;'English Master'!AB32&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Acella interlock skirt is made from fabric made in Japan. </v>
       </c>
       <c r="AF32" s="83" t="str">
         <f t="shared" ref="AF32:AF71" si="9">SUBSTITUTE(AG32&amp;" "&amp;AI32," ",";")</f>
@@ -15575,7 +15754,7 @@
       </c>
       <c r="C33" t="str">
         <f>'English Master'!D33&amp;" "&amp;'English Master'!C33&amp;" "&amp;'English Master'!H33&amp;" "&amp;'English Master'!K33&amp;" "&amp;'English Master'!F33</f>
-        <v>ADANA Autumn Winter mottled grey modzik, oversized 2 button, round kimono, black liner knit coat</v>
+        <v>ADANA Autumn Winter mottled grey modzik oversized 2 button round kimono black liner knit coat</v>
       </c>
       <c r="D33" t="str">
         <f t="shared" si="7"/>
@@ -15599,24 +15778,28 @@
         <v>168</v>
       </c>
       <c r="AD33" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N33&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O33&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P33&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q33&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R33&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K33&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J33&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I33&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets 2 pockets&lt;/p&gt;&lt;p&gt; Length below knee length&lt;/p&gt;&lt;p&gt; Features: modzik, oversized 2 button, round kimono, black liner&lt;/p&gt;&lt;p&gt;Care: Hand wash drip dry&lt;/p&gt;&lt;p&gt;Composition: 29% cotton 20% linen 51% wool&lt;/p&gt;</v>
+        <f>IF('English Master'!N33="","",'English Master'!N33&amp;" ")&amp;IF('English Master'!O33="","",'English Master'!O33&amp;" ")&amp;IF('English Master'!P33="","",'English Master'!P33&amp;" ")&amp;IF('English Master'!Q33="","",'English Master'!Q33&amp;" ")&amp;IF('English Master'!R33="","",'English Master'!R33&amp;" ")&amp;IF('English Master'!K33="","",'English Master'!K33&amp;" ")&amp;IF('English Master'!J33="","",'English Master'!J33&amp;" ")&amp;IF('English Master'!I33="","",'English Master'!I33&amp;" ")</f>
+        <v xml:space="preserve">long sleeve 2 pockets below knee length modzik oversized 2 button round kimono black liner Hand wash drip dry 29% cotton 20% linen 51% wool </v>
+      </c>
+      <c r="AE33" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D33)&amp;" "&amp;'English Master'!F33&amp;" is made from fabric made in "&amp;'English Master'!L33&amp;". "&amp;IF('English Master'!AB33="",""," The model is also wearing "&amp;'English Master'!AB33&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Adana knit coat is made from fabric made in Japan. </v>
       </c>
       <c r="AF33" s="83" t="str">
         <f t="shared" si="9"/>
-        <v>ADANA;Autumn;Winter;mottled;grey;modzik,;oversized;2;button,;round;kimono,;black;liner;knit;coat;;;long;sleeve;2;pockets;below;knee;length;modzik,;oversized;2;button,;round;kimono,;black;liner;Hand;wash;drip;dry</v>
+        <v>ADANA;Autumn;Winter;mottled;grey;modzik;oversized;2;button;round;kimono;black;liner;knit;coat;;;long;sleeve;2;pockets;below;knee;length;modzik;oversized;2;button;round;kimono;black;liner;Hand;wash;drip;dry</v>
       </c>
       <c r="AG33" t="str">
         <f t="shared" si="10"/>
-        <v>ADANA Autumn Winter mottled grey modzik, oversized 2 button, round kimono, black liner knit coat</v>
+        <v>ADANA Autumn Winter mottled grey modzik oversized 2 button round kimono black liner knit coat</v>
       </c>
       <c r="AH33" t="str">
         <f>AG33&amp;"  "&amp;'English Master'!I105</f>
-        <v xml:space="preserve">ADANA Autumn Winter mottled grey modzik, oversized 2 button, round kimono, black liner knit coat  </v>
+        <v xml:space="preserve">ADANA Autumn Winter mottled grey modzik oversized 2 button round kimono black liner knit coat  </v>
       </c>
       <c r="AI33" t="str">
         <f>'English Master'!N33&amp;" "&amp;'English Master'!O33&amp;" "&amp;'English Master'!P33&amp;" "&amp;'English Master'!Q33&amp;" "&amp;'English Master'!R33&amp;" "&amp;'English Master'!K33&amp;" "&amp;'English Master'!J33</f>
-        <v xml:space="preserve">  long sleeve 2 pockets below knee length modzik, oversized 2 button, round kimono, black liner Hand wash drip dry</v>
+        <v xml:space="preserve">  long sleeve 2 pockets below knee length modzik oversized 2 button round kimono black liner Hand wash drip dry</v>
       </c>
       <c r="AK33" t="s">
         <v>166</v>
@@ -15676,8 +15859,12 @@
         <v>168</v>
       </c>
       <c r="AD34" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N34&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O34&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P34&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q34&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R34&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K34&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J34&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I34&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck v neck&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length hip length&lt;/p&gt;&lt;p&gt; Features: draped, loose, comfortable&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 48% viscose 23% wool 23%PC  6% elastane&lt;/p&gt;</v>
+        <f>IF('English Master'!N34="","",'English Master'!N34&amp;" ")&amp;IF('English Master'!O34="","",'English Master'!O34&amp;" ")&amp;IF('English Master'!P34="","",'English Master'!P34&amp;" ")&amp;IF('English Master'!Q34="","",'English Master'!Q34&amp;" ")&amp;IF('English Master'!R34="","",'English Master'!R34&amp;" ")&amp;IF('English Master'!K34="","",'English Master'!K34&amp;" ")&amp;IF('English Master'!J34="","",'English Master'!J34&amp;" ")&amp;IF('English Master'!I34="","",'English Master'!I34&amp;" ")</f>
+        <v xml:space="preserve">v neck long sleeve hip length draped, loose, comfortable 48% viscose 23% wool 23%PC  6% elastane </v>
+      </c>
+      <c r="AE34" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D34)&amp;" "&amp;'English Master'!F34&amp;" is made from fabric made in "&amp;'English Master'!L34&amp;". "&amp;IF('English Master'!AB34="",""," The model is also wearing "&amp;'English Master'!AB34&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Allegro interlock pullover is made from fabric made in Italy.  The model is also wearing Etty by Amandine Leforestier</v>
       </c>
       <c r="AF34" s="83" t="str">
         <f t="shared" si="9"/>
@@ -15753,8 +15940,12 @@
         <v>168</v>
       </c>
       <c r="AD35" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N35&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O35&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P35&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q35&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R35&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K35&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J35&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I35&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length hip length&lt;/p&gt;&lt;p&gt; Features: open loose, unbuttoned&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 90% cotton 10% wool&lt;/p&gt;</v>
+        <f>IF('English Master'!N35="","",'English Master'!N35&amp;" ")&amp;IF('English Master'!O35="","",'English Master'!O35&amp;" ")&amp;IF('English Master'!P35="","",'English Master'!P35&amp;" ")&amp;IF('English Master'!Q35="","",'English Master'!Q35&amp;" ")&amp;IF('English Master'!R35="","",'English Master'!R35&amp;" ")&amp;IF('English Master'!K35="","",'English Master'!K35&amp;" ")&amp;IF('English Master'!J35="","",'English Master'!J35&amp;" ")&amp;IF('English Master'!I35="","",'English Master'!I35&amp;" ")</f>
+        <v xml:space="preserve">long sleeve no pockets hip length open loose, unbuttoned 90% cotton 10% wool </v>
+      </c>
+      <c r="AE35" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D35)&amp;" "&amp;'English Master'!F35&amp;" is made from fabric made in "&amp;'English Master'!L35&amp;". "&amp;IF('English Master'!AB35="",""," The model is also wearing "&amp;'English Master'!AB35&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Allonge rib jacket is made from fabric made in Japan.  The model is also wearing Swing by Amandine Leforestier</v>
       </c>
       <c r="AF35" s="83" t="str">
         <f t="shared" si="9"/>
@@ -15830,8 +16021,12 @@
         <v>168</v>
       </c>
       <c r="AD36" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N36&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O36&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P36&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q36&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R36&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K36&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J36&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I36&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck turtle neck loose collar&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length knee length&lt;/p&gt;&lt;p&gt; Features: bamboo pleats, cutout on the hips, straight line&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 65% wool 35% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N36="","",'English Master'!N36&amp;" ")&amp;IF('English Master'!O36="","",'English Master'!O36&amp;" ")&amp;IF('English Master'!P36="","",'English Master'!P36&amp;" ")&amp;IF('English Master'!Q36="","",'English Master'!Q36&amp;" ")&amp;IF('English Master'!R36="","",'English Master'!R36&amp;" ")&amp;IF('English Master'!K36="","",'English Master'!K36&amp;" ")&amp;IF('English Master'!J36="","",'English Master'!J36&amp;" ")&amp;IF('English Master'!I36="","",'English Master'!I36&amp;" ")</f>
+        <v xml:space="preserve">turtle neck loose collar long sleeve no pockets knee length bamboo pleats, cutout on the hips, straight line 65% wool 35% cotton </v>
+      </c>
+      <c r="AE36" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D36)&amp;" "&amp;'English Master'!F36&amp;" is made from fabric made in "&amp;'English Master'!L36&amp;". "&amp;IF('English Master'!AB36="",""," The model is also wearing "&amp;'English Master'!AB36&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist And jersey dress is made from fabric made in Japan. </v>
       </c>
       <c r="AF36" s="83" t="str">
         <f t="shared" si="9"/>
@@ -15907,8 +16102,12 @@
         <v>168</v>
       </c>
       <c r="AD37" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N37&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O37&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P37&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q37&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R37&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K37&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J37&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I37&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist elastic waist pleated belt pleated waist&lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length ankle length&lt;/p&gt;&lt;p&gt; Features: fluid&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% micromodal&lt;/p&gt;</v>
+        <f>IF('English Master'!N37="","",'English Master'!N37&amp;" ")&amp;IF('English Master'!O37="","",'English Master'!O37&amp;" ")&amp;IF('English Master'!P37="","",'English Master'!P37&amp;" ")&amp;IF('English Master'!Q37="","",'English Master'!Q37&amp;" ")&amp;IF('English Master'!R37="","",'English Master'!R37&amp;" ")&amp;IF('English Master'!K37="","",'English Master'!K37&amp;" ")&amp;IF('English Master'!J37="","",'English Master'!J37&amp;" ")&amp;IF('English Master'!I37="","",'English Master'!I37&amp;" ")</f>
+        <v xml:space="preserve">elastic waist pleated belt pleated waist ankle length fluid machine wash 30 drip dry 100% micromodal </v>
+      </c>
+      <c r="AE37" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D37)&amp;" "&amp;'English Master'!F37&amp;" is made from fabric made in "&amp;'English Master'!L37&amp;". "&amp;IF('English Master'!AB37="",""," The model is also wearing "&amp;'English Master'!AB37&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Aquillla jersey skirt is made from fabric made in Italy. </v>
       </c>
       <c r="AF37" s="83" t="str">
         <f t="shared" si="9"/>
@@ -15984,8 +16183,12 @@
         <v>168</v>
       </c>
       <c r="AD38" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N38&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O38&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P38&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q38&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R38&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K38&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J38&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I38&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck tapered collar&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves short sleeve&lt;/p&gt;&lt;p&gt; Pockets 2 pocket&lt;/p&gt;&lt;p&gt; Length mid thigh length&lt;/p&gt;&lt;p&gt; Features: oversized&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 29% cotton 20% linen 51% wool&lt;/p&gt;</v>
+        <f>IF('English Master'!N38="","",'English Master'!N38&amp;" ")&amp;IF('English Master'!O38="","",'English Master'!O38&amp;" ")&amp;IF('English Master'!P38="","",'English Master'!P38&amp;" ")&amp;IF('English Master'!Q38="","",'English Master'!Q38&amp;" ")&amp;IF('English Master'!R38="","",'English Master'!R38&amp;" ")&amp;IF('English Master'!K38="","",'English Master'!K38&amp;" ")&amp;IF('English Master'!J38="","",'English Master'!J38&amp;" ")&amp;IF('English Master'!I38="","",'English Master'!I38&amp;" ")</f>
+        <v xml:space="preserve">tapered collar short sleeve 2 pocket mid thigh length oversized machine wash 30 drip dry 29% cotton 20% linen 51% wool </v>
+      </c>
+      <c r="AE38" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D38)&amp;" "&amp;'English Master'!F38&amp;" is made from fabric made in "&amp;'English Master'!L38&amp;". "&amp;IF('English Master'!AB38="",""," The model is also wearing "&amp;'English Master'!AB38&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Ara boucle dress is made from fabric made in France. </v>
       </c>
       <c r="AF38" s="83" t="str">
         <f t="shared" si="9"/>
@@ -16061,8 +16264,12 @@
         <v>168</v>
       </c>
       <c r="AD39" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N39&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O39&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P39&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q39&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R39&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K39&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J39&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I39&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck round collar&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets 2 pockets&lt;/p&gt;&lt;p&gt; Length mid thigh length&lt;/p&gt;&lt;p&gt; Features: oversized&lt;/p&gt;&lt;p&gt;Care: Hand wash drip dry&lt;/p&gt;&lt;p&gt;Composition: 74% cotton 26% nylon&lt;/p&gt;</v>
+        <f>IF('English Master'!N39="","",'English Master'!N39&amp;" ")&amp;IF('English Master'!O39="","",'English Master'!O39&amp;" ")&amp;IF('English Master'!P39="","",'English Master'!P39&amp;" ")&amp;IF('English Master'!Q39="","",'English Master'!Q39&amp;" ")&amp;IF('English Master'!R39="","",'English Master'!R39&amp;" ")&amp;IF('English Master'!K39="","",'English Master'!K39&amp;" ")&amp;IF('English Master'!J39="","",'English Master'!J39&amp;" ")&amp;IF('English Master'!I39="","",'English Master'!I39&amp;" ")</f>
+        <v xml:space="preserve">round collar long sleeve 2 pockets mid thigh length oversized Hand wash drip dry 74% cotton 26% nylon </v>
+      </c>
+      <c r="AE39" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D39)&amp;" "&amp;'English Master'!F39&amp;" is made from fabric made in "&amp;'English Master'!L39&amp;". "&amp;IF('English Master'!AB39="",""," The model is also wearing "&amp;'English Master'!AB39&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Aries cotton fleece dress is made from fabric made in Japan. </v>
       </c>
       <c r="AF39" s="83" t="str">
         <f t="shared" si="9"/>
@@ -16114,7 +16321,7 @@
       </c>
       <c r="C40" t="str">
         <f>'English Master'!D40&amp;" "&amp;'English Master'!C40&amp;" "&amp;'English Master'!H40&amp;" "&amp;'English Master'!K40&amp;" "&amp;'English Master'!F40</f>
-        <v>ATTITUDE Autumn Winter grey bi 2 material front back, pleats on the shoulder, fantasy knit pullover</v>
+        <v>ATTITUDE Autumn Winter grey bi 2 material front back, pleats on the shoulder, fantasy knit, cuff on bottom  pullover</v>
       </c>
       <c r="D40" t="str">
         <f t="shared" si="7"/>
@@ -16138,24 +16345,28 @@
         <v>168</v>
       </c>
       <c r="AD40" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N40&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O40&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P40&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q40&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R40&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K40&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J40&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I40&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck boat collar&lt;/p&gt;&lt;p&gt; Waist cuff on bottom&lt;/p&gt;&lt;p&gt; Sleeves sleeve with cuff long sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length hip length&lt;/p&gt;&lt;p&gt; Features: bi 2 material front back, pleats on the shoulder, fantasy knit&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 97% cotton 3% elastane&lt;/p&gt;</v>
+        <f>IF('English Master'!N40="","",'English Master'!N40&amp;" ")&amp;IF('English Master'!O40="","",'English Master'!O40&amp;" ")&amp;IF('English Master'!P40="","",'English Master'!P40&amp;" ")&amp;IF('English Master'!Q40="","",'English Master'!Q40&amp;" ")&amp;IF('English Master'!R40="","",'English Master'!R40&amp;" ")&amp;IF('English Master'!K40="","",'English Master'!K40&amp;" ")&amp;IF('English Master'!J40="","",'English Master'!J40&amp;" ")&amp;IF('English Master'!I40="","",'English Master'!I40&amp;" ")</f>
+        <v xml:space="preserve">boat collar sleeve with cuff long sleeve hip length bi 2 material front back, pleats on the shoulder, fantasy knit, cuff on bottom  97% cotton 3% elastane </v>
+      </c>
+      <c r="AE40" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D40)&amp;" "&amp;'English Master'!F40&amp;" is made from fabric made in "&amp;'English Master'!L40&amp;". "&amp;IF('English Master'!AB40="",""," The model is also wearing "&amp;'English Master'!AB40&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Attitude pullover is made from fabric made in France/Italy. </v>
       </c>
       <c r="AF40" s="83" t="str">
         <f t="shared" si="9"/>
-        <v>ATTITUDE;Autumn;Winter;grey;bi;2;material;front;back,;pleats;on;the;shoulder,;fantasy;knit;pullover;boat;collar;cuff;on;bottom;sleeve;with;cuff;long;sleeve;;hip;length;bi;2;material;front;back,;pleats;on;the;shoulder,;fantasy;knit;</v>
+        <v>ATTITUDE;Autumn;Winter;grey;bi;2;material;front;back,;pleats;on;the;shoulder,;fantasy;knit,;cuff;on;bottom;;pullover;boat;collar;;sleeve;with;cuff;long;sleeve;;hip;length;bi;2;material;front;back,;pleats;on;the;shoulder,;fantasy;knit,;cuff;on;bottom;;</v>
       </c>
       <c r="AG40" t="str">
         <f t="shared" si="10"/>
-        <v>ATTITUDE Autumn Winter grey bi 2 material front back, pleats on the shoulder, fantasy knit pullover</v>
+        <v>ATTITUDE Autumn Winter grey bi 2 material front back, pleats on the shoulder, fantasy knit, cuff on bottom  pullover</v>
       </c>
       <c r="AH40" t="str">
         <f>AG40&amp;"  "&amp;'English Master'!I112</f>
-        <v xml:space="preserve">ATTITUDE Autumn Winter grey bi 2 material front back, pleats on the shoulder, fantasy knit pullover  </v>
+        <v xml:space="preserve">ATTITUDE Autumn Winter grey bi 2 material front back, pleats on the shoulder, fantasy knit, cuff on bottom  pullover  </v>
       </c>
       <c r="AI40" t="str">
         <f>'English Master'!N40&amp;" "&amp;'English Master'!O40&amp;" "&amp;'English Master'!P40&amp;" "&amp;'English Master'!Q40&amp;" "&amp;'English Master'!R40&amp;" "&amp;'English Master'!K40&amp;" "&amp;'English Master'!J40</f>
-        <v xml:space="preserve">boat collar cuff on bottom sleeve with cuff long sleeve  hip length bi 2 material front back, pleats on the shoulder, fantasy knit </v>
+        <v xml:space="preserve">boat collar  sleeve with cuff long sleeve  hip length bi 2 material front back, pleats on the shoulder, fantasy knit, cuff on bottom  </v>
       </c>
       <c r="AK40" t="s">
         <v>166</v>
@@ -16172,7 +16383,7 @@
       </c>
       <c r="AS40" t="str">
         <f>'English Master'!$I$1&amp;":"&amp;'English Master'!I40&amp;":0;"&amp;'English Master'!$J$1&amp;":"&amp;'English Master'!J40&amp;":1;"&amp;'English Master'!$N$1&amp;":"&amp;'English Master'!N40&amp;":2;"&amp;'English Master'!$O$1&amp;":"&amp;'English Master'!O40&amp;":3;"&amp;'English Master'!$P$1&amp;":"&amp;'English Master'!P40&amp;":4;"&amp;'English Master'!$Q$1&amp;":"&amp;'English Master'!Q40&amp;":5;"&amp;'English Master'!$R$1&amp;":"&amp;'English Master'!R40&amp;":6;"&amp;'English Master'!$L$1&amp;":"&amp;'English Master'!L40&amp;":7"</f>
-        <v>Composition:97% cotton 3% elastane:0;Care::1;Neck:boat collar:2;Waist:cuff on bottom:3;Sleeves:sleeve with cuff long sleeve:4;Pockets::5;Length:hip length:6;Fabric origin:France/Italy:7</v>
+        <v>Composition:97% cotton 3% elastane:0;Care::1;Neck:boat collar:2;Waist::3;Sleeves:sleeve with cuff long sleeve:4;Pockets::5;Length:hip length:6;Fabric origin:France/Italy:7</v>
       </c>
       <c r="AT40">
         <v>1</v>
@@ -16215,8 +16426,12 @@
         <v>168</v>
       </c>
       <c r="AD41" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N41&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O41&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P41&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q41&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R41&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K41&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J41&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I41&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist elastic waste band&lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length above the knee&lt;/p&gt;&lt;p&gt; Features: balloon draped skirt,&lt;/p&gt;&lt;p&gt;Care: Hand wash drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% micromodal&lt;/p&gt;</v>
+        <f>IF('English Master'!N41="","",'English Master'!N41&amp;" ")&amp;IF('English Master'!O41="","",'English Master'!O41&amp;" ")&amp;IF('English Master'!P41="","",'English Master'!P41&amp;" ")&amp;IF('English Master'!Q41="","",'English Master'!Q41&amp;" ")&amp;IF('English Master'!R41="","",'English Master'!R41&amp;" ")&amp;IF('English Master'!K41="","",'English Master'!K41&amp;" ")&amp;IF('English Master'!J41="","",'English Master'!J41&amp;" ")&amp;IF('English Master'!I41="","",'English Master'!I41&amp;" ")</f>
+        <v xml:space="preserve">elastic waste band above the knee balloon draped skirt, Hand wash drip dry 100% micromodal </v>
+      </c>
+      <c r="AE41" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D41)&amp;" "&amp;'English Master'!F41&amp;" is made from fabric made in "&amp;'English Master'!L41&amp;". "&amp;IF('English Master'!AB41="",""," The model is also wearing "&amp;'English Master'!AB41&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Auriga jersey skirt is made from fabric made in Italy. </v>
       </c>
       <c r="AF41" s="83" t="str">
         <f t="shared" si="9"/>
@@ -16292,8 +16507,12 @@
         <v>168</v>
       </c>
       <c r="AD42" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N42&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O42&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P42&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q42&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R42&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K42&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J42&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I42&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck round collar&lt;/p&gt;&lt;p&gt; Waist detailed pleats on the waist&lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length knee length&lt;/p&gt;&lt;p&gt; Features: second skin&lt;/p&gt;&lt;p&gt;Care: Hand wash drip dry&lt;/p&gt;&lt;p&gt;Composition: 80% wool 20% polyamide&lt;/p&gt;</v>
+        <f>IF('English Master'!N42="","",'English Master'!N42&amp;" ")&amp;IF('English Master'!O42="","",'English Master'!O42&amp;" ")&amp;IF('English Master'!P42="","",'English Master'!P42&amp;" ")&amp;IF('English Master'!Q42="","",'English Master'!Q42&amp;" ")&amp;IF('English Master'!R42="","",'English Master'!R42&amp;" ")&amp;IF('English Master'!K42="","",'English Master'!K42&amp;" ")&amp;IF('English Master'!J42="","",'English Master'!J42&amp;" ")&amp;IF('English Master'!I42="","",'English Master'!I42&amp;" ")</f>
+        <v xml:space="preserve">round collar detailed pleats on the waist long sleeve no pockets knee length second skin Hand wash drip dry 80% wool 20% polyamide </v>
+      </c>
+      <c r="AE42" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D42)&amp;" "&amp;'English Master'!F42&amp;" is made from fabric made in "&amp;'English Master'!L42&amp;". "&amp;IF('English Master'!AB42="",""," The model is also wearing "&amp;'English Master'!AB42&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Butterfly nude jersey dress is made from fabric made in Italy. </v>
       </c>
       <c r="AF42" s="83" t="str">
         <f t="shared" si="9"/>
@@ -16369,12 +16588,16 @@
         <v>168</v>
       </c>
       <c r="AD43" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N43&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O43&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P43&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q43&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R43&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K43&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J43&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I43&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck turtle neck collar&lt;/p&gt;&lt;p&gt; Waist pleated semi/half belt&lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets 2 pockets&lt;/p&gt;&lt;p&gt; Length knee length&lt;/p&gt;&lt;p&gt; Features: &lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 42% wool 38% cotton 20% nylon &lt;/p&gt;</v>
+        <f>IF('English Master'!N43="","",'English Master'!N43&amp;" ")&amp;IF('English Master'!O43="","",'English Master'!O43&amp;" ")&amp;IF('English Master'!P43="","",'English Master'!P43&amp;" ")&amp;IF('English Master'!Q43="","",'English Master'!Q43&amp;" ")&amp;IF('English Master'!R43="","",'English Master'!R43&amp;" ")&amp;IF('English Master'!K43="","",'English Master'!K43&amp;" ")&amp;IF('English Master'!J43="","",'English Master'!J43&amp;" ")&amp;IF('English Master'!I43="","",'English Master'!I43&amp;" ")</f>
+        <v xml:space="preserve">turtle neck pleated semi/half belt long sleeve 2 pockets knee length 42% wool 38% cotton 20% nylon  </v>
+      </c>
+      <c r="AE43" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D43)&amp;" "&amp;'English Master'!F43&amp;" is made from fabric made in "&amp;'English Master'!L43&amp;". "&amp;IF('English Master'!AB43="",""," The model is also wearing "&amp;'English Master'!AB43&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Capella interlock dress is made from fabric made in Japan. </v>
       </c>
       <c r="AF43" s="83" t="str">
         <f t="shared" si="9"/>
-        <v>CAPELLA;Autumn;Winter;;;interlock;dress;turtle;neck;collar;pleated;semi/half;belt;long;sleeve;2;pockets;knee;length;;</v>
+        <v>CAPELLA;Autumn;Winter;;;interlock;dress;turtle;neck;pleated;semi/half;belt;long;sleeve;2;pockets;knee;length;;</v>
       </c>
       <c r="AG43" t="str">
         <f t="shared" si="10"/>
@@ -16386,7 +16609,7 @@
       </c>
       <c r="AI43" t="str">
         <f>'English Master'!N43&amp;" "&amp;'English Master'!O43&amp;" "&amp;'English Master'!P43&amp;" "&amp;'English Master'!Q43&amp;" "&amp;'English Master'!R43&amp;" "&amp;'English Master'!K43&amp;" "&amp;'English Master'!J43</f>
-        <v xml:space="preserve">turtle neck collar pleated semi/half belt long sleeve 2 pockets knee length  </v>
+        <v xml:space="preserve">turtle neck pleated semi/half belt long sleeve 2 pockets knee length  </v>
       </c>
       <c r="AK43" t="s">
         <v>166</v>
@@ -16403,7 +16626,7 @@
       </c>
       <c r="AS43" t="str">
         <f>'English Master'!$I$1&amp;":"&amp;'English Master'!I43&amp;":0;"&amp;'English Master'!$J$1&amp;":"&amp;'English Master'!J43&amp;":1;"&amp;'English Master'!$N$1&amp;":"&amp;'English Master'!N43&amp;":2;"&amp;'English Master'!$O$1&amp;":"&amp;'English Master'!O43&amp;":3;"&amp;'English Master'!$P$1&amp;":"&amp;'English Master'!P43&amp;":4;"&amp;'English Master'!$Q$1&amp;":"&amp;'English Master'!Q43&amp;":5;"&amp;'English Master'!$R$1&amp;":"&amp;'English Master'!R43&amp;":6;"&amp;'English Master'!$L$1&amp;":"&amp;'English Master'!L43&amp;":7"</f>
-        <v>Composition:42% wool 38% cotton 20% nylon :0;Care::1;Neck:turtle neck collar:2;Waist:pleated semi/half belt:3;Sleeves:long sleeve:4;Pockets:2 pockets:5;Length:knee length:6;Fabric origin:Japan:7</v>
+        <v>Composition:42% wool 38% cotton 20% nylon :0;Care::1;Neck:turtle neck:2;Waist:pleated semi/half belt:3;Sleeves:long sleeve:4;Pockets:2 pockets:5;Length:knee length:6;Fabric origin:Japan:7</v>
       </c>
       <c r="AT43">
         <v>1</v>
@@ -16446,12 +16669,16 @@
         <v>168</v>
       </c>
       <c r="AD44" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N44&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O44&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P44&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q44&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R44&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K44&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J44&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I44&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck turtle high neck collar&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long American sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: round cutout detail, oversized large&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 95% cotton 5% elastane&lt;/p&gt;</v>
+        <f>IF('English Master'!N44="","",'English Master'!N44&amp;" ")&amp;IF('English Master'!O44="","",'English Master'!O44&amp;" ")&amp;IF('English Master'!P44="","",'English Master'!P44&amp;" ")&amp;IF('English Master'!Q44="","",'English Master'!Q44&amp;" ")&amp;IF('English Master'!R44="","",'English Master'!R44&amp;" ")&amp;IF('English Master'!K44="","",'English Master'!K44&amp;" ")&amp;IF('English Master'!J44="","",'English Master'!J44&amp;" ")&amp;IF('English Master'!I44="","",'English Master'!I44&amp;" ")</f>
+        <v xml:space="preserve">turtle neck long American sleeve round cutout detail, oversized large 95% cotton 5% elastane </v>
+      </c>
+      <c r="AE44" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D44)&amp;" "&amp;'English Master'!F44&amp;" is made from fabric made in "&amp;'English Master'!L44&amp;". "&amp;IF('English Master'!AB44="",""," The model is also wearing "&amp;'English Master'!AB44&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Corous cotton fleece sweater is made from fabric made in Italy.  The model is also wearing Sterope by Amandine Leforestier</v>
       </c>
       <c r="AF44" s="83" t="str">
         <f t="shared" si="9"/>
-        <v>COROUS;Autumn;Winter;grey;round;cutout;detail,;oversized;large;cotton;fleece;sweater;turtle;high;neck;collar;;long;American;sleeve;;;round;cutout;detail,;oversized;large;</v>
+        <v>COROUS;Autumn;Winter;grey;round;cutout;detail,;oversized;large;cotton;fleece;sweater;turtle;neck;;long;American;sleeve;;;round;cutout;detail,;oversized;large;</v>
       </c>
       <c r="AG44" t="str">
         <f t="shared" si="10"/>
@@ -16463,7 +16690,7 @@
       </c>
       <c r="AI44" t="str">
         <f>'English Master'!N44&amp;" "&amp;'English Master'!O44&amp;" "&amp;'English Master'!P44&amp;" "&amp;'English Master'!Q44&amp;" "&amp;'English Master'!R44&amp;" "&amp;'English Master'!K44&amp;" "&amp;'English Master'!J44</f>
-        <v xml:space="preserve">turtle high neck collar  long American sleeve   round cutout detail, oversized large </v>
+        <v xml:space="preserve">turtle neck  long American sleeve   round cutout detail, oversized large </v>
       </c>
       <c r="AK44" t="s">
         <v>166</v>
@@ -16480,7 +16707,7 @@
       </c>
       <c r="AS44" t="str">
         <f>'English Master'!$I$1&amp;":"&amp;'English Master'!I44&amp;":0;"&amp;'English Master'!$J$1&amp;":"&amp;'English Master'!J44&amp;":1;"&amp;'English Master'!$N$1&amp;":"&amp;'English Master'!N44&amp;":2;"&amp;'English Master'!$O$1&amp;":"&amp;'English Master'!O44&amp;":3;"&amp;'English Master'!$P$1&amp;":"&amp;'English Master'!P44&amp;":4;"&amp;'English Master'!$Q$1&amp;":"&amp;'English Master'!Q44&amp;":5;"&amp;'English Master'!$R$1&amp;":"&amp;'English Master'!R44&amp;":6;"&amp;'English Master'!$L$1&amp;":"&amp;'English Master'!L44&amp;":7"</f>
-        <v>Composition:95% cotton 5% elastane:0;Care::1;Neck:turtle high neck collar:2;Waist::3;Sleeves:long American sleeve:4;Pockets::5;Length::6;Fabric origin:Italy:7</v>
+        <v>Composition:95% cotton 5% elastane:0;Care::1;Neck:turtle neck:2;Waist::3;Sleeves:long American sleeve:4;Pockets::5;Length::6;Fabric origin:Italy:7</v>
       </c>
       <c r="AT44">
         <v>1</v>
@@ -16523,8 +16750,12 @@
         <v>168</v>
       </c>
       <c r="AD45" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N45&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O45&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P45&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q45&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R45&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K45&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J45&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I45&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist twisted belt elastic waist&lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets 2 pockets&lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: relaxed loose trousers, tapered, yoga, carrot&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 85% viscose 15% wool&lt;/p&gt;</v>
+        <f>IF('English Master'!N45="","",'English Master'!N45&amp;" ")&amp;IF('English Master'!O45="","",'English Master'!O45&amp;" ")&amp;IF('English Master'!P45="","",'English Master'!P45&amp;" ")&amp;IF('English Master'!Q45="","",'English Master'!Q45&amp;" ")&amp;IF('English Master'!R45="","",'English Master'!R45&amp;" ")&amp;IF('English Master'!K45="","",'English Master'!K45&amp;" ")&amp;IF('English Master'!J45="","",'English Master'!J45&amp;" ")&amp;IF('English Master'!I45="","",'English Master'!I45&amp;" ")</f>
+        <v xml:space="preserve">twisted belt elastic waist 2 pockets relaxed loose trousers, tapered, yoga, carrot 85% viscose 15% wool </v>
+      </c>
+      <c r="AE45" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D45)&amp;" "&amp;'English Master'!F45&amp;" is made from fabric made in "&amp;'English Master'!L45&amp;". "&amp;IF('English Master'!AB45="",""," The model is also wearing "&amp;'English Master'!AB45&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Cygnus interlock pants is made from fabric made in France. </v>
       </c>
       <c r="AF45" s="83" t="str">
         <f t="shared" si="9"/>
@@ -16576,7 +16807,7 @@
       </c>
       <c r="C46" t="str">
         <f>'English Master'!D46&amp;" "&amp;'English Master'!C46&amp;" "&amp;'English Master'!H46&amp;" "&amp;'English Master'!K46&amp;" "&amp;'English Master'!F46</f>
-        <v>EQUILIBRE Autumn Winter black open liquid, 2 (black purple) color, raw edge interlock coat</v>
+        <v>EQUILIBRE Autumn Winter black open back liquid, bi (black purple) color, raw edge interlock coat</v>
       </c>
       <c r="D46" t="str">
         <f t="shared" si="7"/>
@@ -16600,24 +16831,28 @@
         <v>168</v>
       </c>
       <c r="AD46" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N46&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O46&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P46&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q46&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R46&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K46&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J46&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I46&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck open back twisted neck&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length hip length&lt;/p&gt;&lt;p&gt; Features: open liquid, 2 (black purple) color, raw edge&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 48% viscose 23% wool 23% polyacrylic 6% elastane&lt;/p&gt;</v>
+        <f>IF('English Master'!N46="","",'English Master'!N46&amp;" ")&amp;IF('English Master'!O46="","",'English Master'!O46&amp;" ")&amp;IF('English Master'!P46="","",'English Master'!P46&amp;" ")&amp;IF('English Master'!Q46="","",'English Master'!Q46&amp;" ")&amp;IF('English Master'!R46="","",'English Master'!R46&amp;" ")&amp;IF('English Master'!K46="","",'English Master'!K46&amp;" ")&amp;IF('English Master'!J46="","",'English Master'!J46&amp;" ")&amp;IF('English Master'!I46="","",'English Master'!I46&amp;" ")</f>
+        <v xml:space="preserve">twisted neck long sleeve no pockets hip length open back liquid, bi (black purple) color, raw edge machine wash 30 drip dry 48% viscose 23% wool 23% polyacrylic 6% elastane </v>
+      </c>
+      <c r="AE46" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D46)&amp;" "&amp;'English Master'!F46&amp;" is made from fabric made in "&amp;'English Master'!L46&amp;". "&amp;IF('English Master'!AB46="",""," The model is also wearing "&amp;'English Master'!AB46&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Equilibre interlock coat is made from fabric made in Italy. </v>
       </c>
       <c r="AF46" s="83" t="str">
         <f t="shared" si="9"/>
-        <v>EQUILIBRE;Autumn;Winter;black;open;liquid,;2;(black;purple);color,;raw;edge;interlock;coat;open;back;twisted;neck;;long;sleeve;no;pockets;hip;length;open;liquid,;2;(black;purple);color,;raw;edge;machine;wash;30;drip;dry</v>
+        <v>EQUILIBRE;Autumn;Winter;black;open;back;liquid,;bi;(black;purple);color,;raw;edge;interlock;coat;twisted;neck;;long;sleeve;no;pockets;hip;length;open;back;liquid,;bi;(black;purple);color,;raw;edge;machine;wash;30;drip;dry</v>
       </c>
       <c r="AG46" t="str">
         <f t="shared" si="10"/>
-        <v>EQUILIBRE Autumn Winter black open liquid, 2 (black purple) color, raw edge interlock coat</v>
+        <v>EQUILIBRE Autumn Winter black open back liquid, bi (black purple) color, raw edge interlock coat</v>
       </c>
       <c r="AH46" t="str">
         <f>AG46&amp;"  "&amp;'English Master'!I118</f>
-        <v xml:space="preserve">EQUILIBRE Autumn Winter black open liquid, 2 (black purple) color, raw edge interlock coat  </v>
+        <v xml:space="preserve">EQUILIBRE Autumn Winter black open back liquid, bi (black purple) color, raw edge interlock coat  </v>
       </c>
       <c r="AI46" t="str">
         <f>'English Master'!N46&amp;" "&amp;'English Master'!O46&amp;" "&amp;'English Master'!P46&amp;" "&amp;'English Master'!Q46&amp;" "&amp;'English Master'!R46&amp;" "&amp;'English Master'!K46&amp;" "&amp;'English Master'!J46</f>
-        <v>open back twisted neck  long sleeve no pockets hip length open liquid, 2 (black purple) color, raw edge machine wash 30 drip dry</v>
+        <v>twisted neck  long sleeve no pockets hip length open back liquid, bi (black purple) color, raw edge machine wash 30 drip dry</v>
       </c>
       <c r="AK46" t="s">
         <v>166</v>
@@ -16634,7 +16869,7 @@
       </c>
       <c r="AS46" t="str">
         <f>'English Master'!$I$1&amp;":"&amp;'English Master'!I46&amp;":0;"&amp;'English Master'!$J$1&amp;":"&amp;'English Master'!J46&amp;":1;"&amp;'English Master'!$N$1&amp;":"&amp;'English Master'!N46&amp;":2;"&amp;'English Master'!$O$1&amp;":"&amp;'English Master'!O46&amp;":3;"&amp;'English Master'!$P$1&amp;":"&amp;'English Master'!P46&amp;":4;"&amp;'English Master'!$Q$1&amp;":"&amp;'English Master'!Q46&amp;":5;"&amp;'English Master'!$R$1&amp;":"&amp;'English Master'!R46&amp;":6;"&amp;'English Master'!$L$1&amp;":"&amp;'English Master'!L46&amp;":7"</f>
-        <v>Composition:48% viscose 23% wool 23% polyacrylic 6% elastane:0;Care:machine wash 30 drip dry:1;Neck:open back twisted neck:2;Waist::3;Sleeves:long sleeve:4;Pockets:no pockets:5;Length:hip length:6;Fabric origin:Italy:7</v>
+        <v>Composition:48% viscose 23% wool 23% polyacrylic 6% elastane:0;Care:machine wash 30 drip dry:1;Neck:twisted neck:2;Waist::3;Sleeves:long sleeve:4;Pockets:no pockets:5;Length:hip length:6;Fabric origin:Italy:7</v>
       </c>
       <c r="AT46">
         <v>1</v>
@@ -16677,8 +16912,12 @@
         <v>168</v>
       </c>
       <c r="AD47" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N47&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O47&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P47&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q47&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R47&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K47&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J47&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I47&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length knee length&lt;/p&gt;&lt;p&gt; Features: knitted, pleated&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 96% cotton 4% elastane&lt;/p&gt;</v>
+        <f>IF('English Master'!N47="","",'English Master'!N47&amp;" ")&amp;IF('English Master'!O47="","",'English Master'!O47&amp;" ")&amp;IF('English Master'!P47="","",'English Master'!P47&amp;" ")&amp;IF('English Master'!Q47="","",'English Master'!Q47&amp;" ")&amp;IF('English Master'!R47="","",'English Master'!R47&amp;" ")&amp;IF('English Master'!K47="","",'English Master'!K47&amp;" ")&amp;IF('English Master'!J47="","",'English Master'!J47&amp;" ")&amp;IF('English Master'!I47="","",'English Master'!I47&amp;" ")</f>
+        <v xml:space="preserve">knee length knitted, pleated machine wash 30 drip dry 96% cotton 4% elastane </v>
+      </c>
+      <c r="AE47" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D47)&amp;" "&amp;'English Master'!F47&amp;" is made from fabric made in "&amp;'English Master'!L47&amp;". "&amp;IF('English Master'!AB47="",""," The model is also wearing "&amp;'English Master'!AB47&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Etty cotton fleece skirt is made from fabric made in France.  The model is also wearing Etoile by Amandine Leforestier</v>
       </c>
       <c r="AF47" s="83" t="str">
         <f t="shared" si="9"/>
@@ -16754,8 +16993,12 @@
         <v>168</v>
       </c>
       <c r="AD48" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N48&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O48&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P48&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q48&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R48&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K48&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J48&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I48&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck open back&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: pleated, loose, transparent, second skin, low cut back&lt;/p&gt;&lt;p&gt;Care: Hand wash drip dry&lt;/p&gt;&lt;p&gt;Composition: 80% wool 20% polyamide&lt;/p&gt;</v>
+        <f>IF('English Master'!N48="","",'English Master'!N48&amp;" ")&amp;IF('English Master'!O48="","",'English Master'!O48&amp;" ")&amp;IF('English Master'!P48="","",'English Master'!P48&amp;" ")&amp;IF('English Master'!Q48="","",'English Master'!Q48&amp;" ")&amp;IF('English Master'!R48="","",'English Master'!R48&amp;" ")&amp;IF('English Master'!K48="","",'English Master'!K48&amp;" ")&amp;IF('English Master'!J48="","",'English Master'!J48&amp;" ")&amp;IF('English Master'!I48="","",'English Master'!I48&amp;" ")</f>
+        <v xml:space="preserve">open back long sleeve pleated, loose, transparent, second skin, low cut back Hand wash drip dry 80% wool 20% polyamide </v>
+      </c>
+      <c r="AE48" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D48)&amp;" "&amp;'English Master'!F48&amp;" is made from fabric made in "&amp;'English Master'!L48&amp;". "&amp;IF('English Master'!AB48="",""," The model is also wearing "&amp;'English Master'!AB48&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Gambade nude jersey top is made from fabric made in Italy.  The model is also wearing Courbe by Amandine Leforestier</v>
       </c>
       <c r="AF48" s="83" t="str">
         <f t="shared" si="9"/>
@@ -16831,8 +17074,12 @@
         <v>168</v>
       </c>
       <c r="AD49" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N49&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O49&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P49&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q49&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R49&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K49&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J49&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I49&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck round collar&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length knee length&lt;/p&gt;&lt;p&gt; Features: oversized, pleated,&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 85% viscose 15% wool&lt;/p&gt;</v>
+        <f>IF('English Master'!N49="","",'English Master'!N49&amp;" ")&amp;IF('English Master'!O49="","",'English Master'!O49&amp;" ")&amp;IF('English Master'!P49="","",'English Master'!P49&amp;" ")&amp;IF('English Master'!Q49="","",'English Master'!Q49&amp;" ")&amp;IF('English Master'!R49="","",'English Master'!R49&amp;" ")&amp;IF('English Master'!K49="","",'English Master'!K49&amp;" ")&amp;IF('English Master'!J49="","",'English Master'!J49&amp;" ")&amp;IF('English Master'!I49="","",'English Master'!I49&amp;" ")</f>
+        <v xml:space="preserve">round collar long sleeve no pockets knee length oversized, pleated, machine wash 30 drip dry 85% viscose 15% wool </v>
+      </c>
+      <c r="AE49" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D49)&amp;" "&amp;'English Master'!F49&amp;" is made from fabric made in "&amp;'English Master'!L49&amp;". "&amp;IF('English Master'!AB49="",""," The model is also wearing "&amp;'English Master'!AB49&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Homan jersey dress is made from fabric made in France. </v>
       </c>
       <c r="AF49" s="83" t="str">
         <f t="shared" si="9"/>
@@ -16908,8 +17155,12 @@
         <v>168</v>
       </c>
       <c r="AD50" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N50&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O50&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P50&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q50&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R50&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K50&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J50&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I50&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length mid thigh&lt;/p&gt;&lt;p&gt; Features: knitted, pleated&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 96% cotton 4% elastane&lt;/p&gt;</v>
+        <f>IF('English Master'!N50="","",'English Master'!N50&amp;" ")&amp;IF('English Master'!O50="","",'English Master'!O50&amp;" ")&amp;IF('English Master'!P50="","",'English Master'!P50&amp;" ")&amp;IF('English Master'!Q50="","",'English Master'!Q50&amp;" ")&amp;IF('English Master'!R50="","",'English Master'!R50&amp;" ")&amp;IF('English Master'!K50="","",'English Master'!K50&amp;" ")&amp;IF('English Master'!J50="","",'English Master'!J50&amp;" ")&amp;IF('English Master'!I50="","",'English Master'!I50&amp;" ")</f>
+        <v xml:space="preserve">mid thigh knitted, pleated 96% cotton 4% elastane </v>
+      </c>
+      <c r="AE50" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D50)&amp;" "&amp;'English Master'!F50&amp;" is made from fabric made in "&amp;'English Master'!L50&amp;". "&amp;IF('English Master'!AB50="",""," The model is also wearing "&amp;'English Master'!AB50&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Ine cotton fleece skirt is made from fabric made in France.  The model is also wearing Porte by Amandine Leforestier</v>
       </c>
       <c r="AF50" s="83" t="str">
         <f t="shared" si="9"/>
@@ -16985,8 +17236,12 @@
         <v>168</v>
       </c>
       <c r="AD51" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N51&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O51&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P51&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q51&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R51&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K51&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J51&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I51&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length hip length&lt;/p&gt;&lt;p&gt; Features: open, pleats on side,&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N51="","",'English Master'!N51&amp;" ")&amp;IF('English Master'!O51="","",'English Master'!O51&amp;" ")&amp;IF('English Master'!P51="","",'English Master'!P51&amp;" ")&amp;IF('English Master'!Q51="","",'English Master'!Q51&amp;" ")&amp;IF('English Master'!R51="","",'English Master'!R51&amp;" ")&amp;IF('English Master'!K51="","",'English Master'!K51&amp;" ")&amp;IF('English Master'!J51="","",'English Master'!J51&amp;" ")&amp;IF('English Master'!I51="","",'English Master'!I51&amp;" ")</f>
+        <v xml:space="preserve">long sleeve no pockets hip length open, pleats on side, machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE51" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D51)&amp;" "&amp;'English Master'!F51&amp;" is made from fabric made in "&amp;'English Master'!L51&amp;". "&amp;IF('English Master'!AB51="",""," The model is also wearing "&amp;'English Master'!AB51&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Ita cotton fleece jacket is made from fabric made in France.  The model is also wearing Swing by Amandine Leforestier</v>
       </c>
       <c r="AF51" s="83" t="str">
         <f t="shared" si="9"/>
@@ -17062,8 +17317,12 @@
         <v>168</v>
       </c>
       <c r="AD52" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N52&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O52&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P52&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q52&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R52&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K52&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J52&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I52&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck low neckline cowl&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length mid thigh length&lt;/p&gt;&lt;p&gt; Features: oversized, pleated&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N52="","",'English Master'!N52&amp;" ")&amp;IF('English Master'!O52="","",'English Master'!O52&amp;" ")&amp;IF('English Master'!P52="","",'English Master'!P52&amp;" ")&amp;IF('English Master'!Q52="","",'English Master'!Q52&amp;" ")&amp;IF('English Master'!R52="","",'English Master'!R52&amp;" ")&amp;IF('English Master'!K52="","",'English Master'!K52&amp;" ")&amp;IF('English Master'!J52="","",'English Master'!J52&amp;" ")&amp;IF('English Master'!I52="","",'English Master'!I52&amp;" ")</f>
+        <v xml:space="preserve">low neckline cowl long sleeve no pockets mid thigh length oversized, pleated 100% cotton </v>
+      </c>
+      <c r="AE52" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D52)&amp;" "&amp;'English Master'!F52&amp;" is made from fabric made in "&amp;'English Master'!L52&amp;". "&amp;IF('English Master'!AB52="",""," The model is also wearing "&amp;'English Master'!AB52&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Lira cotton fleece dress is made from fabric made in Italy. </v>
       </c>
       <c r="AF52" s="83" t="str">
         <f t="shared" si="9"/>
@@ -17139,8 +17398,12 @@
         <v>168</v>
       </c>
       <c r="AD53" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N53&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O53&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P53&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q53&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R53&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K53&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J53&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I53&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck low neckline cowl&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length mid thigh length&lt;/p&gt;&lt;p&gt; Features: oversized pleated&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 48% viscose 23% wool 23% polyacrylic 6% elastane&lt;/p&gt;</v>
+        <f>IF('English Master'!N53="","",'English Master'!N53&amp;" ")&amp;IF('English Master'!O53="","",'English Master'!O53&amp;" ")&amp;IF('English Master'!P53="","",'English Master'!P53&amp;" ")&amp;IF('English Master'!Q53="","",'English Master'!Q53&amp;" ")&amp;IF('English Master'!R53="","",'English Master'!R53&amp;" ")&amp;IF('English Master'!K53="","",'English Master'!K53&amp;" ")&amp;IF('English Master'!J53="","",'English Master'!J53&amp;" ")&amp;IF('English Master'!I53="","",'English Master'!I53&amp;" ")</f>
+        <v xml:space="preserve">low neckline cowl long sleeve no pockets mid thigh length oversized pleated 48% viscose 23% wool 23% polyacrylic 6% elastane </v>
+      </c>
+      <c r="AE53" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D53)&amp;" "&amp;'English Master'!F53&amp;" is made from fabric made in "&amp;'English Master'!L53&amp;". "&amp;IF('English Master'!AB53="",""," The model is also wearing "&amp;'English Master'!AB53&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Music milano dress is made from fabric made in Italy. </v>
       </c>
       <c r="AF53" s="83" t="str">
         <f t="shared" si="9"/>
@@ -17216,8 +17479,12 @@
         <v>168</v>
       </c>
       <c r="AD54" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N54&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O54&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P54&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q54&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R54&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K54&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J54&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I54&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck turtle neck&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: oversized bamboo pleats,&lt;/p&gt;&lt;p&gt;Care: Hand wash drip dry&lt;/p&gt;&lt;p&gt;Composition: 74% cotton 26% nylon&lt;/p&gt;</v>
+        <f>IF('English Master'!N54="","",'English Master'!N54&amp;" ")&amp;IF('English Master'!O54="","",'English Master'!O54&amp;" ")&amp;IF('English Master'!P54="","",'English Master'!P54&amp;" ")&amp;IF('English Master'!Q54="","",'English Master'!Q54&amp;" ")&amp;IF('English Master'!R54="","",'English Master'!R54&amp;" ")&amp;IF('English Master'!K54="","",'English Master'!K54&amp;" ")&amp;IF('English Master'!J54="","",'English Master'!J54&amp;" ")&amp;IF('English Master'!I54="","",'English Master'!I54&amp;" ")</f>
+        <v xml:space="preserve">turtle neck long sleeve oversized bamboo pleats, Hand wash drip dry 74% cotton 26% nylon </v>
+      </c>
+      <c r="AE54" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D54)&amp;" "&amp;'English Master'!F54&amp;" is made from fabric made in "&amp;'English Master'!L54&amp;". "&amp;IF('English Master'!AB54="",""," The model is also wearing "&amp;'English Master'!AB54&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Naro cotton fleece sweater is made from fabric made in Japan. </v>
       </c>
       <c r="AF54" s="83" t="str">
         <f t="shared" si="9"/>
@@ -17293,8 +17560,12 @@
         <v>168</v>
       </c>
       <c r="AD55" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N55&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O55&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P55&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q55&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R55&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K55&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J55&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I55&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck round collar&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long American sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: bi material, , oversized square shape, pleated arm hole&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton 85% viscose 15% wool&lt;/p&gt;</v>
+        <f>IF('English Master'!N55="","",'English Master'!N55&amp;" ")&amp;IF('English Master'!O55="","",'English Master'!O55&amp;" ")&amp;IF('English Master'!P55="","",'English Master'!P55&amp;" ")&amp;IF('English Master'!Q55="","",'English Master'!Q55&amp;" ")&amp;IF('English Master'!R55="","",'English Master'!R55&amp;" ")&amp;IF('English Master'!K55="","",'English Master'!K55&amp;" ")&amp;IF('English Master'!J55="","",'English Master'!J55&amp;" ")&amp;IF('English Master'!I55="","",'English Master'!I55&amp;" ")</f>
+        <v xml:space="preserve">round collar long American sleeve bi material, , oversized square shape, pleated arm hole machine wash 30 drip dry 100% cotton 85% viscose 15% wool </v>
+      </c>
+      <c r="AE55" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D55)&amp;" "&amp;'English Master'!F55&amp;" is made from fabric made in "&amp;'English Master'!L55&amp;". "&amp;IF('English Master'!AB55="",""," The model is also wearing "&amp;'English Master'!AB55&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Nial milano/ottoman sweater is made from fabric made in France.  The model is also wearing Sterope by Amandine Leforestier</v>
       </c>
       <c r="AF55" s="83" t="str">
         <f t="shared" si="9"/>
@@ -17370,8 +17641,12 @@
         <v>168</v>
       </c>
       <c r="AD56" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N56&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O56&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P56&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q56&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R56&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K56&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J56&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I56&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck chimney turtle neck collar&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length mid thigh length&lt;/p&gt;&lt;p&gt; Features: straight shape, detailed pleats, sweater&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N56="","",'English Master'!N56&amp;" ")&amp;IF('English Master'!O56="","",'English Master'!O56&amp;" ")&amp;IF('English Master'!P56="","",'English Master'!P56&amp;" ")&amp;IF('English Master'!Q56="","",'English Master'!Q56&amp;" ")&amp;IF('English Master'!R56="","",'English Master'!R56&amp;" ")&amp;IF('English Master'!K56="","",'English Master'!K56&amp;" ")&amp;IF('English Master'!J56="","",'English Master'!J56&amp;" ")&amp;IF('English Master'!I56="","",'English Master'!I56&amp;" ")</f>
+        <v xml:space="preserve">chimney turtle neck collar long sleeve no pockets mid thigh length straight shape, detailed pleats, sweater machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE56" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D56)&amp;" "&amp;'English Master'!F56&amp;" is made from fabric made in "&amp;'English Master'!L56&amp;". "&amp;IF('English Master'!AB56="",""," The model is also wearing "&amp;'English Master'!AB56&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Opera cotton fleece dress is made from fabric made in France. </v>
       </c>
       <c r="AF56" s="83" t="str">
         <f t="shared" si="9"/>
@@ -17447,8 +17722,12 @@
         <v>168</v>
       </c>
       <c r="AD57" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N57&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O57&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P57&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q57&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R57&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K57&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J57&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I57&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck asymmetric high neck&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: straight line, pleated&lt;/p&gt;&lt;p&gt;Care: Hand wash drip dry&lt;/p&gt;&lt;p&gt;Composition: 42% wool 38% cotton 20% nylon&lt;/p&gt;</v>
+        <f>IF('English Master'!N57="","",'English Master'!N57&amp;" ")&amp;IF('English Master'!O57="","",'English Master'!O57&amp;" ")&amp;IF('English Master'!P57="","",'English Master'!P57&amp;" ")&amp;IF('English Master'!Q57="","",'English Master'!Q57&amp;" ")&amp;IF('English Master'!R57="","",'English Master'!R57&amp;" ")&amp;IF('English Master'!K57="","",'English Master'!K57&amp;" ")&amp;IF('English Master'!J57="","",'English Master'!J57&amp;" ")&amp;IF('English Master'!I57="","",'English Master'!I57&amp;" ")</f>
+        <v xml:space="preserve">asymmetric high neck long sleeve straight line, pleated Hand wash drip dry 42% wool 38% cotton 20% nylon </v>
+      </c>
+      <c r="AE57" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D57)&amp;" "&amp;'English Master'!F57&amp;" is made from fabric made in "&amp;'English Master'!L57&amp;". "&amp;IF('English Master'!AB57="",""," The model is also wearing "&amp;'English Master'!AB57&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Orion cotton fleece sweater is made from fabric made in Japan. </v>
       </c>
       <c r="AF57" s="83" t="str">
         <f t="shared" si="9"/>
@@ -17524,8 +17803,12 @@
         <v>168</v>
       </c>
       <c r="AD58" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N58&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O58&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P58&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q58&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R58&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K58&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J58&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I58&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets 2 pockets&lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: relaxed pleated trousers, tapered, yoga,, carrot&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 48% viscose 23% wool 23% polyacrylic 6% elastane&lt;/p&gt;</v>
+        <f>IF('English Master'!N58="","",'English Master'!N58&amp;" ")&amp;IF('English Master'!O58="","",'English Master'!O58&amp;" ")&amp;IF('English Master'!P58="","",'English Master'!P58&amp;" ")&amp;IF('English Master'!Q58="","",'English Master'!Q58&amp;" ")&amp;IF('English Master'!R58="","",'English Master'!R58&amp;" ")&amp;IF('English Master'!K58="","",'English Master'!K58&amp;" ")&amp;IF('English Master'!J58="","",'English Master'!J58&amp;" ")&amp;IF('English Master'!I58="","",'English Master'!I58&amp;" ")</f>
+        <v xml:space="preserve">2 pockets relaxed pleated trousers, tapered, yoga,, carrot 48% viscose 23% wool 23% polyacrylic 6% elastane </v>
+      </c>
+      <c r="AE58" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D58)&amp;" "&amp;'English Master'!F58&amp;" is made from fabric made in "&amp;'English Master'!L58&amp;". "&amp;IF('English Master'!AB58="",""," The model is also wearing "&amp;'English Master'!AB58&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Pivot milano pants is made from fabric made in Italy.  The model is also wearing Adagio by Amandine Leforestier</v>
       </c>
       <c r="AF58" s="83" t="str">
         <f t="shared" si="9"/>
@@ -17601,8 +17884,12 @@
         <v>168</v>
       </c>
       <c r="AD59" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N59&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O59&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P59&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q59&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R59&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K59&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J59&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I59&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves 3/4 sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: square shape, cutout/over length shoulder, pleats on the shoulder, v detail on bottom&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 37% modal 30% viscose 13% wool 10% polyamide 8% MTP 2% elastane&lt;/p&gt;</v>
+        <f>IF('English Master'!N59="","",'English Master'!N59&amp;" ")&amp;IF('English Master'!O59="","",'English Master'!O59&amp;" ")&amp;IF('English Master'!P59="","",'English Master'!P59&amp;" ")&amp;IF('English Master'!Q59="","",'English Master'!Q59&amp;" ")&amp;IF('English Master'!R59="","",'English Master'!R59&amp;" ")&amp;IF('English Master'!K59="","",'English Master'!K59&amp;" ")&amp;IF('English Master'!J59="","",'English Master'!J59&amp;" ")&amp;IF('English Master'!I59="","",'English Master'!I59&amp;" ")</f>
+        <v xml:space="preserve">3/4 sleeve square shape, cutout/over length shoulder, pleats on the shoulder, v detail on bottom 37% modal 30% viscose 13% wool 10% polyamide 8% MTP 2% elastane </v>
+      </c>
+      <c r="AE59" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D59)&amp;" "&amp;'English Master'!F59&amp;" is made from fabric made in "&amp;'English Master'!L59&amp;". "&amp;IF('English Master'!AB59="",""," The model is also wearing "&amp;'English Master'!AB59&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Pixus milano top is made from fabric made in Italy.  The model is also wearing Sterope by Amandine Leforestier</v>
       </c>
       <c r="AF59" s="83" t="str">
         <f t="shared" si="9"/>
@@ -17678,8 +17965,12 @@
         <v>168</v>
       </c>
       <c r="AD60" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N60&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O60&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P60&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q60&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R60&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K60&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J60&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I60&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck high collar&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: overlap pleated sweater, cuff&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 95% cotton 5% wool&lt;/p&gt;</v>
+        <f>IF('English Master'!N60="","",'English Master'!N60&amp;" ")&amp;IF('English Master'!O60="","",'English Master'!O60&amp;" ")&amp;IF('English Master'!P60="","",'English Master'!P60&amp;" ")&amp;IF('English Master'!Q60="","",'English Master'!Q60&amp;" ")&amp;IF('English Master'!R60="","",'English Master'!R60&amp;" ")&amp;IF('English Master'!K60="","",'English Master'!K60&amp;" ")&amp;IF('English Master'!J60="","",'English Master'!J60&amp;" ")&amp;IF('English Master'!I60="","",'English Master'!I60&amp;" ")</f>
+        <v xml:space="preserve">high collar long sleeve overlap pleated sweater, cuff 95% cotton 5% wool </v>
+      </c>
+      <c r="AE60" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D60)&amp;" "&amp;'English Master'!F60&amp;" is made from fabric made in "&amp;'English Master'!L60&amp;". "&amp;IF('English Master'!AB60="",""," The model is also wearing "&amp;'English Master'!AB60&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Pointe fleece sweater is made from fabric made in Japan.  The model is also wearing Etty by Amandine Leforestier</v>
       </c>
       <c r="AF60" s="83" t="str">
         <f t="shared" si="9"/>
@@ -17755,8 +18046,12 @@
         <v>168</v>
       </c>
       <c r="AD61" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N61&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O61&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P61&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q61&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R61&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K61&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J61&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I61&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck turtle neck rollup&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve cuff on sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length hip length&lt;/p&gt;&lt;p&gt; Features: oversized, rounded side to drape or bunch up on waist, tunic&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 90% cotton 10% wool&lt;/p&gt;</v>
+        <f>IF('English Master'!N61="","",'English Master'!N61&amp;" ")&amp;IF('English Master'!O61="","",'English Master'!O61&amp;" ")&amp;IF('English Master'!P61="","",'English Master'!P61&amp;" ")&amp;IF('English Master'!Q61="","",'English Master'!Q61&amp;" ")&amp;IF('English Master'!R61="","",'English Master'!R61&amp;" ")&amp;IF('English Master'!K61="","",'English Master'!K61&amp;" ")&amp;IF('English Master'!J61="","",'English Master'!J61&amp;" ")&amp;IF('English Master'!I61="","",'English Master'!I61&amp;" ")</f>
+        <v xml:space="preserve">turtle neck rollup long sleeve cuff on sleeve hip length oversized, rounded side to drape or bunch up on waist, tunic 90% cotton 10% wool </v>
+      </c>
+      <c r="AE61" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D61)&amp;" "&amp;'English Master'!F61&amp;" is made from fabric made in "&amp;'English Master'!L61&amp;". "&amp;IF('English Master'!AB61="",""," The model is also wearing "&amp;'English Master'!AB61&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Porte rib pullover is made from fabric made in Japan.  The model is also wearing Gine by Amandine Leforestier</v>
       </c>
       <c r="AF61" s="83" t="str">
         <f t="shared" si="9"/>
@@ -17832,8 +18127,12 @@
         <v>168</v>
       </c>
       <c r="AD62" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N62&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O62&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P62&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q62&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R62&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K62&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J62&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I62&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets 2 pockets&lt;/p&gt;&lt;p&gt; Length knee length&lt;/p&gt;&lt;p&gt; Features: loose open knit destructured, internal lining/lined&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 70% polyamide 15% wool 15% alpaca&lt;/p&gt;</v>
+        <f>IF('English Master'!N62="","",'English Master'!N62&amp;" ")&amp;IF('English Master'!O62="","",'English Master'!O62&amp;" ")&amp;IF('English Master'!P62="","",'English Master'!P62&amp;" ")&amp;IF('English Master'!Q62="","",'English Master'!Q62&amp;" ")&amp;IF('English Master'!R62="","",'English Master'!R62&amp;" ")&amp;IF('English Master'!K62="","",'English Master'!K62&amp;" ")&amp;IF('English Master'!J62="","",'English Master'!J62&amp;" ")&amp;IF('English Master'!I62="","",'English Master'!I62&amp;" ")</f>
+        <v xml:space="preserve">long sleeve 2 pockets knee length loose open knit destructured, internal lining/lined 70% polyamide 15% wool 15% alpaca </v>
+      </c>
+      <c r="AE62" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D62)&amp;" "&amp;'English Master'!F62&amp;" is made from fabric made in "&amp;'English Master'!L62&amp;". "&amp;IF('English Master'!AB62="",""," The model is also wearing "&amp;'English Master'!AB62&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Recovery knit coat is made from fabric made in Italy. </v>
       </c>
       <c r="AF62" s="83" t="str">
         <f t="shared" si="9"/>
@@ -17909,8 +18208,12 @@
         <v>168</v>
       </c>
       <c r="AD63" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N63&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O63&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P63&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q63&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R63&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K63&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J63&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I63&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: twist&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N63="","",'English Master'!N63&amp;" ")&amp;IF('English Master'!O63="","",'English Master'!O63&amp;" ")&amp;IF('English Master'!P63="","",'English Master'!P63&amp;" ")&amp;IF('English Master'!Q63="","",'English Master'!Q63&amp;" ")&amp;IF('English Master'!R63="","",'English Master'!R63&amp;" ")&amp;IF('English Master'!K63="","",'English Master'!K63&amp;" ")&amp;IF('English Master'!J63="","",'English Master'!J63&amp;" ")&amp;IF('English Master'!I63="","",'English Master'!I63&amp;" ")</f>
+        <v xml:space="preserve">twist 100% cotton </v>
+      </c>
+      <c r="AE63" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D63)&amp;" "&amp;'English Master'!F63&amp;" is made from fabric made in "&amp;'English Master'!L63&amp;". "&amp;IF('English Master'!AB63="",""," The model is also wearing "&amp;'English Master'!AB63&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Snood cotton fleece snood is made from fabric made in France. </v>
       </c>
       <c r="AF63" s="83" t="str">
         <f t="shared" si="9"/>
@@ -17986,8 +18289,12 @@
         <v>168</v>
       </c>
       <c r="AD64" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N64&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O64&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P64&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q64&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R64&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K64&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J64&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I64&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: twist&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N64="","",'English Master'!N64&amp;" ")&amp;IF('English Master'!O64="","",'English Master'!O64&amp;" ")&amp;IF('English Master'!P64="","",'English Master'!P64&amp;" ")&amp;IF('English Master'!Q64="","",'English Master'!Q64&amp;" ")&amp;IF('English Master'!R64="","",'English Master'!R64&amp;" ")&amp;IF('English Master'!K64="","",'English Master'!K64&amp;" ")&amp;IF('English Master'!J64="","",'English Master'!J64&amp;" ")&amp;IF('English Master'!I64="","",'English Master'!I64&amp;" ")</f>
+        <v xml:space="preserve">twist 100% cotton </v>
+      </c>
+      <c r="AE64" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D64)&amp;" "&amp;'English Master'!F64&amp;" is made from fabric made in "&amp;'English Master'!L64&amp;". "&amp;IF('English Master'!AB64="",""," The model is also wearing "&amp;'English Master'!AB64&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Snood2 cotton fleece snood is made from fabric made in France. </v>
       </c>
       <c r="AF64" s="83" t="str">
         <f t="shared" si="9"/>
@@ -18063,8 +18370,12 @@
         <v>168</v>
       </c>
       <c r="AD65" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N65&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O65&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P65&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q65&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R65&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K65&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J65&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I65&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck round neck&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: angle drape on front&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 42% wool 38% cotton 20% nylon&lt;/p&gt;</v>
+        <f>IF('English Master'!N65="","",'English Master'!N65&amp;" ")&amp;IF('English Master'!O65="","",'English Master'!O65&amp;" ")&amp;IF('English Master'!P65="","",'English Master'!P65&amp;" ")&amp;IF('English Master'!Q65="","",'English Master'!Q65&amp;" ")&amp;IF('English Master'!R65="","",'English Master'!R65&amp;" ")&amp;IF('English Master'!K65="","",'English Master'!K65&amp;" ")&amp;IF('English Master'!J65="","",'English Master'!J65&amp;" ")&amp;IF('English Master'!I65="","",'English Master'!I65&amp;" ")</f>
+        <v xml:space="preserve">round neck long sleeve angle drape on front 42% wool 38% cotton 20% nylon </v>
+      </c>
+      <c r="AE65" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D65)&amp;" "&amp;'English Master'!F65&amp;" is made from fabric made in "&amp;'English Master'!L65&amp;". "&amp;IF('English Master'!AB65="",""," The model is also wearing "&amp;'English Master'!AB65&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Spika cotton fleece top is made from fabric made in Japan.  The model is also wearing Carina by Amandine Leforestier</v>
       </c>
       <c r="AF65" s="83" t="str">
         <f t="shared" si="9"/>
@@ -18140,8 +18451,12 @@
         <v>168</v>
       </c>
       <c r="AD66" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N66&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O66&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P66&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q66&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R66&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K66&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J66&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I66&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck round collar&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length mid thigh length&lt;/p&gt;&lt;p&gt; Features: parallel pleats, straight cut&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N66="","",'English Master'!N66&amp;" ")&amp;IF('English Master'!O66="","",'English Master'!O66&amp;" ")&amp;IF('English Master'!P66="","",'English Master'!P66&amp;" ")&amp;IF('English Master'!Q66="","",'English Master'!Q66&amp;" ")&amp;IF('English Master'!R66="","",'English Master'!R66&amp;" ")&amp;IF('English Master'!K66="","",'English Master'!K66&amp;" ")&amp;IF('English Master'!J66="","",'English Master'!J66&amp;" ")&amp;IF('English Master'!I66="","",'English Master'!I66&amp;" ")</f>
+        <v xml:space="preserve">round collar long sleeve no pockets mid thigh length parallel pleats, straight cut 100% cotton </v>
+      </c>
+      <c r="AE66" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D66)&amp;" "&amp;'English Master'!F66&amp;" is made from fabric made in "&amp;'English Master'!L66&amp;". "&amp;IF('English Master'!AB66="",""," The model is also wearing "&amp;'English Master'!AB66&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Spirale cotton fleece dress is made from fabric made in Italy. </v>
       </c>
       <c r="AF66" s="83" t="str">
         <f t="shared" si="9"/>
@@ -18217,8 +18532,12 @@
         <v>168</v>
       </c>
       <c r="AD67" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N67&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O67&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P67&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q67&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R67&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K67&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J67&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I67&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets 2 cutout pockets in the cutout&lt;/p&gt;&lt;p&gt; Length hip length&lt;/p&gt;&lt;p&gt; Features: loose, kimono, mottled&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 96% cotton 4% wool&lt;/p&gt;</v>
+        <f>IF('English Master'!N67="","",'English Master'!N67&amp;" ")&amp;IF('English Master'!O67="","",'English Master'!O67&amp;" ")&amp;IF('English Master'!P67="","",'English Master'!P67&amp;" ")&amp;IF('English Master'!Q67="","",'English Master'!Q67&amp;" ")&amp;IF('English Master'!R67="","",'English Master'!R67&amp;" ")&amp;IF('English Master'!K67="","",'English Master'!K67&amp;" ")&amp;IF('English Master'!J67="","",'English Master'!J67&amp;" ")&amp;IF('English Master'!I67="","",'English Master'!I67&amp;" ")</f>
+        <v xml:space="preserve">long sleeve 2 cutout pockets in the cutout hip length loose, kimono, mottled 96% cotton 4% wool </v>
+      </c>
+      <c r="AE67" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D67)&amp;" "&amp;'English Master'!F67&amp;" is made from fabric made in "&amp;'English Master'!L67&amp;". "&amp;IF('English Master'!AB67="",""," The model is also wearing "&amp;'English Master'!AB67&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Syrma cotton fleece jacket is made from fabric made in Japan. </v>
       </c>
       <c r="AF67" s="83" t="str">
         <f t="shared" si="9"/>
@@ -18294,8 +18613,12 @@
         <v>168</v>
       </c>
       <c r="AD68" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N68&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O68&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P68&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q68&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R68&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K68&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J68&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I68&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: twist&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N68="","",'English Master'!N68&amp;" ")&amp;IF('English Master'!O68="","",'English Master'!O68&amp;" ")&amp;IF('English Master'!P68="","",'English Master'!P68&amp;" ")&amp;IF('English Master'!Q68="","",'English Master'!Q68&amp;" ")&amp;IF('English Master'!R68="","",'English Master'!R68&amp;" ")&amp;IF('English Master'!K68="","",'English Master'!K68&amp;" ")&amp;IF('English Master'!J68="","",'English Master'!J68&amp;" ")&amp;IF('English Master'!I68="","",'English Master'!I68&amp;" ")</f>
+        <v xml:space="preserve">twist 100% cotton </v>
+      </c>
+      <c r="AE68" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D68)&amp;" "&amp;'English Master'!F68&amp;" is made from fabric made in "&amp;'English Master'!L68&amp;". "&amp;IF('English Master'!AB68="",""," The model is also wearing "&amp;'English Master'!AB68&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Uinuk cotton fleece snood is made from fabric made in Italy. </v>
       </c>
       <c r="AF68" s="83" t="str">
         <f t="shared" si="9"/>
@@ -18371,8 +18694,12 @@
         <v>168</v>
       </c>
       <c r="AD69" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N69&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O69&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P69&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q69&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R69&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K69&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J69&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I69&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck pleated collar&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length mid thigh length&lt;/p&gt;&lt;p&gt; Features: open sleeve slit, straight&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 96% cotton 4% elastane&lt;/p&gt;</v>
+        <f>IF('English Master'!N69="","",'English Master'!N69&amp;" ")&amp;IF('English Master'!O69="","",'English Master'!O69&amp;" ")&amp;IF('English Master'!P69="","",'English Master'!P69&amp;" ")&amp;IF('English Master'!Q69="","",'English Master'!Q69&amp;" ")&amp;IF('English Master'!R69="","",'English Master'!R69&amp;" ")&amp;IF('English Master'!K69="","",'English Master'!K69&amp;" ")&amp;IF('English Master'!J69="","",'English Master'!J69&amp;" ")&amp;IF('English Master'!I69="","",'English Master'!I69&amp;" ")</f>
+        <v xml:space="preserve">pleated collar long sleeve no pockets mid thigh length open sleeve slit, straight machine wash 30 drip dry 96% cotton 4% elastane </v>
+      </c>
+      <c r="AE69" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D69)&amp;" "&amp;'English Master'!F69&amp;" is made from fabric made in "&amp;'English Master'!L69&amp;". "&amp;IF('English Master'!AB69="",""," The model is also wearing "&amp;'English Master'!AB69&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Ula cotton fleece dress is made from fabric made in France. </v>
       </c>
       <c r="AF69" s="83" t="str">
         <f t="shared" si="9"/>
@@ -18448,8 +18775,12 @@
         <v>168</v>
       </c>
       <c r="AD70" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N70&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O70&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P70&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q70&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R70&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K70&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J70&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I70&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: bow tie&lt;/p&gt;&lt;p&gt;Care: Hand wash drip dry&lt;/p&gt;&lt;p&gt;Composition: 29% cotton 20% linen 51% wool&lt;/p&gt;</v>
+        <f>IF('English Master'!N70="","",'English Master'!N70&amp;" ")&amp;IF('English Master'!O70="","",'English Master'!O70&amp;" ")&amp;IF('English Master'!P70="","",'English Master'!P70&amp;" ")&amp;IF('English Master'!Q70="","",'English Master'!Q70&amp;" ")&amp;IF('English Master'!R70="","",'English Master'!R70&amp;" ")&amp;IF('English Master'!K70="","",'English Master'!K70&amp;" ")&amp;IF('English Master'!J70="","",'English Master'!J70&amp;" ")&amp;IF('English Master'!I70="","",'English Master'!I70&amp;" ")</f>
+        <v xml:space="preserve">bow tie Hand wash drip dry 29% cotton 20% linen 51% wool </v>
+      </c>
+      <c r="AE70" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D70)&amp;" "&amp;'English Master'!F70&amp;" is made from fabric made in "&amp;'English Master'!L70&amp;". "&amp;IF('English Master'!AB70="",""," The model is also wearing "&amp;'English Master'!AB70&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Unuka snood is made from fabric made in Japan. </v>
       </c>
       <c r="AF70" s="83" t="str">
         <f t="shared" si="9"/>
@@ -18525,8 +18856,12 @@
         <v>168</v>
       </c>
       <c r="AD71" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N71&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O71&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P71&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q71&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R71&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K71&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J71&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I71&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: twisted 2 material&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton 85% viscose 15% wool&lt;/p&gt;</v>
+        <f>IF('English Master'!N71="","",'English Master'!N71&amp;" ")&amp;IF('English Master'!O71="","",'English Master'!O71&amp;" ")&amp;IF('English Master'!P71="","",'English Master'!P71&amp;" ")&amp;IF('English Master'!Q71="","",'English Master'!Q71&amp;" ")&amp;IF('English Master'!R71="","",'English Master'!R71&amp;" ")&amp;IF('English Master'!K71="","",'English Master'!K71&amp;" ")&amp;IF('English Master'!J71="","",'English Master'!J71&amp;" ")&amp;IF('English Master'!I71="","",'English Master'!I71&amp;" ")</f>
+        <v xml:space="preserve">twisted 2 material machine wash 30 drip dry 100% cotton 85% viscose 15% wool </v>
+      </c>
+      <c r="AE71" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D71)&amp;" "&amp;'English Master'!F71&amp;" is made from fabric made in "&amp;'English Master'!L71&amp;". "&amp;IF('English Master'!AB71="",""," The model is also wearing "&amp;'English Master'!AB71&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Unuko milano/ottoman snood is made from fabric made in France. </v>
       </c>
       <c r="AF71" s="83" t="str">
         <f t="shared" si="9"/>
@@ -18602,8 +18937,12 @@
         <v>168</v>
       </c>
       <c r="AD72" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N72&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O72&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P72&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q72&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R72&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K72&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J72&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I72&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck v neck&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length hip length&lt;/p&gt;&lt;p&gt; Features: oversized&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 65% wool 35% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N72="","",'English Master'!N72&amp;" ")&amp;IF('English Master'!O72="","",'English Master'!O72&amp;" ")&amp;IF('English Master'!P72="","",'English Master'!P72&amp;" ")&amp;IF('English Master'!Q72="","",'English Master'!Q72&amp;" ")&amp;IF('English Master'!R72="","",'English Master'!R72&amp;" ")&amp;IF('English Master'!K72="","",'English Master'!K72&amp;" ")&amp;IF('English Master'!J72="","",'English Master'!J72&amp;" ")&amp;IF('English Master'!I72="","",'English Master'!I72&amp;" ")</f>
+        <v xml:space="preserve">v neck long sleeve hip length oversized 65% wool 35% cotton </v>
+      </c>
+      <c r="AE72" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D72)&amp;" "&amp;'English Master'!F72&amp;" is made from fabric made in "&amp;'English Master'!L72&amp;". "&amp;IF('English Master'!AB72="",""," The model is also wearing "&amp;'English Master'!AB72&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Virg nut jersey pullover is made from fabric made in Japan.  The model is also wearing Pivot by Amandine Leforestier</v>
       </c>
       <c r="AF72" s="83" t="str">
         <f t="shared" ref="AF72:AF75" si="13">SUBSTITUTE(AG72&amp;" "&amp;AI72," ",";")</f>
@@ -18679,8 +19018,12 @@
         <v>168</v>
       </c>
       <c r="AD73" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N73&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O73&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P73&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q73&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R73&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K73&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J73&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I73&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves long sleeve&lt;/p&gt;&lt;p&gt; Pockets 2 pockets&lt;/p&gt;&lt;p&gt; Length hip length&lt;/p&gt;&lt;p&gt; Features: loose open fluid&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 42% wool 38% cotton 20% nylon &lt;/p&gt;</v>
+        <f>IF('English Master'!N73="","",'English Master'!N73&amp;" ")&amp;IF('English Master'!O73="","",'English Master'!O73&amp;" ")&amp;IF('English Master'!P73="","",'English Master'!P73&amp;" ")&amp;IF('English Master'!Q73="","",'English Master'!Q73&amp;" ")&amp;IF('English Master'!R73="","",'English Master'!R73&amp;" ")&amp;IF('English Master'!K73="","",'English Master'!K73&amp;" ")&amp;IF('English Master'!J73="","",'English Master'!J73&amp;" ")&amp;IF('English Master'!I73="","",'English Master'!I73&amp;" ")</f>
+        <v xml:space="preserve">long sleeve 2 pockets hip length loose open fluid 42% wool 38% cotton 20% nylon  </v>
+      </c>
+      <c r="AE73" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D73)&amp;" "&amp;'English Master'!F73&amp;" is made from fabric made in "&amp;'English Master'!L73&amp;". "&amp;IF('English Master'!AB73="",""," The model is also wearing "&amp;'English Master'!AB73&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Wega milano coat is made from fabric made in Japan. </v>
       </c>
       <c r="AF73" s="83" t="str">
         <f t="shared" si="13"/>
@@ -18756,8 +19099,12 @@
         <v>168</v>
       </c>
       <c r="AD74" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N74&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O74&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P74&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q74&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R74&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K74&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J74&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I74&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist elastic waist layered belt&lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets 2 pockets&lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: city pants, tapered carrot, fake zipper, stretch&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 37% modal 30% viscose 13% wool 10% polyamide 8% MTP 2% elastane&lt;/p&gt;</v>
+        <f>IF('English Master'!N74="","",'English Master'!N74&amp;" ")&amp;IF('English Master'!O74="","",'English Master'!O74&amp;" ")&amp;IF('English Master'!P74="","",'English Master'!P74&amp;" ")&amp;IF('English Master'!Q74="","",'English Master'!Q74&amp;" ")&amp;IF('English Master'!R74="","",'English Master'!R74&amp;" ")&amp;IF('English Master'!K74="","",'English Master'!K74&amp;" ")&amp;IF('English Master'!J74="","",'English Master'!J74&amp;" ")&amp;IF('English Master'!I74="","",'English Master'!I74&amp;" ")</f>
+        <v xml:space="preserve">elastic waist layered belt 2 pockets city pants, tapered carrot, fake zipper, stretch machine wash 30 drip dry 37% modal 30% viscose 13% wool 10% polyamide 8% MTP 2% elastane </v>
+      </c>
+      <c r="AE74" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D74)&amp;" "&amp;'English Master'!F74&amp;" is made from fabric made in "&amp;'English Master'!L74&amp;". "&amp;IF('English Master'!AB74="",""," The model is also wearing "&amp;'English Master'!AB74&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Wezen milano pants is made from fabric made in Italy. </v>
       </c>
       <c r="AF74" s="83" t="str">
         <f t="shared" si="13"/>
@@ -18833,8 +19180,12 @@
         <v>168</v>
       </c>
       <c r="AD75" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N75&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O75&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P75&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q75&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R75&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K75&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J75&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I75&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck destructured collar&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves short sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: loose pleated&lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N75="","",'English Master'!N75&amp;" ")&amp;IF('English Master'!O75="","",'English Master'!O75&amp;" ")&amp;IF('English Master'!P75="","",'English Master'!P75&amp;" ")&amp;IF('English Master'!Q75="","",'English Master'!Q75&amp;" ")&amp;IF('English Master'!R75="","",'English Master'!R75&amp;" ")&amp;IF('English Master'!K75="","",'English Master'!K75&amp;" ")&amp;IF('English Master'!J75="","",'English Master'!J75&amp;" ")&amp;IF('English Master'!I75="","",'English Master'!I75&amp;" ")</f>
+        <v xml:space="preserve">destructured collar short sleeve loose pleated 100% cotton </v>
+      </c>
+      <c r="AE75" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D75)&amp;" "&amp;'English Master'!F75&amp;" is made from fabric made in "&amp;'English Master'!L75&amp;". "&amp;IF('English Master'!AB75="",""," The model is also wearing "&amp;'English Master'!AB75&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Zosma ottoman top is made from fabric made in France. </v>
       </c>
       <c r="AF75" s="83" t="str">
         <f t="shared" si="13"/>
@@ -18910,8 +19261,12 @@
         <v>168</v>
       </c>
       <c r="AD76" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N76&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O76&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P76&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q76&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R76&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K76&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J76&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I76&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: &lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: &lt;/p&gt;</v>
+        <f>IF('English Master'!N76="","",'English Master'!N76&amp;" ")&amp;IF('English Master'!O76="","",'English Master'!O76&amp;" ")&amp;IF('English Master'!P76="","",'English Master'!P76&amp;" ")&amp;IF('English Master'!Q76="","",'English Master'!Q76&amp;" ")&amp;IF('English Master'!R76="","",'English Master'!R76&amp;" ")&amp;IF('English Master'!K76="","",'English Master'!K76&amp;" ")&amp;IF('English Master'!J76="","",'English Master'!J76&amp;" ")&amp;IF('English Master'!I76="","",'English Master'!I76&amp;" ")</f>
+        <v/>
+      </c>
+      <c r="AE76" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D76)&amp;" "&amp;'English Master'!F76&amp;" is made from fabric made in "&amp;'English Master'!L76&amp;". "&amp;IF('English Master'!AB76="",""," The model is also wearing "&amp;'English Master'!AB76&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Appollo  is made from fabric made in Italy.  The model is also wearing Ale by Amandine Leforestier</v>
       </c>
       <c r="AF76" s="83" t="str">
         <f t="shared" ref="AF76:AF95" si="16">SUBSTITUTE(AG76&amp;" "&amp;AI76," ",";")</f>
@@ -18987,8 +19342,12 @@
         <v>168</v>
       </c>
       <c r="AD77" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N77&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O77&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P77&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q77&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R77&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K77&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J77&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I77&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck cowl neck&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves short sleeve&lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length mid thigh&lt;/p&gt;&lt;p&gt; Features: fluid draped&lt;/p&gt;&lt;p&gt;Care: hand wash drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% viscose&lt;/p&gt;</v>
+        <f>IF('English Master'!N77="","",'English Master'!N77&amp;" ")&amp;IF('English Master'!O77="","",'English Master'!O77&amp;" ")&amp;IF('English Master'!P77="","",'English Master'!P77&amp;" ")&amp;IF('English Master'!Q77="","",'English Master'!Q77&amp;" ")&amp;IF('English Master'!R77="","",'English Master'!R77&amp;" ")&amp;IF('English Master'!K77="","",'English Master'!K77&amp;" ")&amp;IF('English Master'!J77="","",'English Master'!J77&amp;" ")&amp;IF('English Master'!I77="","",'English Master'!I77&amp;" ")</f>
+        <v xml:space="preserve">cowl neck short sleeve no pockets mid thigh fluid draped hand wash drip dry 100% viscose </v>
+      </c>
+      <c r="AE77" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D77)&amp;" "&amp;'English Master'!F77&amp;" is made from fabric made in "&amp;'English Master'!L77&amp;". "&amp;IF('English Master'!AB77="",""," The model is also wearing "&amp;'English Master'!AB77&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Choral jersey dress is made from fabric made in Italy. </v>
       </c>
       <c r="AF77" s="83" t="str">
         <f t="shared" si="16"/>
@@ -19064,8 +19423,12 @@
         <v>168</v>
       </c>
       <c r="AD78" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N78&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O78&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P78&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q78&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R78&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K78&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J78&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I78&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck high v neck&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves sleeveless&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: loose pleated&lt;/p&gt;&lt;p&gt;Care: hand wash drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% viscose&lt;/p&gt;</v>
+        <f>IF('English Master'!N78="","",'English Master'!N78&amp;" ")&amp;IF('English Master'!O78="","",'English Master'!O78&amp;" ")&amp;IF('English Master'!P78="","",'English Master'!P78&amp;" ")&amp;IF('English Master'!Q78="","",'English Master'!Q78&amp;" ")&amp;IF('English Master'!R78="","",'English Master'!R78&amp;" ")&amp;IF('English Master'!K78="","",'English Master'!K78&amp;" ")&amp;IF('English Master'!J78="","",'English Master'!J78&amp;" ")&amp;IF('English Master'!I78="","",'English Master'!I78&amp;" ")</f>
+        <v xml:space="preserve">high v neck sleeveless loose pleated hand wash drip dry 100% viscose </v>
+      </c>
+      <c r="AE78" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D78)&amp;" "&amp;'English Master'!F78&amp;" is made from fabric made in "&amp;'English Master'!L78&amp;". "&amp;IF('English Master'!AB78="",""," The model is also wearing "&amp;'English Master'!AB78&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Chorus jersey top is made from fabric made in Italy.  The model is also wearing Suhel by Amandine Leforestier</v>
       </c>
       <c r="AF78" s="83" t="str">
         <f t="shared" si="16"/>
@@ -19141,8 +19504,12 @@
         <v>168</v>
       </c>
       <c r="AD79" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N79&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O79&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P79&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q79&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R79&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K79&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J79&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I79&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: &lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: &lt;/p&gt;</v>
+        <f>IF('English Master'!N79="","",'English Master'!N79&amp;" ")&amp;IF('English Master'!O79="","",'English Master'!O79&amp;" ")&amp;IF('English Master'!P79="","",'English Master'!P79&amp;" ")&amp;IF('English Master'!Q79="","",'English Master'!Q79&amp;" ")&amp;IF('English Master'!R79="","",'English Master'!R79&amp;" ")&amp;IF('English Master'!K79="","",'English Master'!K79&amp;" ")&amp;IF('English Master'!J79="","",'English Master'!J79&amp;" ")&amp;IF('English Master'!I79="","",'English Master'!I79&amp;" ")</f>
+        <v/>
+      </c>
+      <c r="AE79" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D79)&amp;" "&amp;'English Master'!F79&amp;" is made from fabric made in "&amp;'English Master'!L79&amp;". "&amp;IF('English Master'!AB79="",""," The model is also wearing "&amp;'English Master'!AB79&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Sadon  is made from fabric made in France. </v>
       </c>
       <c r="AF79" s="83" t="str">
         <f t="shared" si="16"/>
@@ -19218,8 +19585,12 @@
         <v>168</v>
       </c>
       <c r="AD80" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N80&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O80&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P80&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q80&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R80&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K80&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J80&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I80&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck round&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves short sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: pleated asymmetric shoulder&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N80="","",'English Master'!N80&amp;" ")&amp;IF('English Master'!O80="","",'English Master'!O80&amp;" ")&amp;IF('English Master'!P80="","",'English Master'!P80&amp;" ")&amp;IF('English Master'!Q80="","",'English Master'!Q80&amp;" ")&amp;IF('English Master'!R80="","",'English Master'!R80&amp;" ")&amp;IF('English Master'!K80="","",'English Master'!K80&amp;" ")&amp;IF('English Master'!J80="","",'English Master'!J80&amp;" ")&amp;IF('English Master'!I80="","",'English Master'!I80&amp;" ")</f>
+        <v xml:space="preserve">round short sleeve pleated asymmetric shoulder machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE80" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D80)&amp;" "&amp;'English Master'!F80&amp;" is made from fabric made in "&amp;'English Master'!L80&amp;". "&amp;IF('English Master'!AB80="",""," The model is also wearing "&amp;'English Master'!AB80&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Coda cotton fleece top is made from fabric made in France.  The model is also wearing Arietis by Amandine Leforestier</v>
       </c>
       <c r="AF80" s="83" t="str">
         <f t="shared" si="16"/>
@@ -19295,8 +19666,12 @@
         <v>168</v>
       </c>
       <c r="AD81" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N81&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O81&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P81&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q81&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R81&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K81&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J81&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I81&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck cowl neck on back&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves sleeveless&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: draped twist detailed tank top&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 70% cotton 30% linen&lt;/p&gt;</v>
+        <f>IF('English Master'!N81="","",'English Master'!N81&amp;" ")&amp;IF('English Master'!O81="","",'English Master'!O81&amp;" ")&amp;IF('English Master'!P81="","",'English Master'!P81&amp;" ")&amp;IF('English Master'!Q81="","",'English Master'!Q81&amp;" ")&amp;IF('English Master'!R81="","",'English Master'!R81&amp;" ")&amp;IF('English Master'!K81="","",'English Master'!K81&amp;" ")&amp;IF('English Master'!J81="","",'English Master'!J81&amp;" ")&amp;IF('English Master'!I81="","",'English Master'!I81&amp;" ")</f>
+        <v xml:space="preserve">cowl neck on back sleeveless draped twist detailed tank top machine wash 30 drip dry 70% cotton 30% linen </v>
+      </c>
+      <c r="AE81" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D81)&amp;" "&amp;'English Master'!F81&amp;" is made from fabric made in "&amp;'English Master'!L81&amp;". "&amp;IF('English Master'!AB81="",""," The model is also wearing "&amp;'English Master'!AB81&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Concerto jersey top is made from fabric made in France.  The model is also wearing Naos by Amandine Leforestier</v>
       </c>
       <c r="AF81" s="83" t="str">
         <f t="shared" si="16"/>
@@ -19372,8 +19747,12 @@
         <v>168</v>
       </c>
       <c r="AD82" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N82&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O82&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P82&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q82&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R82&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K82&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J82&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I82&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck v neck&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: round shaped poncho&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 70% cotton 30% linen&lt;/p&gt;</v>
+        <f>IF('English Master'!N82="","",'English Master'!N82&amp;" ")&amp;IF('English Master'!O82="","",'English Master'!O82&amp;" ")&amp;IF('English Master'!P82="","",'English Master'!P82&amp;" ")&amp;IF('English Master'!Q82="","",'English Master'!Q82&amp;" ")&amp;IF('English Master'!R82="","",'English Master'!R82&amp;" ")&amp;IF('English Master'!K82="","",'English Master'!K82&amp;" ")&amp;IF('English Master'!J82="","",'English Master'!J82&amp;" ")&amp;IF('English Master'!I82="","",'English Master'!I82&amp;" ")</f>
+        <v xml:space="preserve">v neck round shaped poncho machine wash 30 drip dry 70% cotton 30% linen </v>
+      </c>
+      <c r="AE82" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D82)&amp;" "&amp;'English Master'!F82&amp;" is made from fabric made in "&amp;'English Master'!L82&amp;". "&amp;IF('English Master'!AB82="",""," The model is also wearing "&amp;'English Master'!AB82&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Croche jersey top is made from fabric made in France.  The model is also wearing Rythme by Amandine Leforestier</v>
       </c>
       <c r="AF82" s="83" t="str">
         <f t="shared" si="16"/>
@@ -19449,8 +19828,12 @@
         <v>168</v>
       </c>
       <c r="AD83" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N83&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O83&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P83&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q83&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R83&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K83&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J83&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I83&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck round neck&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves sleeveless&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: draped layered&lt;/p&gt;&lt;p&gt;Care: hand wash drip dry&lt;/p&gt;&lt;p&gt;Composition: 98% modal 2% silk&lt;/p&gt;</v>
+        <f>IF('English Master'!N83="","",'English Master'!N83&amp;" ")&amp;IF('English Master'!O83="","",'English Master'!O83&amp;" ")&amp;IF('English Master'!P83="","",'English Master'!P83&amp;" ")&amp;IF('English Master'!Q83="","",'English Master'!Q83&amp;" ")&amp;IF('English Master'!R83="","",'English Master'!R83&amp;" ")&amp;IF('English Master'!K83="","",'English Master'!K83&amp;" ")&amp;IF('English Master'!J83="","",'English Master'!J83&amp;" ")&amp;IF('English Master'!I83="","",'English Master'!I83&amp;" ")</f>
+        <v xml:space="preserve">round neck sleeveless draped layered hand wash drip dry 98% modal 2% silk </v>
+      </c>
+      <c r="AE83" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D83)&amp;" "&amp;'English Master'!F83&amp;" is made from fabric made in "&amp;'English Master'!L83&amp;". "&amp;IF('English Master'!AB83="",""," The model is also wearing "&amp;'English Master'!AB83&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Etamin jersey top is made from fabric made in Italy.  The model is also wearing Ode by Amandine Leforestier</v>
       </c>
       <c r="AF83" s="83" t="str">
         <f t="shared" si="16"/>
@@ -19526,8 +19909,12 @@
         <v>168</v>
       </c>
       <c r="AD84" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N84&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O84&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P84&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q84&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R84&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K84&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J84&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I84&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck v neck&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves sleeve less&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: oversized draped pleated&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N84="","",'English Master'!N84&amp;" ")&amp;IF('English Master'!O84="","",'English Master'!O84&amp;" ")&amp;IF('English Master'!P84="","",'English Master'!P84&amp;" ")&amp;IF('English Master'!Q84="","",'English Master'!Q84&amp;" ")&amp;IF('English Master'!R84="","",'English Master'!R84&amp;" ")&amp;IF('English Master'!K84="","",'English Master'!K84&amp;" ")&amp;IF('English Master'!J84="","",'English Master'!J84&amp;" ")&amp;IF('English Master'!I84="","",'English Master'!I84&amp;" ")</f>
+        <v xml:space="preserve">v neck sleeve less oversized draped pleated machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE84" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D84)&amp;" "&amp;'English Master'!F84&amp;" is made from fabric made in "&amp;'English Master'!L84&amp;". "&amp;IF('English Master'!AB84="",""," The model is also wearing "&amp;'English Master'!AB84&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Isis double jersey top is made from fabric made in France.  The model is also wearing Suhel by Amandine Leforestier</v>
       </c>
       <c r="AF84" s="83" t="str">
         <f t="shared" si="16"/>
@@ -19603,8 +19990,12 @@
         <v>168</v>
       </c>
       <c r="AD85" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N85&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O85&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P85&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q85&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R85&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K85&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J85&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I85&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck low neckline cowl&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves sleeveless&lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length mid thigh length&lt;/p&gt;&lt;p&gt; Features: oversized pleated&lt;/p&gt;&lt;p&gt;Care: hand wash drip dry&lt;/p&gt;&lt;p&gt;Composition: 90% viscose 10% lycra&lt;/p&gt;</v>
+        <f>IF('English Master'!N85="","",'English Master'!N85&amp;" ")&amp;IF('English Master'!O85="","",'English Master'!O85&amp;" ")&amp;IF('English Master'!P85="","",'English Master'!P85&amp;" ")&amp;IF('English Master'!Q85="","",'English Master'!Q85&amp;" ")&amp;IF('English Master'!R85="","",'English Master'!R85&amp;" ")&amp;IF('English Master'!K85="","",'English Master'!K85&amp;" ")&amp;IF('English Master'!J85="","",'English Master'!J85&amp;" ")&amp;IF('English Master'!I85="","",'English Master'!I85&amp;" ")</f>
+        <v xml:space="preserve">low neckline cowl sleeveless no pockets mid thigh length oversized pleated hand wash drip dry 90% viscose 10% lycra </v>
+      </c>
+      <c r="AE85" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D85)&amp;" "&amp;'English Master'!F85&amp;" is made from fabric made in "&amp;'English Master'!L85&amp;". "&amp;IF('English Master'!AB85="",""," The model is also wearing "&amp;'English Master'!AB85&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Music jersey dress is made from fabric made in Italy. </v>
       </c>
       <c r="AF85" s="83" t="str">
         <f t="shared" si="16"/>
@@ -19680,8 +20071,12 @@
         <v>168</v>
       </c>
       <c r="AD86" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N86&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O86&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P86&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q86&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R86&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K86&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J86&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I86&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: &lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: &lt;/p&gt;</v>
+        <f>IF('English Master'!N86="","",'English Master'!N86&amp;" ")&amp;IF('English Master'!O86="","",'English Master'!O86&amp;" ")&amp;IF('English Master'!P86="","",'English Master'!P86&amp;" ")&amp;IF('English Master'!Q86="","",'English Master'!Q86&amp;" ")&amp;IF('English Master'!R86="","",'English Master'!R86&amp;" ")&amp;IF('English Master'!K86="","",'English Master'!K86&amp;" ")&amp;IF('English Master'!J86="","",'English Master'!J86&amp;" ")&amp;IF('English Master'!I86="","",'English Master'!I86&amp;" ")</f>
+        <v/>
+      </c>
+      <c r="AE86" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D86)&amp;" "&amp;'English Master'!F86&amp;" is made from fabric made in "&amp;'English Master'!L86&amp;". "&amp;IF('English Master'!AB86="",""," The model is also wearing "&amp;'English Master'!AB86&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Pleione  is made from fabric made in Italy.  The model is also wearing Arietis by Amandine Leforestier</v>
       </c>
       <c r="AF86" s="83" t="str">
         <f t="shared" si="16"/>
@@ -19757,8 +20152,12 @@
         <v>168</v>
       </c>
       <c r="AD87" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N87&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O87&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P87&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q87&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R87&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K87&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J87&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I87&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck loose collar&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves short sleeve&lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length above the knee&lt;/p&gt;&lt;p&gt; Features: pleated luxurious&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N87="","",'English Master'!N87&amp;" ")&amp;IF('English Master'!O87="","",'English Master'!O87&amp;" ")&amp;IF('English Master'!P87="","",'English Master'!P87&amp;" ")&amp;IF('English Master'!Q87="","",'English Master'!Q87&amp;" ")&amp;IF('English Master'!R87="","",'English Master'!R87&amp;" ")&amp;IF('English Master'!K87="","",'English Master'!K87&amp;" ")&amp;IF('English Master'!J87="","",'English Master'!J87&amp;" ")&amp;IF('English Master'!I87="","",'English Master'!I87&amp;" ")</f>
+        <v xml:space="preserve">loose collar short sleeve no pockets above the knee pleated luxurious machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE87" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D87)&amp;" "&amp;'English Master'!F87&amp;" is made from fabric made in "&amp;'English Master'!L87&amp;". "&amp;IF('English Master'!AB87="",""," The model is also wearing "&amp;'English Master'!AB87&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Rana double jersey dress is made from fabric made in France. </v>
       </c>
       <c r="AF87" s="83" t="str">
         <f t="shared" si="16"/>
@@ -19834,8 +20233,12 @@
         <v>168</v>
       </c>
       <c r="AD88" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N88&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O88&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P88&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q88&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R88&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K88&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J88&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I88&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist elastic waste&lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets 2 pockets&lt;/p&gt;&lt;p&gt; Length above the knee&lt;/p&gt;&lt;p&gt; Features: pleated knitted&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N88="","",'English Master'!N88&amp;" ")&amp;IF('English Master'!O88="","",'English Master'!O88&amp;" ")&amp;IF('English Master'!P88="","",'English Master'!P88&amp;" ")&amp;IF('English Master'!Q88="","",'English Master'!Q88&amp;" ")&amp;IF('English Master'!R88="","",'English Master'!R88&amp;" ")&amp;IF('English Master'!K88="","",'English Master'!K88&amp;" ")&amp;IF('English Master'!J88="","",'English Master'!J88&amp;" ")&amp;IF('English Master'!I88="","",'English Master'!I88&amp;" ")</f>
+        <v xml:space="preserve">elastic waste 2 pockets above the knee pleated knitted machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE88" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D88)&amp;" "&amp;'English Master'!F88&amp;" is made from fabric made in "&amp;'English Master'!L88&amp;". "&amp;IF('English Master'!AB88="",""," The model is also wearing "&amp;'English Master'!AB88&amp;" by Amandine Leforestier")</f>
+        <v>Young French Designer Amandine Leforestiers' minimalist Suhel jacquard short is made from fabric made in France.  The model is also wearing Isis by Amandine Leforestier</v>
       </c>
       <c r="AF88" s="83" t="str">
         <f t="shared" si="16"/>
@@ -19911,8 +20314,12 @@
         <v>168</v>
       </c>
       <c r="AD89" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N89&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O89&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P89&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q89&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R89&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K89&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J89&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I89&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: &lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: &lt;/p&gt;</v>
+        <f>IF('English Master'!N89="","",'English Master'!N89&amp;" ")&amp;IF('English Master'!O89="","",'English Master'!O89&amp;" ")&amp;IF('English Master'!P89="","",'English Master'!P89&amp;" ")&amp;IF('English Master'!Q89="","",'English Master'!Q89&amp;" ")&amp;IF('English Master'!R89="","",'English Master'!R89&amp;" ")&amp;IF('English Master'!K89="","",'English Master'!K89&amp;" ")&amp;IF('English Master'!J89="","",'English Master'!J89&amp;" ")&amp;IF('English Master'!I89="","",'English Master'!I89&amp;" ")</f>
+        <v/>
+      </c>
+      <c r="AE89" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D89)&amp;" "&amp;'English Master'!F89&amp;" is made from fabric made in "&amp;'English Master'!L89&amp;". "&amp;IF('English Master'!AB89="",""," The model is also wearing "&amp;'English Master'!AB89&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Aludia  is made from fabric made in France. </v>
       </c>
       <c r="AF89" s="83" t="str">
         <f t="shared" si="16"/>
@@ -19988,8 +20395,12 @@
         <v>168</v>
       </c>
       <c r="AD90" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N90&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O90&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P90&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q90&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R90&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K90&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J90&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I90&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck twist detail collar&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves sleeveless&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: &lt;/p&gt;&lt;p&gt;Care: hand wash drip dry&lt;/p&gt;&lt;p&gt;Composition: 50% cotton 50% modal&lt;/p&gt;</v>
+        <f>IF('English Master'!N90="","",'English Master'!N90&amp;" ")&amp;IF('English Master'!O90="","",'English Master'!O90&amp;" ")&amp;IF('English Master'!P90="","",'English Master'!P90&amp;" ")&amp;IF('English Master'!Q90="","",'English Master'!Q90&amp;" ")&amp;IF('English Master'!R90="","",'English Master'!R90&amp;" ")&amp;IF('English Master'!K90="","",'English Master'!K90&amp;" ")&amp;IF('English Master'!J90="","",'English Master'!J90&amp;" ")&amp;IF('English Master'!I90="","",'English Master'!I90&amp;" ")</f>
+        <v xml:space="preserve">twist detail collar sleeveless hand wash drip dry 50% cotton 50% modal </v>
+      </c>
+      <c r="AE90" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D90)&amp;" "&amp;'English Master'!F90&amp;" is made from fabric made in "&amp;'English Master'!L90&amp;". "&amp;IF('English Master'!AB90="",""," The model is also wearing "&amp;'English Master'!AB90&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Ankaa jersey top is made from fabric made in Italy. </v>
       </c>
       <c r="AF90" s="83" t="str">
         <f t="shared" si="16"/>
@@ -20065,8 +20476,12 @@
         <v>168</v>
       </c>
       <c r="AD91" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N91&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O91&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P91&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q91&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R91&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K91&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J91&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I91&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck cowl neck&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves sleeveless&lt;/p&gt;&lt;p&gt; Pockets no pockets&lt;/p&gt;&lt;p&gt; Length knee length&lt;/p&gt;&lt;p&gt; Features: oversized simple&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N91="","",'English Master'!N91&amp;" ")&amp;IF('English Master'!O91="","",'English Master'!O91&amp;" ")&amp;IF('English Master'!P91="","",'English Master'!P91&amp;" ")&amp;IF('English Master'!Q91="","",'English Master'!Q91&amp;" ")&amp;IF('English Master'!R91="","",'English Master'!R91&amp;" ")&amp;IF('English Master'!K91="","",'English Master'!K91&amp;" ")&amp;IF('English Master'!J91="","",'English Master'!J91&amp;" ")&amp;IF('English Master'!I91="","",'English Master'!I91&amp;" ")</f>
+        <v xml:space="preserve">cowl neck sleeveless no pockets knee length oversized simple machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE91" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D91)&amp;" "&amp;'English Master'!F91&amp;" is made from fabric made in "&amp;'English Master'!L91&amp;". "&amp;IF('English Master'!AB91="",""," The model is also wearing "&amp;'English Master'!AB91&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Ati crepe dress is made from fabric made in France. </v>
       </c>
       <c r="AF91" s="83" t="str">
         <f t="shared" si="16"/>
@@ -20142,8 +20557,12 @@
         <v>168</v>
       </c>
       <c r="AD92" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N92&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O92&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P92&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q92&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R92&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K92&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J92&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I92&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck twist v cut neck on the back&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves sleeveless&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: knitted cloud draped loose tank top&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 100% cotton&lt;/p&gt;</v>
+        <f>IF('English Master'!N92="","",'English Master'!N92&amp;" ")&amp;IF('English Master'!O92="","",'English Master'!O92&amp;" ")&amp;IF('English Master'!P92="","",'English Master'!P92&amp;" ")&amp;IF('English Master'!Q92="","",'English Master'!Q92&amp;" ")&amp;IF('English Master'!R92="","",'English Master'!R92&amp;" ")&amp;IF('English Master'!K92="","",'English Master'!K92&amp;" ")&amp;IF('English Master'!J92="","",'English Master'!J92&amp;" ")&amp;IF('English Master'!I92="","",'English Master'!I92&amp;" ")</f>
+        <v xml:space="preserve">twist v cut neck on the back sleeveless knitted cloud draped loose tank top machine wash 30 drip dry 100% cotton </v>
+      </c>
+      <c r="AE92" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D92)&amp;" "&amp;'English Master'!F92&amp;" is made from fabric made in "&amp;'English Master'!L92&amp;". "&amp;IF('English Master'!AB92="",""," The model is also wearing "&amp;'English Master'!AB92&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Ero knit top is made from fabric made in France. </v>
       </c>
       <c r="AF92" s="83" t="str">
         <f t="shared" si="16"/>
@@ -20219,8 +20638,12 @@
         <v>168</v>
       </c>
       <c r="AD93" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N93&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O93&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P93&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q93&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R93&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K93&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J93&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I93&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck roped open neck line collar&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves 3/4 sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: square shaped&lt;/p&gt;&lt;p&gt;Care: hand wash drip dry&lt;/p&gt;&lt;p&gt;Composition: 74% cotton 26% nylon&lt;/p&gt;</v>
+        <f>IF('English Master'!N93="","",'English Master'!N93&amp;" ")&amp;IF('English Master'!O93="","",'English Master'!O93&amp;" ")&amp;IF('English Master'!P93="","",'English Master'!P93&amp;" ")&amp;IF('English Master'!Q93="","",'English Master'!Q93&amp;" ")&amp;IF('English Master'!R93="","",'English Master'!R93&amp;" ")&amp;IF('English Master'!K93="","",'English Master'!K93&amp;" ")&amp;IF('English Master'!J93="","",'English Master'!J93&amp;" ")&amp;IF('English Master'!I93="","",'English Master'!I93&amp;" ")</f>
+        <v xml:space="preserve">roped open neck line collar 3/4 sleeve square shaped hand wash drip dry 74% cotton 26% nylon </v>
+      </c>
+      <c r="AE93" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D93)&amp;" "&amp;'English Master'!F93&amp;" is made from fabric made in "&amp;'English Master'!L93&amp;". "&amp;IF('English Master'!AB93="",""," The model is also wearing "&amp;'English Master'!AB93&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Iana cotton fleece sweater is made from fabric made in Japan. </v>
       </c>
       <c r="AF93" s="83" t="str">
         <f t="shared" si="16"/>
@@ -20296,8 +20719,12 @@
         <v>168</v>
       </c>
       <c r="AD94" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N94&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O94&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P94&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q94&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R94&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K94&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J94&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I94&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck &lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves &lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: &lt;/p&gt;&lt;p&gt;Care: &lt;/p&gt;&lt;p&gt;Composition: &lt;/p&gt;</v>
+        <f>IF('English Master'!N94="","",'English Master'!N94&amp;" ")&amp;IF('English Master'!O94="","",'English Master'!O94&amp;" ")&amp;IF('English Master'!P94="","",'English Master'!P94&amp;" ")&amp;IF('English Master'!Q94="","",'English Master'!Q94&amp;" ")&amp;IF('English Master'!R94="","",'English Master'!R94&amp;" ")&amp;IF('English Master'!K94="","",'English Master'!K94&amp;" ")&amp;IF('English Master'!J94="","",'English Master'!J94&amp;" ")&amp;IF('English Master'!I94="","",'English Master'!I94&amp;" ")</f>
+        <v/>
+      </c>
+      <c r="AE94" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D94)&amp;" "&amp;'English Master'!F94&amp;" is made from fabric made in "&amp;'English Master'!L94&amp;". "&amp;IF('English Master'!AB94="",""," The model is also wearing "&amp;'English Master'!AB94&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Khese  is made from fabric made in France. </v>
       </c>
       <c r="AF94" s="83" t="str">
         <f t="shared" si="16"/>
@@ -20373,8 +20800,12 @@
         <v>168</v>
       </c>
       <c r="AD95" s="67" t="str">
-        <f>"&lt;p&gt; "&amp;'English Master'!$N$1&amp;" "&amp;'English Master'!N95&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$O$1&amp;" "&amp;'English Master'!O95&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$P$1&amp;" "&amp;'English Master'!P95&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$Q$1&amp;" "&amp;'English Master'!Q95&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$R$1&amp;" "&amp;'English Master'!R95&amp;"&lt;/p&gt;"&amp;"&lt;p&gt; "&amp;'English Master'!$K$1&amp;" "&amp;'English Master'!K95&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$J$1&amp;": "&amp;'English Master'!J95&amp;"&lt;/p&gt;&lt;p&gt;"&amp;'English Master'!$I$1&amp;": "&amp;'English Master'!I95&amp;"&lt;/p&gt;"</f>
-        <v>&lt;p&gt; Neck round&lt;/p&gt;&lt;p&gt; Waist &lt;/p&gt;&lt;p&gt; Sleeves short sleeve recessed sleeve&lt;/p&gt;&lt;p&gt; Pockets &lt;/p&gt;&lt;p&gt; Length &lt;/p&gt;&lt;p&gt; Features: t-shirt pleated cutout&lt;/p&gt;&lt;p&gt;Care: machine wash 30 drip dry&lt;/p&gt;&lt;p&gt;Composition: 70% cotton 30% linen&lt;/p&gt;</v>
+        <f>IF('English Master'!N95="","",'English Master'!N95&amp;" ")&amp;IF('English Master'!O95="","",'English Master'!O95&amp;" ")&amp;IF('English Master'!P95="","",'English Master'!P95&amp;" ")&amp;IF('English Master'!Q95="","",'English Master'!Q95&amp;" ")&amp;IF('English Master'!R95="","",'English Master'!R95&amp;" ")&amp;IF('English Master'!K95="","",'English Master'!K95&amp;" ")&amp;IF('English Master'!J95="","",'English Master'!J95&amp;" ")&amp;IF('English Master'!I95="","",'English Master'!I95&amp;" ")</f>
+        <v xml:space="preserve">round short sleeve recessed sleeve t-shirt pleated cutout machine wash 30 drip dry 70% cotton 30% linen </v>
+      </c>
+      <c r="AE95" t="str">
+        <f>"Young French Designer Amandine Leforestiers' minimalist "&amp;PROPER('English Master'!D95)&amp;" "&amp;'English Master'!F95&amp;" is made from fabric made in "&amp;'English Master'!L95&amp;". "&amp;IF('English Master'!AB95="",""," The model is also wearing "&amp;'English Master'!AB95&amp;" by Amandine Leforestier")</f>
+        <v xml:space="preserve">Young French Designer Amandine Leforestiers' minimalist Partition jersey top is made from fabric made in France. </v>
       </c>
       <c r="AF95" s="83" t="str">
         <f t="shared" si="16"/>
@@ -20533,7 +20964,7 @@
         <v>914</v>
       </c>
       <c r="C2" s="47" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D2" t="str">
         <f>VLOOKUP(A2,'English Master'!$A$2:$Z$95,7)&amp;":0;XS:1"</f>
@@ -20553,7 +20984,7 @@
         <v>914</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="D3" t="str">
         <f>VLOOKUP(A2,'English Master'!$A$2:$Z$95,7)&amp;":0;S:2"</f>
@@ -20573,7 +21004,7 @@
         <v>914</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D4" t="str">
         <f>VLOOKUP(A2,'English Master'!$A$2:$Z$95,7)&amp;":0;M:3"</f>
@@ -20593,7 +21024,7 @@
         <v>914</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D5" t="str">
         <f>VLOOKUP(A2,'English Master'!$A$2:$Z$95,7)&amp;":0;L:4"</f>
@@ -20629,13 +21060,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C1" s="47" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -20764,7 +21195,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B12">
         <v>75</v>
@@ -20777,7 +21208,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="B13">
         <v>70</v>
@@ -20790,7 +21221,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="B14">
         <v>114</v>
@@ -20827,7 +21258,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="B17">
         <v>110</v>
@@ -20840,7 +21271,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B18">
         <v>160</v>
@@ -20852,7 +21283,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B19">
         <v>85</v>
@@ -20864,7 +21295,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B20">
         <v>110</v>
@@ -20890,7 +21321,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B22">
         <v>100</v>
@@ -20915,7 +21346,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B24">
         <v>85</v>
@@ -20940,7 +21371,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B26">
         <v>100</v>
@@ -20952,7 +21383,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B27">
         <v>120</v>
@@ -21077,7 +21508,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="B37">
         <v>120</v>
@@ -21125,7 +21556,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B41">
         <v>80</v>
@@ -21161,7 +21592,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="B44">
         <v>125</v>
@@ -21197,7 +21628,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B47">
         <v>160</v>
@@ -21209,7 +21640,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="B48">
         <v>120</v>
@@ -21257,7 +21688,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="B52">
         <v>280</v>
@@ -21281,7 +21712,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B54">
         <v>90</v>
@@ -21317,7 +21748,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="B57">
         <v>160</v>
@@ -21365,7 +21796,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B61">
         <v>140</v>
@@ -21389,7 +21820,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B63">
         <v>120</v>
@@ -21401,7 +21832,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="B64">
         <v>110</v>
@@ -21497,7 +21928,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B72">
         <v>180</v>
@@ -21509,7 +21940,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B73">
         <v>110</v>
@@ -21545,7 +21976,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B76">
         <v>130</v>
@@ -21557,7 +21988,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="B77">
         <v>110</v>
@@ -21581,7 +22012,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="B79">
         <v>110</v>
@@ -21605,7 +22036,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -21641,7 +22072,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="B84">
         <v>120</v>
@@ -21653,7 +22084,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B85">
         <v>160</v>
@@ -21665,7 +22096,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="B86">
         <v>180</v>
@@ -21677,7 +22108,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="B87">
         <v>80</v>
@@ -21785,7 +22216,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="B96">
         <v>325</v>
